--- a/img/lun/links.xlsx
+++ b/img/lun/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Library/CloudStorage/Dropbox/GitHub/kennethbunker.github.io/img/lun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2526595D-455A-2A43-B11C-597A4728D0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBA8BD9-C714-9449-A791-7004CEE45EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="13760" windowHeight="15500" xr2:uid="{139F8825-776B-D141-A958-7D8ABBE3845F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="594">
   <si>
     <t>link</t>
   </si>
@@ -1813,13 +1813,19 @@
   </si>
   <si>
     <t>https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-05-21&amp;EsAviso=0&amp;PaginaId=10&amp;bodyid=0</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240508.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180115.jpeg"&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1865,13 +1871,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1894,7 +1893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1902,7 +1901,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2238,7 +2236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB7D67-50DA-F64C-B7EE-12631B37D868}">
-  <dimension ref="A1:C307"/>
+  <dimension ref="A1:D307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -2250,8 +2248,8 @@
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2260,18 +2258,20 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>20180102</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>20180107</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2280,9 +2280,12 @@
       <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="D3" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>20180115</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2291,9 +2294,12 @@
       <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="D4" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>20180121</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2302,9 +2308,10 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>20180124</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2313,9 +2320,10 @@
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>20180217</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2324,9 +2332,10 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>20180225</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2335,9 +2344,10 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>20180227</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2346,9 +2356,10 @@
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>20180307</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2357,9 +2368,10 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>20180312</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2368,9 +2380,10 @@
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>20180322</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2379,9 +2392,10 @@
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>20180328</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -2390,9 +2404,10 @@
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>20180404</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2401,9 +2416,10 @@
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>20180406</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -2412,9 +2428,10 @@
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>20180413</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2423,9 +2440,10 @@
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>20180414</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2434,9 +2452,10 @@
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>20180418</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -2445,9 +2464,10 @@
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>20180419</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2456,9 +2476,10 @@
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>20180420</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2467,9 +2488,10 @@
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20180422</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2478,9 +2500,10 @@
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>20180427</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -2489,9 +2512,10 @@
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>20180503</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -2500,9 +2524,10 @@
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>20180504</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2511,9 +2536,10 @@
       <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>20180507</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2522,9 +2548,10 @@
       <c r="C25" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>20180509</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -2533,9 +2560,10 @@
       <c r="C26" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>20180511</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2544,9 +2572,10 @@
       <c r="C27" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>20180514</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -2555,18 +2584,20 @@
       <c r="C28" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>20180516</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>20180518</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2575,9 +2606,10 @@
       <c r="C30" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>20180527</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2586,9 +2618,10 @@
       <c r="C31" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>20180608</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -2597,9 +2630,10 @@
       <c r="C32" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>20180612</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2608,9 +2642,10 @@
       <c r="C33" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>20180615</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2619,9 +2654,10 @@
       <c r="C34" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>20180618</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2630,9 +2666,10 @@
       <c r="C35" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>20180619</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2641,9 +2678,10 @@
       <c r="C36" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
         <v>20180709</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2652,9 +2690,10 @@
       <c r="C37" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>20180712</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2663,9 +2702,10 @@
       <c r="C38" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>20180719</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2674,9 +2714,10 @@
       <c r="C39" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>20180724</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -2685,9 +2726,10 @@
       <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>20180730</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2696,9 +2738,10 @@
       <c r="C41" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>20180810</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2707,9 +2750,10 @@
       <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>20180814</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2718,9 +2762,10 @@
       <c r="C43" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>20180824</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -2729,9 +2774,10 @@
       <c r="C44" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>20180830</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2740,27 +2786,30 @@
       <c r="C45" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>20180917</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>20181002</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>20181009</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2769,9 +2818,10 @@
       <c r="C48" s="6" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>20181010</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -2780,45 +2830,50 @@
       <c r="C49" s="6" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>20181016</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>20181019</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C51" s="4"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>20181125</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="4"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>20190313</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C53" s="4"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>20190320</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2827,18 +2882,20 @@
       <c r="C54" s="6" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>20190328</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C55" s="4"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>20190619</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -2847,27 +2904,30 @@
       <c r="C56" s="6" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>20191011</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>20191019</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>20191206</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2876,9 +2936,10 @@
       <c r="C59" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>20191216</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -2887,9 +2948,10 @@
       <c r="C60" s="6" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>20200124</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2898,9 +2960,10 @@
       <c r="C61" s="6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
         <v>20210126</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -2909,9 +2972,10 @@
       <c r="C62" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>20200229</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -2920,9 +2984,10 @@
       <c r="C63" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>20200303</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -2931,9 +2996,10 @@
       <c r="C64" s="6" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>20200307</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -2942,9 +3008,10 @@
       <c r="C65" s="6" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>20200320</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -2953,9 +3020,10 @@
       <c r="C66" s="6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>20200401</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -2964,9 +3032,10 @@
       <c r="C67" s="6" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>20200417</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -2975,9 +3044,10 @@
       <c r="C68" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>20200505</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -2986,9 +3056,10 @@
       <c r="C69" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>20200507</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -2997,9 +3068,10 @@
       <c r="C70" s="6" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>20200512</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3008,9 +3080,10 @@
       <c r="C71" s="6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>20200514</v>
       </c>
       <c r="B72" s="3" t="s">
@@ -3019,9 +3092,10 @@
       <c r="C72" s="6" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>20200527</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -3030,9 +3104,10 @@
       <c r="C73" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>20200530</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -3041,9 +3116,10 @@
       <c r="C74" s="6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="5">
         <v>20200605</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -3052,9 +3128,10 @@
       <c r="C75" s="6" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>20200609</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -3063,9 +3140,10 @@
       <c r="C76" s="6" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>20200612</v>
       </c>
       <c r="B77" s="3" t="s">
@@ -3074,9 +3152,10 @@
       <c r="C77" s="6" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>20200614</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -3085,9 +3164,10 @@
       <c r="C78" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>20200619</v>
       </c>
       <c r="B79" s="3" t="s">
@@ -3096,9 +3176,10 @@
       <c r="C79" s="6" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>20200701</v>
       </c>
       <c r="B80" s="3" t="s">
@@ -3107,9 +3188,10 @@
       <c r="C80" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>20200703</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -3118,9 +3200,10 @@
       <c r="C81" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>20200706</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -3129,9 +3212,10 @@
       <c r="C82" s="6" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>20200709</v>
       </c>
       <c r="B83" s="3" t="s">
@@ -3140,9 +3224,10 @@
       <c r="C83" s="6" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>20200721</v>
       </c>
       <c r="B84" s="3" t="s">
@@ -3151,9 +3236,10 @@
       <c r="C84" s="6" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="5">
         <v>20200724</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3162,9 +3248,10 @@
       <c r="C85" s="6" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>20200729</v>
       </c>
       <c r="B86" s="3" t="s">
@@ -3173,9 +3260,10 @@
       <c r="C86" s="6" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>20200820</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -3184,9 +3272,10 @@
       <c r="C87" s="6" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>20200826</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -3195,9 +3284,10 @@
       <c r="C88" s="6" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>20200917</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -3206,9 +3296,10 @@
       <c r="C89" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>20200930</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -3217,9 +3308,10 @@
       <c r="C90" s="6" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>20201001</v>
       </c>
       <c r="B91" s="3" t="s">
@@ -3228,9 +3320,10 @@
       <c r="C91" s="6" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>20201014</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -3239,9 +3332,10 @@
       <c r="C92" s="6" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>20201026</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -3250,9 +3344,10 @@
       <c r="C93" s="6" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>20201031</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -3261,9 +3356,10 @@
       <c r="C94" s="6" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>20201104</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -3272,9 +3368,10 @@
       <c r="C95" s="6" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>20201105</v>
       </c>
       <c r="B96" s="3" t="s">
@@ -3283,9 +3380,10 @@
       <c r="C96" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>20201111</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -3294,9 +3392,10 @@
       <c r="C97" s="6" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>20201120</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -3305,9 +3404,10 @@
       <c r="C98" s="6" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>20201202</v>
       </c>
       <c r="B99" s="3" t="s">
@@ -3316,9 +3416,10 @@
       <c r="C99" s="6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
         <v>20201204</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -3327,9 +3428,10 @@
       <c r="C100" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>20201216</v>
       </c>
       <c r="B101" s="3" t="s">
@@ -3338,9 +3440,10 @@
       <c r="C101" s="6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>20201219</v>
       </c>
       <c r="B102" s="3" t="s">
@@ -3349,9 +3452,10 @@
       <c r="C102" s="6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
         <v>20201230</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -3360,9 +3464,10 @@
       <c r="C103" s="6" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="5">
         <v>20211001</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -3371,9 +3476,10 @@
       <c r="C104" s="6" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
         <v>20210123</v>
       </c>
       <c r="B105" s="3" t="s">
@@ -3382,9 +3488,10 @@
       <c r="C105" s="6" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
         <v>20210126</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -3393,9 +3500,10 @@
       <c r="C106" s="6" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>20210215</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -3404,9 +3512,10 @@
       <c r="C107" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
         <v>20210216</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -3415,9 +3524,10 @@
       <c r="C108" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>20210318</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -3426,9 +3536,10 @@
       <c r="C109" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>20210326</v>
       </c>
       <c r="B110" s="3" t="s">
@@ -3437,9 +3548,10 @@
       <c r="C110" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <v>20210331</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -3448,9 +3560,10 @@
       <c r="C111" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>20210402</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -3459,9 +3572,10 @@
       <c r="C112" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>20210408</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -3470,9 +3584,10 @@
       <c r="C113" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>20210414</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -3481,9 +3596,10 @@
       <c r="C114" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>20210416</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -3492,9 +3608,10 @@
       <c r="C115" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>20210417</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -3503,9 +3620,10 @@
       <c r="C116" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>20210428</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -3514,9 +3632,10 @@
       <c r="C117" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>20210430</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -3525,18 +3644,20 @@
       <c r="C118" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>20210506</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C119" s="4"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
         <v>20210508</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -3545,9 +3666,10 @@
       <c r="C120" s="6" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
         <v>20210511</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -3556,18 +3678,20 @@
       <c r="C121" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>20210516</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>230</v>
       </c>
       <c r="C122" s="4"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
         <v>20210517</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -3576,9 +3700,10 @@
       <c r="C123" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
         <v>20210602</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -3587,9 +3712,10 @@
       <c r="C124" s="6" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
         <v>20210614</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -3598,9 +3724,10 @@
       <c r="C125" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
         <v>20210705</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -3609,9 +3736,10 @@
       <c r="C126" s="6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
         <v>20210707</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -3620,9 +3748,10 @@
       <c r="C127" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
         <v>20210713</v>
       </c>
       <c r="B128" s="3" t="s">
@@ -3631,9 +3760,10 @@
       <c r="C128" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
         <v>20210719</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -3642,9 +3772,10 @@
       <c r="C129" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
         <v>20210720</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -3653,9 +3784,10 @@
       <c r="C130" s="6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
         <v>20210721</v>
       </c>
       <c r="B131" s="3" t="s">
@@ -3664,9 +3796,10 @@
       <c r="C131" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
         <v>20210724</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -3675,9 +3808,10 @@
       <c r="C132" s="6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
         <v>20210727</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -3686,9 +3820,10 @@
       <c r="C133" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
         <v>20210729</v>
       </c>
       <c r="B134" s="3" t="s">
@@ -3697,9 +3832,10 @@
       <c r="C134" s="6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
         <v>20210910</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -3708,9 +3844,10 @@
       <c r="C135" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
         <v>20210915</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -3719,18 +3856,20 @@
       <c r="C136" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
         <v>20210916</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>259</v>
       </c>
       <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
         <v>20210921</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -3739,9 +3878,10 @@
       <c r="C138" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
         <v>20210925</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -3750,9 +3890,10 @@
       <c r="C139" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
         <v>20210928</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -3761,9 +3902,10 @@
       <c r="C140" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
         <v>20210929</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -3772,9 +3914,10 @@
       <c r="C141" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="5">
         <v>20211013</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -3783,9 +3926,10 @@
       <c r="C142" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="5">
         <v>20211014</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -3794,9 +3938,10 @@
       <c r="C143" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
         <v>20211019</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -3805,9 +3950,10 @@
       <c r="C144" s="6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
         <v>20211020</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -3816,9 +3962,10 @@
       <c r="C145" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="5">
         <v>20211103</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -3827,9 +3974,10 @@
       <c r="C146" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="5">
         <v>20211106</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -3838,9 +3986,10 @@
       <c r="C147" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
         <v>20211110</v>
       </c>
       <c r="B148" s="5" t="s">
@@ -3849,9 +3998,10 @@
       <c r="C148" s="6" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
         <v>20211111</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -3860,9 +4010,10 @@
       <c r="C149" s="6" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
         <v>20211113</v>
       </c>
       <c r="B150" s="3" t="s">
@@ -3871,9 +4022,10 @@
       <c r="C150" s="6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
         <v>20211115</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -3882,9 +4034,10 @@
       <c r="C151" s="6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
         <v>20211116</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -3893,9 +4046,10 @@
       <c r="C152" s="6" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
         <v>20211117</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -3904,9 +4058,10 @@
       <c r="C153" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
         <v>20211123</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -3915,9 +4070,10 @@
       <c r="C154" s="6" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
         <v>20211125</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -3926,9 +4082,10 @@
       <c r="C155" s="6" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
         <v>20211127</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -3937,9 +4094,10 @@
       <c r="C156" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
         <v>20211211</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -3948,9 +4106,10 @@
       <c r="C157" s="6" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
         <v>20211214</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -3959,9 +4118,10 @@
       <c r="C158" s="6" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
         <v>20211220</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -3970,18 +4130,20 @@
       <c r="C159" s="6" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
         <v>20211221</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>304</v>
       </c>
       <c r="C160" s="4"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
         <v>20211223</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -3990,9 +4152,10 @@
       <c r="C161" s="6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
         <v>20220106</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -4001,9 +4164,10 @@
       <c r="C162" s="6" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
         <v>20220122</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -4012,9 +4176,10 @@
       <c r="C163" s="6" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
         <v>20220130</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -4023,9 +4188,10 @@
       <c r="C164" s="6" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
         <v>20220202</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -4034,9 +4200,10 @@
       <c r="C165" s="6" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
         <v>20220206</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -4045,9 +4212,10 @@
       <c r="C166" s="6" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
         <v>20220207</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -4056,9 +4224,10 @@
       <c r="C167" s="6" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
         <v>20220210</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -4067,9 +4236,10 @@
       <c r="C168" s="6" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
         <v>20220216</v>
       </c>
       <c r="B169" s="3" t="s">
@@ -4078,9 +4248,10 @@
       <c r="C169" s="6" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
         <v>20220219</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -4089,9 +4260,10 @@
       <c r="C170" s="6" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
         <v>20220223</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -4100,9 +4272,10 @@
       <c r="C171" s="6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
         <v>20220225</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -4111,9 +4284,10 @@
       <c r="C172" s="6" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
         <v>20220312</v>
       </c>
       <c r="B173" s="5" t="s">
@@ -4122,9 +4296,10 @@
       <c r="C173" s="6" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
         <v>20220316</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -4133,9 +4308,10 @@
       <c r="C174" s="6" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
         <v>20220318</v>
       </c>
       <c r="B175" s="5" t="s">
@@ -4144,9 +4320,10 @@
       <c r="C175" s="6" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
         <v>20220323</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -4155,9 +4332,10 @@
       <c r="C176" s="6" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
         <v>20220325</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -4166,9 +4344,10 @@
       <c r="C177" s="6" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
         <v>20220330</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -4177,9 +4356,10 @@
       <c r="C178" s="6" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
         <v>20220413</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -4188,9 +4368,10 @@
       <c r="C179" s="6" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
         <v>20220414</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -4199,9 +4380,10 @@
       <c r="C180" s="6" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
         <v>20220416</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -4210,18 +4392,20 @@
       <c r="C181" s="6" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
         <v>20220420</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>347</v>
       </c>
       <c r="C182" s="4"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
         <v>20220423</v>
       </c>
       <c r="B183" s="3" t="s">
@@ -4230,18 +4414,20 @@
       <c r="C183" s="6" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
         <v>20220430</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>350</v>
       </c>
       <c r="C184" s="4"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
         <v>20220511</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -4250,9 +4436,10 @@
       <c r="C185" s="6" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
         <v>20220512</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -4261,9 +4448,10 @@
       <c r="C186" s="6" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
         <v>20220517</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -4272,9 +4460,10 @@
       <c r="C187" s="6" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
         <v>20220526</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -4283,18 +4472,20 @@
       <c r="C188" s="6" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
         <v>20220530</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>359</v>
       </c>
       <c r="C189" s="4"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
         <v>20220531</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -4303,9 +4494,10 @@
       <c r="C190" s="6" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
         <v>20220601</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -4314,9 +4506,10 @@
       <c r="C191" s="6" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
         <v>20220602</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -4325,9 +4518,10 @@
       <c r="C192" s="6" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
         <v>20220610</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -4336,9 +4530,10 @@
       <c r="C193" s="6" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
         <v>20220611</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -4347,9 +4542,10 @@
       <c r="C194" s="6" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
         <v>20220615</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -4358,9 +4554,10 @@
       <c r="C195" s="6" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
         <v>20220620</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -4369,9 +4566,10 @@
       <c r="C196" s="6" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
         <v>20220623</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -4380,18 +4578,20 @@
       <c r="C197" s="6" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
         <v>20220625</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>376</v>
       </c>
       <c r="C198" s="4"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
         <v>20220701</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -4400,9 +4600,10 @@
       <c r="C199" s="6" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
         <v>20220705</v>
       </c>
       <c r="B200" s="3" t="s">
@@ -4411,9 +4612,10 @@
       <c r="C200" s="6" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
         <v>20220706</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -4422,9 +4624,10 @@
       <c r="C201" s="6" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
         <v>20220714</v>
       </c>
       <c r="B202" s="3" t="s">
@@ -4433,9 +4636,10 @@
       <c r="C202" s="6" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
         <v>20220716</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -4444,9 +4648,10 @@
       <c r="C203" s="6" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
         <v>20220721</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -4455,9 +4660,10 @@
       <c r="C204" s="6" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
         <v>20220727</v>
       </c>
       <c r="B205" s="3" t="s">
@@ -4466,9 +4672,10 @@
       <c r="C205" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
         <v>20220730</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -4477,9 +4684,10 @@
       <c r="C206" s="6" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
         <v>20220802</v>
       </c>
       <c r="B207" s="3" t="s">
@@ -4488,9 +4696,10 @@
       <c r="C207" s="6" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
         <v>20220804</v>
       </c>
       <c r="B208" s="3" t="s">
@@ -4499,9 +4708,10 @@
       <c r="C208" s="6" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
         <v>20220809</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -4510,9 +4720,10 @@
       <c r="C209" s="6" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
         <v>20220812</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -4521,9 +4732,10 @@
       <c r="C210" s="6" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
         <v>20220818</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -4532,9 +4744,10 @@
       <c r="C211" s="6" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
+      <c r="D211" s="4"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
         <v>20220825</v>
       </c>
       <c r="B212" s="3" t="s">
@@ -4543,9 +4756,10 @@
       <c r="C212" s="6" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
+      <c r="D212" s="4"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
         <v>20220826</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -4554,9 +4768,10 @@
       <c r="C213" s="6" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
+      <c r="D213" s="4"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
         <v>20220828</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -4565,9 +4780,10 @@
       <c r="C214" s="6" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
+      <c r="D214" s="4"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
         <v>20220901</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -4576,9 +4792,10 @@
       <c r="C215" s="6" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
+      <c r="D215" s="4"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
         <v>20220905</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -4587,9 +4804,10 @@
       <c r="C216" s="6" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
+      <c r="D216" s="4"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
         <v>20220907</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -4598,9 +4816,10 @@
       <c r="C217" s="6" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
+      <c r="D217" s="4"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
         <v>20220909</v>
       </c>
       <c r="B218" s="3" t="s">
@@ -4609,9 +4828,10 @@
       <c r="C218" s="6" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
+      <c r="D218" s="4"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
         <v>20220914</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -4620,9 +4840,10 @@
       <c r="C219" s="6" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
+      <c r="D219" s="4"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
         <v>20220916</v>
       </c>
       <c r="B220" s="3" t="s">
@@ -4631,9 +4852,10 @@
       <c r="C220" s="6" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
+      <c r="D220" s="4"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
         <v>20220918</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -4642,9 +4864,10 @@
       <c r="C221" s="6" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
+      <c r="D221" s="4"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
         <v>20220924</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -4653,9 +4876,10 @@
       <c r="C222" s="6" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
+      <c r="D222" s="4"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
         <v>20220925</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -4664,9 +4888,10 @@
       <c r="C223" s="6" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
+      <c r="D223" s="4"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
         <v>20221027</v>
       </c>
       <c r="B224" s="5" t="s">
@@ -4675,18 +4900,20 @@
       <c r="C224" s="6" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
+      <c r="D224" s="4"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
         <v>20221029</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>429</v>
       </c>
       <c r="C225" s="4"/>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
+      <c r="D225" s="4"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
         <v>20221105</v>
       </c>
       <c r="B226" s="3" t="s">
@@ -4695,9 +4922,10 @@
       <c r="C226" s="6" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
+      <c r="D226" s="4"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="5">
         <v>20221108</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -4706,9 +4934,10 @@
       <c r="C227" s="6" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
+      <c r="D227" s="4"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
         <v>20221110</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -4717,9 +4946,10 @@
       <c r="C228" s="6" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
+      <c r="D228" s="4"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
         <v>20221114</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -4728,9 +4958,10 @@
       <c r="C229" s="6" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
+      <c r="D229" s="4"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
         <v>20221116</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -4739,9 +4970,10 @@
       <c r="C230" s="6" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
+      <c r="D230" s="4"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
         <v>20221121</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -4750,9 +4982,10 @@
       <c r="C231" s="6" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
+      <c r="D231" s="4"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
         <v>20221207</v>
       </c>
       <c r="B232" s="3" t="s">
@@ -4761,9 +4994,10 @@
       <c r="C232" s="6" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
+      <c r="D232" s="4"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
         <v>20221214</v>
       </c>
       <c r="B233" s="3" t="s">
@@ -4772,9 +5006,10 @@
       <c r="C233" s="6" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
+      <c r="D233" s="4"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
         <v>20221220</v>
       </c>
       <c r="B234" s="3" t="s">
@@ -4783,9 +5018,10 @@
       <c r="C234" s="6" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
+      <c r="D234" s="4"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
         <v>20221224</v>
       </c>
       <c r="B235" s="5" t="s">
@@ -4794,9 +5030,10 @@
       <c r="C235" s="6" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
+      <c r="D235" s="4"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
         <v>20221228</v>
       </c>
       <c r="B236" s="5" t="s">
@@ -4805,9 +5042,10 @@
       <c r="C236" s="6" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
+      <c r="D236" s="4"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
         <v>20221231</v>
       </c>
       <c r="B237" s="3" t="s">
@@ -4816,9 +5054,10 @@
       <c r="C237" s="6" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
+      <c r="D237" s="4"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
         <v>20230105</v>
       </c>
       <c r="B238" s="5" t="s">
@@ -4827,9 +5066,10 @@
       <c r="C238" s="6" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
+      <c r="D238" s="4"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
         <v>20230110</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -4838,9 +5078,10 @@
       <c r="C239" s="6" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
+      <c r="D239" s="4"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
         <v>20230114</v>
       </c>
       <c r="B240" s="5" t="s">
@@ -4849,9 +5090,10 @@
       <c r="C240" s="6" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
+      <c r="D240" s="4"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
         <v>20230125</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -4860,9 +5102,10 @@
       <c r="C241" s="6" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
+      <c r="D241" s="4"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
         <v>20230127</v>
       </c>
       <c r="B242" s="3" t="s">
@@ -4871,9 +5114,10 @@
       <c r="C242" s="6" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
+      <c r="D242" s="4"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
         <v>20230203</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -4882,9 +5126,10 @@
       <c r="C243" s="6" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
+      <c r="D243" s="4"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
         <v>20230222</v>
       </c>
       <c r="B244" s="3" t="s">
@@ -4893,9 +5138,10 @@
       <c r="C244" s="6" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
+      <c r="D244" s="4"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
         <v>20230223</v>
       </c>
       <c r="B245" s="5" t="s">
@@ -4904,9 +5150,10 @@
       <c r="C245" s="6" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
+      <c r="D245" s="4"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
         <v>20230307</v>
       </c>
       <c r="B246" s="3" t="s">
@@ -4915,9 +5162,10 @@
       <c r="C246" s="6" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
+      <c r="D246" s="4"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
         <v>20230308</v>
       </c>
       <c r="B247" s="3" t="s">
@@ -4926,9 +5174,10 @@
       <c r="C247" s="6" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
+      <c r="D247" s="4"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
         <v>20230309</v>
       </c>
       <c r="B248" s="3" t="s">
@@ -4937,9 +5186,10 @@
       <c r="C248" s="6" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
+      <c r="D248" s="4"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
         <v>20230311</v>
       </c>
       <c r="B249" s="3" t="s">
@@ -4948,9 +5198,10 @@
       <c r="C249" s="6" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
+      <c r="D249" s="4"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
         <v>20230323</v>
       </c>
       <c r="B250" s="3" t="s">
@@ -4959,9 +5210,10 @@
       <c r="C250" s="6" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="4">
+      <c r="D250" s="4"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
         <v>20230330</v>
       </c>
       <c r="B251" s="3" t="s">
@@ -4970,9 +5222,10 @@
       <c r="C251" s="6" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="4">
+      <c r="D251" s="4"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
         <v>20230407</v>
       </c>
       <c r="B252" s="5" t="s">
@@ -4981,9 +5234,10 @@
       <c r="C252" s="6" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="4">
+      <c r="D252" s="4"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
         <v>20230414</v>
       </c>
       <c r="B253" s="3" t="s">
@@ -4992,9 +5246,10 @@
       <c r="C253" s="6" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="4">
+      <c r="D253" s="4"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
         <v>20230420</v>
       </c>
       <c r="B254" s="3" t="s">
@@ -5003,9 +5258,10 @@
       <c r="C254" s="6" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="4">
+      <c r="D254" s="4"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
         <v>20230422</v>
       </c>
       <c r="B255" s="3" t="s">
@@ -5014,9 +5270,10 @@
       <c r="C255" s="6" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="4">
+      <c r="D255" s="4"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
         <v>20230429</v>
       </c>
       <c r="B256" s="3" t="s">
@@ -5025,9 +5282,10 @@
       <c r="C256" s="6" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="4">
+      <c r="D256" s="4"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
         <v>20230506</v>
       </c>
       <c r="B257" s="3" t="s">
@@ -5036,9 +5294,10 @@
       <c r="C257" s="6" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="4">
+      <c r="D257" s="4"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
         <v>20230508</v>
       </c>
       <c r="B258" s="3" t="s">
@@ -5047,9 +5306,10 @@
       <c r="C258" s="6" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="4">
+      <c r="D258" s="4"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
         <v>20230509</v>
       </c>
       <c r="B259" s="3" t="s">
@@ -5058,9 +5318,10 @@
       <c r="C259" s="6" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="4">
+      <c r="D259" s="4"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
         <v>20230525</v>
       </c>
       <c r="B260" s="5" t="s">
@@ -5069,9 +5330,10 @@
       <c r="C260" s="6" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="4">
+      <c r="D260" s="4"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
         <v>20230602</v>
       </c>
       <c r="B261" s="3" t="s">
@@ -5080,9 +5342,10 @@
       <c r="C261" s="6" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="4">
+      <c r="D261" s="4"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="5">
         <v>20230608</v>
       </c>
       <c r="B262" s="3" t="s">
@@ -5091,9 +5354,10 @@
       <c r="C262" s="6" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="4">
+      <c r="D262" s="4"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
         <v>20230614</v>
       </c>
       <c r="B263" s="3" t="s">
@@ -5102,9 +5366,10 @@
       <c r="C263" s="6" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="4">
+      <c r="D263" s="4"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
         <v>20230624</v>
       </c>
       <c r="B264" s="3" t="s">
@@ -5113,9 +5378,10 @@
       <c r="C264" s="6" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="4">
+      <c r="D264" s="4"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
         <v>20230705</v>
       </c>
       <c r="B265" s="3" t="s">
@@ -5124,9 +5390,10 @@
       <c r="C265" s="6" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="4">
+      <c r="D265" s="4"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
         <v>20230707</v>
       </c>
       <c r="B266" s="3" t="s">
@@ -5135,9 +5402,10 @@
       <c r="C266" s="6" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="4">
+      <c r="D266" s="4"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
         <v>20230713</v>
       </c>
       <c r="B267" s="3" t="s">
@@ -5146,9 +5414,10 @@
       <c r="C267" s="6" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="4">
+      <c r="D267" s="4"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
         <v>20230721</v>
       </c>
       <c r="B268" s="3" t="s">
@@ -5157,9 +5426,10 @@
       <c r="C268" s="6" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="4">
+      <c r="D268" s="4"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
         <v>20230728</v>
       </c>
       <c r="B269" s="5" t="s">
@@ -5168,9 +5438,10 @@
       <c r="C269" s="6" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="4">
+      <c r="D269" s="4"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
         <v>20230802</v>
       </c>
       <c r="B270" s="3" t="s">
@@ -5179,9 +5450,10 @@
       <c r="C270" s="6" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="4">
+      <c r="D270" s="4"/>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
         <v>20230817</v>
       </c>
       <c r="B271" s="3" t="s">
@@ -5190,9 +5462,10 @@
       <c r="C271" s="6" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="4">
+      <c r="D271" s="4"/>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
         <v>20230908</v>
       </c>
       <c r="B272" s="3" t="s">
@@ -5201,9 +5474,10 @@
       <c r="C272" s="6" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="4">
+      <c r="D272" s="4"/>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
         <v>20230912</v>
       </c>
       <c r="B273" s="3" t="s">
@@ -5212,9 +5486,10 @@
       <c r="C273" s="6" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="4">
+      <c r="D273" s="4"/>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="5">
         <v>20230916</v>
       </c>
       <c r="B274" s="3" t="s">
@@ -5223,9 +5498,10 @@
       <c r="C274" s="6" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="4">
+      <c r="D274" s="4"/>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
         <v>20230922</v>
       </c>
       <c r="B275" s="3" t="s">
@@ -5234,9 +5510,10 @@
       <c r="C275" s="6" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="4">
+      <c r="D275" s="4"/>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
         <v>20230927</v>
       </c>
       <c r="B276" s="3" t="s">
@@ -5245,9 +5522,10 @@
       <c r="C276" s="6" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="4">
+      <c r="D276" s="4"/>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="5">
         <v>20230929</v>
       </c>
       <c r="B277" s="3" t="s">
@@ -5256,9 +5534,10 @@
       <c r="C277" s="6" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="4">
+      <c r="D277" s="4"/>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
         <v>20231026</v>
       </c>
       <c r="B278" s="3" t="s">
@@ -5267,9 +5546,10 @@
       <c r="C278" s="6" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="4">
+      <c r="D278" s="4"/>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="5">
         <v>20231031</v>
       </c>
       <c r="B279" s="3" t="s">
@@ -5278,9 +5558,10 @@
       <c r="C279" s="6" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="4">
+      <c r="D279" s="4"/>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
         <v>20231103</v>
       </c>
       <c r="B280" s="3" t="s">
@@ -5289,9 +5570,10 @@
       <c r="C280" s="6" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="4">
+      <c r="D280" s="4"/>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="5">
         <v>20231108</v>
       </c>
       <c r="B281" s="3" t="s">
@@ -5300,9 +5582,10 @@
       <c r="C281" s="6" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="4">
+      <c r="D281" s="4"/>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
         <v>20231110</v>
       </c>
       <c r="B282" s="3" t="s">
@@ -5311,9 +5594,10 @@
       <c r="C282" s="6" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="4">
+      <c r="D282" s="4"/>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
         <v>20231116</v>
       </c>
       <c r="B283" s="3" t="s">
@@ -5322,9 +5606,10 @@
       <c r="C283" s="6" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="4">
+      <c r="D283" s="4"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
         <v>20231130</v>
       </c>
       <c r="B284" s="3" t="s">
@@ -5333,9 +5618,10 @@
       <c r="C284" s="6" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="4">
+      <c r="D284" s="4"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
         <v>20231208</v>
       </c>
       <c r="B285" s="3" t="s">
@@ -5344,9 +5630,10 @@
       <c r="C285" s="6" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="4">
+      <c r="D285" s="4"/>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
         <v>20231214</v>
       </c>
       <c r="B286" s="3" t="s">
@@ -5355,9 +5642,10 @@
       <c r="C286" s="6" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="4">
+      <c r="D286" s="4"/>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
         <v>20231216</v>
       </c>
       <c r="B287" s="3" t="s">
@@ -5366,9 +5654,10 @@
       <c r="C287" s="6" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="4">
+      <c r="D287" s="4"/>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
         <v>20231218</v>
       </c>
       <c r="B288" s="3" t="s">
@@ -5377,9 +5666,10 @@
       <c r="C288" s="6" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="4">
+      <c r="D288" s="4"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
         <v>20231219</v>
       </c>
       <c r="B289" s="3" t="s">
@@ -5388,9 +5678,10 @@
       <c r="C289" s="6" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="4">
+      <c r="D289" s="4"/>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
         <v>20231220</v>
       </c>
       <c r="B290" s="3" t="s">
@@ -5399,9 +5690,10 @@
       <c r="C290" s="6" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="4">
+      <c r="D290" s="4"/>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
         <v>20240126</v>
       </c>
       <c r="B291" s="3" t="s">
@@ -5410,9 +5702,10 @@
       <c r="C291" s="6" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="4">
+      <c r="D291" s="4"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
         <v>20240131</v>
       </c>
       <c r="B292" s="3" t="s">
@@ -5421,9 +5714,10 @@
       <c r="C292" s="6" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="4">
+      <c r="D292" s="4"/>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
         <v>20240202</v>
       </c>
       <c r="B293" s="3" t="s">
@@ -5432,9 +5726,10 @@
       <c r="C293" s="6" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="4">
+      <c r="D293" s="4"/>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
         <v>20240207</v>
       </c>
       <c r="B294" s="3" t="s">
@@ -5443,9 +5738,10 @@
       <c r="C294" s="6" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="4">
+      <c r="D294" s="4"/>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
         <v>20240305</v>
       </c>
       <c r="B295" s="3" t="s">
@@ -5454,9 +5750,10 @@
       <c r="C295" s="6" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="4">
+      <c r="D295" s="4"/>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
         <v>20240308</v>
       </c>
       <c r="B296" s="3" t="s">
@@ -5465,9 +5762,10 @@
       <c r="C296" s="6" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="4">
+      <c r="D296" s="4"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
         <v>20240316</v>
       </c>
       <c r="B297" s="3" t="s">
@@ -5476,9 +5774,10 @@
       <c r="C297" s="6" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="4">
+      <c r="D297" s="4"/>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
         <v>20240327</v>
       </c>
       <c r="B298" s="3" t="s">
@@ -5487,9 +5786,10 @@
       <c r="C298" s="6" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="4">
+      <c r="D298" s="4"/>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
         <v>20240328</v>
       </c>
       <c r="B299" s="3" t="s">
@@ -5498,9 +5798,10 @@
       <c r="C299" s="6" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="4">
+      <c r="D299" s="4"/>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
         <v>20240329</v>
       </c>
       <c r="B300" s="3" t="s">
@@ -5509,9 +5810,10 @@
       <c r="C300" s="6" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="4">
+      <c r="D300" s="4"/>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
         <v>20240406</v>
       </c>
       <c r="B301" s="3" t="s">
@@ -5520,9 +5822,10 @@
       <c r="C301" s="6" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="4">
+      <c r="D301" s="4"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
         <v>20240418</v>
       </c>
       <c r="B302" s="3" t="s">
@@ -5531,9 +5834,10 @@
       <c r="C302" s="6" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="4">
+      <c r="D302" s="4"/>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
         <v>20240419</v>
       </c>
       <c r="B303" s="3" t="s">
@@ -5542,9 +5846,10 @@
       <c r="C303" s="6" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="4">
+      <c r="D303" s="4"/>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
         <v>20240423</v>
       </c>
       <c r="B304" s="3" t="s">
@@ -5553,9 +5858,10 @@
       <c r="C304" s="6" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="4">
+      <c r="D304" s="4"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
         <v>20240508</v>
       </c>
       <c r="B305" s="3" t="s">
@@ -5564,9 +5870,10 @@
       <c r="C305" s="6" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="4">
+      <c r="D305" s="4"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="5">
         <v>20240521</v>
       </c>
       <c r="B306" s="5" t="s">
@@ -5575,8 +5882,9 @@
       <c r="C306" s="6" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D306" s="4"/>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
         <v>20240508</v>
       </c>
@@ -5591,291 +5899,291 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{34598F38-A4E8-AA4B-9688-7F7F2E858AD9}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{604B6CE5-465E-B24A-A5DF-2F08F6134725}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{93083227-1F50-B449-BCDE-721BF17F80D1}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{1CCEADAF-AEB4-1E47-95F3-45F51A6B0EDC}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{46951F8C-63A6-4C43-836D-ABA2CA446A02}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{54CAC554-6330-874E-9203-CB4B15D8F5D0}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{B54444CA-A878-2E40-A866-DCD336570DBF}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{8F466037-316F-8841-A3F9-1B6218CBDFC8}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{F8827C3D-2977-1A45-8131-30BC9EDEF82E}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{BEE7A8B5-89B2-8444-A5F7-B650E300A417}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{A075EAA0-8E93-6842-933F-CF0B5C6C7317}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{AC05608E-B26E-BF4B-9931-8FD70430C444}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{631DA741-7A69-4C48-BADF-362C95F63969}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{B1EDECD1-4BC1-DC44-9D97-0DEEB6AF50E1}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{D839C00C-F110-4F4A-8331-855D5A7B2FBC}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{B41786BC-4133-104E-9146-AEB70677E5D9}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{15EA5915-6556-8D40-8D64-9E920D493695}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{4D7A937E-7E19-884E-AA41-A38A3DF3410B}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{10C581F9-20F3-1D43-BF72-834C2BA8522D}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{6F088B20-C3F6-9C4A-B369-D1C0971D7236}"/>
-    <hyperlink ref="C23" r:id="rId21" xr:uid="{09AA5011-A54D-0C4B-ACFA-A3A960445B54}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{3E6A6D83-C27D-4041-8AAA-6BBF94F76C00}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{40B7292D-3695-074C-8894-156A7B4D4A54}"/>
-    <hyperlink ref="C26" r:id="rId24" xr:uid="{71B259D6-AD69-FE44-BB93-608CC694B37F}"/>
-    <hyperlink ref="C27" r:id="rId25" xr:uid="{426A67F7-9EE1-1C4C-BC17-E5BF543E637C}"/>
-    <hyperlink ref="C28" r:id="rId26" xr:uid="{13E87F9B-5BC0-384A-9A61-0C3EA7F0B6C7}"/>
-    <hyperlink ref="C30" r:id="rId27" xr:uid="{886817DF-6927-2242-B550-E668CF7A90E5}"/>
-    <hyperlink ref="C31" r:id="rId28" xr:uid="{E8351E14-6C89-A440-9882-69C3A0FDD7E5}"/>
-    <hyperlink ref="C32" r:id="rId29" xr:uid="{CE359CFF-CE86-7B47-BFDE-505A551E6212}"/>
-    <hyperlink ref="C33" r:id="rId30" xr:uid="{57015165-2FFF-7A4A-AF83-4FEEACE08715}"/>
-    <hyperlink ref="C34" r:id="rId31" xr:uid="{0E7B9263-5756-C14C-B3B4-CAD7888B1CAD}"/>
-    <hyperlink ref="C35" r:id="rId32" xr:uid="{A13DA1EF-02E0-B04C-9AD4-7530B6B75BB2}"/>
-    <hyperlink ref="C36" r:id="rId33" xr:uid="{73E12185-976E-564E-848C-50A749DBCB3C}"/>
-    <hyperlink ref="C37" r:id="rId34" xr:uid="{6B5DEEFA-7CE8-9F4E-9562-A1FA0215ED7B}"/>
-    <hyperlink ref="C38" r:id="rId35" xr:uid="{4DA5BABC-A43C-EB48-9603-DB0FB325EEEE}"/>
-    <hyperlink ref="C39" r:id="rId36" xr:uid="{4A5DDF4E-472C-FF4A-AA2C-65F9B1E84390}"/>
-    <hyperlink ref="C40" r:id="rId37" xr:uid="{9124EE5C-0FC4-1548-8085-A225DAFE9AAF}"/>
-    <hyperlink ref="C41" r:id="rId38" xr:uid="{69F1A26D-10C0-5046-B3AB-DB9A505285D8}"/>
-    <hyperlink ref="C42" r:id="rId39" xr:uid="{7CC1CDE3-56D6-0341-8997-081365CAD11E}"/>
-    <hyperlink ref="C43" r:id="rId40" xr:uid="{47A2EC04-34FB-414D-AA00-35077F97A6F6}"/>
-    <hyperlink ref="C44" r:id="rId41" xr:uid="{5ABB323E-5B34-D14E-B394-6CA748BE0D88}"/>
-    <hyperlink ref="C45" r:id="rId42" xr:uid="{8CE6AE9C-1445-BB4E-A518-243E919C7F80}"/>
-    <hyperlink ref="C48" r:id="rId43" xr:uid="{AE9C82CE-903C-B744-9482-96C8FD88CA33}"/>
-    <hyperlink ref="C49" r:id="rId44" xr:uid="{502F4575-19F5-5C4B-86E3-912E24DE575F}"/>
-    <hyperlink ref="C54" r:id="rId45" xr:uid="{C9522EF1-C46D-6C4F-9C9D-4E804C366C1B}"/>
-    <hyperlink ref="C56" r:id="rId46" xr:uid="{D62A550C-1412-F94C-9E81-32D978EEB467}"/>
-    <hyperlink ref="C59" r:id="rId47" xr:uid="{C21E8309-3E80-9643-A1B7-A598F5CF10FE}"/>
-    <hyperlink ref="C60" r:id="rId48" xr:uid="{27D346BE-DFED-E843-B44A-2E97AA778D7A}"/>
-    <hyperlink ref="C61" r:id="rId49" xr:uid="{1F9D775B-876A-FF4F-9EF7-63F904C3BDD1}"/>
-    <hyperlink ref="C62" r:id="rId50" xr:uid="{9DF57A72-867B-154C-BB02-2265F6936805}"/>
-    <hyperlink ref="C63" r:id="rId51" xr:uid="{D9B63708-F09C-7B45-AA43-0F9D0C8F903C}"/>
-    <hyperlink ref="C64" r:id="rId52" xr:uid="{1257166A-DD92-4A46-ACD1-F732C8C23FB1}"/>
-    <hyperlink ref="C65" r:id="rId53" xr:uid="{506F2AE8-FEBA-D843-A2B5-52669D60A6A4}"/>
-    <hyperlink ref="C66" r:id="rId54" xr:uid="{6610FAF7-6CAA-3E47-94DE-3694A59641EC}"/>
-    <hyperlink ref="C67" r:id="rId55" xr:uid="{61828E6C-141E-5940-82EB-8E5332B8B02A}"/>
-    <hyperlink ref="C68" r:id="rId56" xr:uid="{5030B958-192F-4847-ADA2-4558360B351C}"/>
-    <hyperlink ref="C69" r:id="rId57" xr:uid="{73D4F4B4-227C-0444-9399-45286FC993B5}"/>
-    <hyperlink ref="C70" r:id="rId58" xr:uid="{C4D1F8AD-6E7A-4842-B563-E02F2733E462}"/>
-    <hyperlink ref="C71" r:id="rId59" xr:uid="{DB0F8833-55CC-8548-8D28-820DD18567D8}"/>
-    <hyperlink ref="C72" r:id="rId60" xr:uid="{83716CFC-0C8B-7D41-9503-4D4E8F281ADA}"/>
-    <hyperlink ref="C73" r:id="rId61" xr:uid="{54149D90-2527-714C-AF04-74F708944D05}"/>
-    <hyperlink ref="C74" r:id="rId62" xr:uid="{E6E7C156-2D1C-BA4F-905E-0D29DFC19A90}"/>
-    <hyperlink ref="C75" r:id="rId63" xr:uid="{E001536A-038D-DF4C-9BAD-72EBF291B84C}"/>
-    <hyperlink ref="C76" r:id="rId64" xr:uid="{C6802105-4647-2C49-9AC7-E75043BD8AC1}"/>
-    <hyperlink ref="C77" r:id="rId65" xr:uid="{A622A30C-AF61-CC4C-B9E8-AC7DB89A30C8}"/>
-    <hyperlink ref="C78" r:id="rId66" xr:uid="{F936883B-6F4F-2A44-BFC0-B198BDB974EA}"/>
-    <hyperlink ref="C79" r:id="rId67" xr:uid="{9D3B6C15-C044-8544-9E71-42B90ED895FC}"/>
-    <hyperlink ref="C80" r:id="rId68" xr:uid="{F4C13E1F-30FE-CC47-8C7A-F1C336909135}"/>
-    <hyperlink ref="C81" r:id="rId69" xr:uid="{02B1F8E5-15BF-B444-ABBC-55777FF4EBDF}"/>
-    <hyperlink ref="C82" r:id="rId70" xr:uid="{0CBEA5DB-08C4-5246-AA98-533BE41603DB}"/>
-    <hyperlink ref="C83" r:id="rId71" xr:uid="{7AC4B9B9-C283-8445-82A4-3B058CEBBF14}"/>
-    <hyperlink ref="C84" r:id="rId72" xr:uid="{EC3C55E3-C71A-6047-92A4-82BD22D971B7}"/>
-    <hyperlink ref="C85" r:id="rId73" xr:uid="{389FEBA4-AEDD-6442-9FBD-8E623D496F59}"/>
-    <hyperlink ref="C86" r:id="rId74" xr:uid="{71AE21F6-1569-EC41-A6B9-076791C89210}"/>
-    <hyperlink ref="C87" r:id="rId75" xr:uid="{23770FAD-08CA-0F49-8F26-FF88C950AB2B}"/>
-    <hyperlink ref="C88" r:id="rId76" xr:uid="{0FF01C73-1422-F34D-93F9-28BDC4740EA1}"/>
-    <hyperlink ref="C89" r:id="rId77" xr:uid="{8A51B550-BA17-E24E-A6A3-AE02F4F7A4C0}"/>
-    <hyperlink ref="C90" r:id="rId78" xr:uid="{9D117D27-0324-2843-AF47-7E1D4CE7DD95}"/>
-    <hyperlink ref="C91" r:id="rId79" xr:uid="{A6DC92D3-869D-EA44-A6C3-0612C2331FAA}"/>
-    <hyperlink ref="C92" r:id="rId80" xr:uid="{1D44F53B-B425-F04E-BE38-0345A54836BF}"/>
-    <hyperlink ref="C93" r:id="rId81" xr:uid="{563F096C-0D0A-154C-A4E3-DF3E5F7E0FA5}"/>
-    <hyperlink ref="C94" r:id="rId82" xr:uid="{2ED7ED3A-534F-8641-869A-1793A50A6A64}"/>
-    <hyperlink ref="C95" r:id="rId83" xr:uid="{6FB19517-2D71-A646-A67D-35A764FEAA54}"/>
-    <hyperlink ref="C96" r:id="rId84" xr:uid="{3B649256-30E6-D54A-9F1C-EC8517BD5C2D}"/>
-    <hyperlink ref="C97" r:id="rId85" xr:uid="{8AA135D6-E09E-8342-83D4-E64326E6B9C5}"/>
-    <hyperlink ref="C98" r:id="rId86" xr:uid="{15E093AA-5D6A-624C-9C3D-88A2B5A300D5}"/>
-    <hyperlink ref="C99" r:id="rId87" xr:uid="{15765E31-7401-F44F-A67F-ECC8B1C565BE}"/>
-    <hyperlink ref="C100" r:id="rId88" xr:uid="{6DC77A8F-26AD-964F-95D5-DBDA5AAA155C}"/>
-    <hyperlink ref="C101" r:id="rId89" xr:uid="{7215CBF8-FB45-6449-B2C4-BD7189324E8D}"/>
-    <hyperlink ref="C102" r:id="rId90" xr:uid="{D9788811-3650-F44A-9FDF-B2B0114189AF}"/>
-    <hyperlink ref="C103" r:id="rId91" xr:uid="{DEB6419E-6B25-A54C-9987-F398AF700C55}"/>
-    <hyperlink ref="C104" r:id="rId92" xr:uid="{B677F8E5-321E-6145-92E1-BFF8C141FA54}"/>
-    <hyperlink ref="C105" r:id="rId93" xr:uid="{C280D74A-971A-2743-B3E5-C7C81D56A1AE}"/>
-    <hyperlink ref="C106" r:id="rId94" xr:uid="{DF780F02-1DAC-B242-9540-7E5219A7C8BA}"/>
-    <hyperlink ref="C107" r:id="rId95" xr:uid="{A21CC6E9-AD55-C04E-82CD-16593145DAEA}"/>
-    <hyperlink ref="C108" r:id="rId96" xr:uid="{56425230-259C-064E-BEEF-56163AC70500}"/>
-    <hyperlink ref="C109" r:id="rId97" xr:uid="{C1EE72B1-F95F-A749-A34E-30E549F475C3}"/>
-    <hyperlink ref="C110" r:id="rId98" xr:uid="{40C2EA6D-6264-9B4D-B3F5-78D27D5B56D1}"/>
-    <hyperlink ref="C111" r:id="rId99" xr:uid="{76D2A726-FC98-3B47-B971-B659B7150998}"/>
-    <hyperlink ref="C112" r:id="rId100" xr:uid="{3998CA82-027D-B34B-8892-9497A523C5A3}"/>
-    <hyperlink ref="C113" r:id="rId101" xr:uid="{BDFC2314-399B-E446-9D18-CAA1A47BD9C6}"/>
-    <hyperlink ref="C114" r:id="rId102" xr:uid="{D4A0E280-1DD1-5A49-BC9D-E7FB5FA662A5}"/>
-    <hyperlink ref="C115" r:id="rId103" xr:uid="{F753DDB7-497F-694E-8B37-6399671C1012}"/>
-    <hyperlink ref="C116" r:id="rId104" xr:uid="{CD2137E6-8E5A-4340-A342-D4A965A405A8}"/>
-    <hyperlink ref="C117" r:id="rId105" xr:uid="{55E885E9-47D5-1741-BFB0-E4F3753019FD}"/>
-    <hyperlink ref="C118" r:id="rId106" xr:uid="{C91289B3-6A48-9947-BB6C-D6FA57E5F090}"/>
-    <hyperlink ref="C120" r:id="rId107" xr:uid="{5B2CBBDF-399E-744D-A3F4-61D8520BACA1}"/>
-    <hyperlink ref="C121" r:id="rId108" xr:uid="{01B29927-5575-F844-98B0-2A3DCCDB91D4}"/>
-    <hyperlink ref="C123" r:id="rId109" xr:uid="{B82900FA-6EC0-8245-8B91-A0A1F1605E4A}"/>
-    <hyperlink ref="C124" r:id="rId110" xr:uid="{61B5DB44-B983-2C46-B7D3-2B1093E721FC}"/>
-    <hyperlink ref="C125" r:id="rId111" xr:uid="{C9C471A8-4A80-4B4D-B266-5444006CB707}"/>
-    <hyperlink ref="C126" r:id="rId112" xr:uid="{6DD60FCC-A800-C343-8A39-9DC85F08D37D}"/>
-    <hyperlink ref="C127" r:id="rId113" xr:uid="{E182EEB1-128D-E849-A21D-8113679C4D9D}"/>
-    <hyperlink ref="C128" r:id="rId114" xr:uid="{CA59F64F-4553-484C-BA01-A26C844EC135}"/>
-    <hyperlink ref="C129" r:id="rId115" xr:uid="{5BDD3B1F-529E-FD49-ACF0-6C9C60328F76}"/>
-    <hyperlink ref="C130" r:id="rId116" xr:uid="{C0C4F67A-9BE7-BC4C-BF9F-4FD630A70498}"/>
-    <hyperlink ref="C131" r:id="rId117" xr:uid="{78DE87F2-8421-1B40-98AE-6765C574A1A6}"/>
-    <hyperlink ref="C132" r:id="rId118" xr:uid="{1EC53006-C9A9-0940-8A16-56BB2A484651}"/>
-    <hyperlink ref="C133" r:id="rId119" xr:uid="{D41CAEF4-2680-4B40-9676-88C87235088F}"/>
-    <hyperlink ref="C134" r:id="rId120" xr:uid="{6A22F29B-A18D-0A4D-99F5-7304A4C47318}"/>
-    <hyperlink ref="C135" r:id="rId121" xr:uid="{5F03C54B-15B8-E34D-BCDD-30F76A81B90C}"/>
-    <hyperlink ref="C136" r:id="rId122" xr:uid="{8A0C26C9-229F-FB44-A241-D7DDC5CC8228}"/>
-    <hyperlink ref="C138" r:id="rId123" xr:uid="{EF659BFD-B6FC-F949-969E-C05272FE888E}"/>
-    <hyperlink ref="C139" r:id="rId124" xr:uid="{7138AB16-BAF3-2543-8335-0532D140BC82}"/>
-    <hyperlink ref="C140" r:id="rId125" xr:uid="{F541E8E3-EB18-CE42-9B4B-9ADBDDE11603}"/>
-    <hyperlink ref="C141" r:id="rId126" xr:uid="{1C2562C7-1ED5-004D-AD2E-1799874BDD17}"/>
-    <hyperlink ref="C142" r:id="rId127" xr:uid="{DF6A3490-9550-5945-9BA3-41989158DC25}"/>
-    <hyperlink ref="C143" r:id="rId128" xr:uid="{298B7233-2477-9E40-8BEF-B117120DB3CC}"/>
-    <hyperlink ref="C144" r:id="rId129" xr:uid="{404DE683-C768-174E-9ED3-5E8ED21E8269}"/>
-    <hyperlink ref="C145" r:id="rId130" xr:uid="{A1A4F8F6-7272-214E-A57C-B944BACF2556}"/>
-    <hyperlink ref="C146" r:id="rId131" xr:uid="{4E2122E8-FE4D-9547-AB73-FBA416293363}"/>
-    <hyperlink ref="C147" r:id="rId132" xr:uid="{FA727799-7D16-EC49-A753-C81FDEAFA288}"/>
-    <hyperlink ref="C148" r:id="rId133" xr:uid="{5BCC14A6-D590-7A4D-A0B0-CF8235135E41}"/>
-    <hyperlink ref="C149" r:id="rId134" xr:uid="{6A3BD4CB-B323-2044-91DB-B05DC26D7B19}"/>
-    <hyperlink ref="C150" r:id="rId135" xr:uid="{E550C375-E46C-8C4A-875C-5520648AD79A}"/>
-    <hyperlink ref="C151" r:id="rId136" xr:uid="{5DF80938-54EE-454B-ADF2-4BC809ECA1D6}"/>
-    <hyperlink ref="C152" r:id="rId137" xr:uid="{C035C8B3-64B3-DC40-88D8-9CE5F731B473}"/>
-    <hyperlink ref="C153" r:id="rId138" xr:uid="{9843AEDF-49CB-6848-B67F-D4E60CBBC3BE}"/>
-    <hyperlink ref="C154" r:id="rId139" xr:uid="{E5C6A3D1-57CD-244A-9DD2-4E19B919B348}"/>
-    <hyperlink ref="C155" r:id="rId140" xr:uid="{DCC5D3AB-DDA3-704D-AD72-5C95D59C9900}"/>
-    <hyperlink ref="C156" r:id="rId141" xr:uid="{627CE315-2FA5-5543-9D58-346346EC3326}"/>
-    <hyperlink ref="C157" r:id="rId142" xr:uid="{D6833880-623D-0342-B0A9-82D106FB44FE}"/>
-    <hyperlink ref="C158" r:id="rId143" xr:uid="{871DAB9D-584C-C349-A2DA-8965D98078D4}"/>
-    <hyperlink ref="C159" r:id="rId144" xr:uid="{DA179A96-4053-DF4A-AF97-12EC3C75A0B2}"/>
-    <hyperlink ref="C161" r:id="rId145" xr:uid="{8484FBA1-6FF8-E448-9DF3-EC1C27161601}"/>
-    <hyperlink ref="C162" r:id="rId146" xr:uid="{B2BE6A9D-A5B6-8E4F-99AB-5AE088E6543D}"/>
-    <hyperlink ref="C163" r:id="rId147" xr:uid="{C894847A-31DD-F246-89A3-6746FE53BD05}"/>
-    <hyperlink ref="C164" r:id="rId148" xr:uid="{2F10B77B-7D51-A846-9866-7769C083BDBC}"/>
-    <hyperlink ref="C165" r:id="rId149" xr:uid="{A0E034B6-F467-0943-BEB7-152BC253A70E}"/>
-    <hyperlink ref="C166" r:id="rId150" xr:uid="{456BE817-725A-BC4C-BC84-346F0BDB4FB7}"/>
-    <hyperlink ref="C167" r:id="rId151" xr:uid="{2D3CB426-EA1C-404A-8EF2-39E06D426687}"/>
-    <hyperlink ref="C168" r:id="rId152" xr:uid="{FF335B79-52C0-774D-9330-723F71D1BCB6}"/>
-    <hyperlink ref="C169" r:id="rId153" xr:uid="{5783650C-D12F-EA42-B4E6-22C629879B35}"/>
-    <hyperlink ref="C170" r:id="rId154" xr:uid="{E9DA948E-58DC-FF42-BE13-311B59974856}"/>
-    <hyperlink ref="C171" r:id="rId155" xr:uid="{98E1755E-87EC-6A4E-94FD-9D4FF89ABF08}"/>
-    <hyperlink ref="C172" r:id="rId156" xr:uid="{22238AFA-32A4-264C-983F-4F39DF7680B3}"/>
-    <hyperlink ref="C173" r:id="rId157" xr:uid="{7CECA28D-D495-2D49-AA99-A6D357CCC1B3}"/>
-    <hyperlink ref="C174" r:id="rId158" xr:uid="{EF2D5A00-AAF6-034F-AB02-195FB9C0344D}"/>
-    <hyperlink ref="C175" r:id="rId159" xr:uid="{5124BD6A-C4FF-2C4D-9F7E-DFD549FAC85B}"/>
-    <hyperlink ref="C176" r:id="rId160" xr:uid="{6ACCE115-D7FA-3D4C-9F69-8E684DF57B65}"/>
-    <hyperlink ref="C177" r:id="rId161" xr:uid="{8DCDE36E-ED79-E04B-BB1F-E9BB65656CE3}"/>
-    <hyperlink ref="C178" r:id="rId162" xr:uid="{9FCE621E-4234-9F48-9180-9D514378F199}"/>
-    <hyperlink ref="C179" r:id="rId163" xr:uid="{66461998-7288-A543-9503-30D4EE8D778F}"/>
-    <hyperlink ref="C180" r:id="rId164" xr:uid="{4930340E-9ECE-CE49-8AF6-9FB6360D540E}"/>
-    <hyperlink ref="C181" r:id="rId165" xr:uid="{10CC3433-3F97-F846-9948-1FD4CD6173E8}"/>
-    <hyperlink ref="C183" r:id="rId166" xr:uid="{A5366EED-D279-B24F-B1C1-B55CAD4A8D9A}"/>
-    <hyperlink ref="C185" r:id="rId167" xr:uid="{E5D4CD9E-CCF6-F94B-B0FA-233BE0BA4275}"/>
-    <hyperlink ref="C186" r:id="rId168" xr:uid="{DB377F14-99E8-0F4D-B21F-E0F0D899D17E}"/>
-    <hyperlink ref="C187" r:id="rId169" xr:uid="{2C412B5C-7F76-C74A-90F4-9271E209FF45}"/>
-    <hyperlink ref="C188" r:id="rId170" xr:uid="{EA9D1855-5165-C54A-A844-ED5951193F08}"/>
-    <hyperlink ref="C190" r:id="rId171" xr:uid="{CC7D6195-EC97-BD4F-BDAE-FD83DAFAF6D8}"/>
-    <hyperlink ref="C191" r:id="rId172" xr:uid="{4654F7D3-7739-434A-A424-0FF136EC9E00}"/>
-    <hyperlink ref="C192" r:id="rId173" xr:uid="{5CCD22F4-2B96-4D44-A75F-D2EEA4B16A35}"/>
-    <hyperlink ref="C193" r:id="rId174" xr:uid="{811E0BDD-35F6-0F44-9AFC-6620C16A59B9}"/>
-    <hyperlink ref="C194" r:id="rId175" xr:uid="{15E3584E-DBE6-FC47-A4F6-C8ABDD9E9870}"/>
-    <hyperlink ref="C195" r:id="rId176" xr:uid="{BA0215CB-5E0D-9C4D-B9A2-AA71A1C865F9}"/>
-    <hyperlink ref="C196" r:id="rId177" xr:uid="{DB8BB90E-42E4-E040-AA22-6615D837D346}"/>
-    <hyperlink ref="C197" r:id="rId178" xr:uid="{4854AAAF-F3CC-3645-96D7-92BF5808EAB0}"/>
-    <hyperlink ref="C199" r:id="rId179" xr:uid="{C778872D-397D-AD4B-948E-5E86940419D1}"/>
-    <hyperlink ref="C200" r:id="rId180" xr:uid="{66F90CAB-B030-EE48-B462-D79ECBF75DB0}"/>
-    <hyperlink ref="C201" r:id="rId181" xr:uid="{2F162E8F-234C-D14C-A49D-4489171F8F83}"/>
-    <hyperlink ref="C202" r:id="rId182" xr:uid="{52A91285-287F-764C-A420-E6E405C6F012}"/>
-    <hyperlink ref="C203" r:id="rId183" xr:uid="{BBBD620F-D8A1-3A4B-8F17-59976403874F}"/>
-    <hyperlink ref="C204" r:id="rId184" xr:uid="{C4785855-872A-5948-894E-1052394A4E79}"/>
-    <hyperlink ref="C205" r:id="rId185" xr:uid="{797B0E8E-D3FF-5842-9978-86020BF0A1CD}"/>
-    <hyperlink ref="C206" r:id="rId186" xr:uid="{34A06057-3A2F-054C-9044-1D2116FFFEAD}"/>
-    <hyperlink ref="C207" r:id="rId187" xr:uid="{009FD299-3273-A846-940E-3B428CC3724C}"/>
-    <hyperlink ref="C208" r:id="rId188" xr:uid="{007E58DA-6BBC-D444-A943-8D53019A1FA9}"/>
-    <hyperlink ref="C209" r:id="rId189" xr:uid="{32FC6C8A-5915-1641-8360-822B602AAAF9}"/>
-    <hyperlink ref="C210" r:id="rId190" xr:uid="{9C24A99D-4F9C-D944-BC9E-E83C112C262E}"/>
-    <hyperlink ref="C211" r:id="rId191" xr:uid="{483F96B8-E7AF-3348-86F9-B887CC8344BE}"/>
-    <hyperlink ref="C212" r:id="rId192" xr:uid="{9B24EB6B-3DA9-8E48-A89B-42A3F99575EF}"/>
-    <hyperlink ref="C213" r:id="rId193" xr:uid="{BDC04129-1052-7D40-ABEB-F7C4E6F2A630}"/>
-    <hyperlink ref="C214" r:id="rId194" xr:uid="{E9930172-AB92-C84C-869E-DA8577E9A439}"/>
-    <hyperlink ref="C215" r:id="rId195" xr:uid="{AB0504EE-16BC-E341-A35A-18AE30A26E56}"/>
-    <hyperlink ref="C216" r:id="rId196" xr:uid="{FD4702AB-C4F4-B244-84DD-9BB51B35BE64}"/>
-    <hyperlink ref="C217" r:id="rId197" xr:uid="{EF74ABB4-AA76-1449-9F82-30FD17642314}"/>
-    <hyperlink ref="C218" r:id="rId198" xr:uid="{82BF0DB9-8A2C-454A-83E0-C59A98FBC3AF}"/>
-    <hyperlink ref="C219" r:id="rId199" xr:uid="{4B532B65-5B86-E548-8C6A-A3ED4A9F3928}"/>
-    <hyperlink ref="C220" r:id="rId200" xr:uid="{9E5303B5-C965-DA42-B53D-48C7D55C5C79}"/>
-    <hyperlink ref="C221" r:id="rId201" xr:uid="{72AD55F6-86E9-6949-ACE3-B802DE1EB0F3}"/>
-    <hyperlink ref="C222" r:id="rId202" xr:uid="{305D0984-A0A3-CF45-9735-AD94CC968343}"/>
-    <hyperlink ref="C223" r:id="rId203" xr:uid="{DEED349E-8C21-CF47-B166-AD6514A768BA}"/>
-    <hyperlink ref="C224" r:id="rId204" xr:uid="{1736B31B-0B59-7440-B5EF-69C131CE98E7}"/>
-    <hyperlink ref="C226" r:id="rId205" xr:uid="{9256A885-5A06-0A4E-973E-3AA4AF589A09}"/>
-    <hyperlink ref="C227" r:id="rId206" xr:uid="{0604396E-9E64-B64F-BA92-A40E83F56C2D}"/>
-    <hyperlink ref="C228" r:id="rId207" xr:uid="{B6A89B4D-F578-C846-9D64-B57E22E000BF}"/>
-    <hyperlink ref="C229" r:id="rId208" xr:uid="{37C9ED41-9DAB-3243-A410-62BAF0DAD6B2}"/>
-    <hyperlink ref="C230" r:id="rId209" xr:uid="{6CE8CE78-2B57-3341-B01A-10833171712A}"/>
-    <hyperlink ref="C231" r:id="rId210" xr:uid="{AAF59732-6AD7-D947-8EAA-0EE3A069DDD0}"/>
-    <hyperlink ref="C232" r:id="rId211" xr:uid="{D36D0971-5C2C-EB4A-A74D-BC4D0DA55919}"/>
-    <hyperlink ref="C233" r:id="rId212" xr:uid="{8066E0A2-807D-4A47-9156-F1CA8917A701}"/>
-    <hyperlink ref="C234" r:id="rId213" xr:uid="{83080326-280C-0D49-9CD5-B89CA6C546A1}"/>
-    <hyperlink ref="C235" r:id="rId214" xr:uid="{ED4BA732-3005-AC4F-991F-A296E534BCC9}"/>
-    <hyperlink ref="C236" r:id="rId215" xr:uid="{0EEC3265-810F-4B45-AB18-95BE370ABAFE}"/>
-    <hyperlink ref="C237" r:id="rId216" xr:uid="{0E9DD121-4996-F44B-96AB-3E2024E678E2}"/>
-    <hyperlink ref="C238" r:id="rId217" xr:uid="{CC19D4F9-4DEA-224D-974B-CA5C6B20A6D0}"/>
-    <hyperlink ref="C239" r:id="rId218" xr:uid="{4421BCE5-B0F3-974A-9B30-BC4C87A7978F}"/>
-    <hyperlink ref="C240" r:id="rId219" xr:uid="{2E31A935-B1D3-0043-A2E5-00C8E3963017}"/>
-    <hyperlink ref="C241" r:id="rId220" xr:uid="{310EC570-7888-D745-8A80-001190F5414F}"/>
-    <hyperlink ref="C242" r:id="rId221" xr:uid="{EB171C3F-290A-834B-92AC-817850918B3D}"/>
-    <hyperlink ref="C243" r:id="rId222" xr:uid="{78BE7540-4D56-E94B-9E67-CB652029CE7C}"/>
-    <hyperlink ref="C244" r:id="rId223" xr:uid="{7425A5DF-BA03-1242-814A-49078604D5AE}"/>
-    <hyperlink ref="C245" r:id="rId224" xr:uid="{F66465B7-DB23-F44C-AC57-7E26621A5282}"/>
-    <hyperlink ref="C246" r:id="rId225" xr:uid="{2F291938-7979-8C4C-BEA1-11D0455B503A}"/>
-    <hyperlink ref="C247" r:id="rId226" xr:uid="{D767E557-FD95-3046-AE4E-3D5E79CEF8B1}"/>
-    <hyperlink ref="C248" r:id="rId227" xr:uid="{DB364CF2-2F81-6047-B609-E43740B881DF}"/>
-    <hyperlink ref="C249" r:id="rId228" xr:uid="{3864531F-0058-DE43-B12E-FAF6A9FF73F5}"/>
-    <hyperlink ref="C250" r:id="rId229" xr:uid="{EA68BEFC-A8E3-BD45-8331-10B6C8B65A9C}"/>
-    <hyperlink ref="C251" r:id="rId230" xr:uid="{49DF2A2A-F87E-1E41-968D-8797D0B9DAD3}"/>
-    <hyperlink ref="C252" r:id="rId231" xr:uid="{8B9B0B73-B2FC-AA44-8CDD-4688EDC22D93}"/>
-    <hyperlink ref="C253" r:id="rId232" xr:uid="{09996387-B4E0-8D48-9B78-1C35E126189F}"/>
-    <hyperlink ref="C254" r:id="rId233" xr:uid="{84D5B3F1-675E-BD47-BEF7-0CB2EFB2DDFF}"/>
-    <hyperlink ref="C255" r:id="rId234" xr:uid="{1B3B9796-B791-1E49-A424-2468D34D3F1D}"/>
-    <hyperlink ref="C256" r:id="rId235" xr:uid="{1CB3D57F-4685-BA41-95A9-5F4D6D1FAA4E}"/>
-    <hyperlink ref="C257" r:id="rId236" xr:uid="{DE9BD563-11D4-D54A-913E-4ED3B550BD47}"/>
-    <hyperlink ref="C258" r:id="rId237" xr:uid="{943B1979-FC14-E44A-BCF5-949A344AEFDD}"/>
-    <hyperlink ref="C259" r:id="rId238" xr:uid="{4A4F0EC5-D905-1D4D-9BAB-BE7603F174A9}"/>
-    <hyperlink ref="C260" r:id="rId239" xr:uid="{7348503F-280B-2C41-95E0-C13FED0F35F5}"/>
-    <hyperlink ref="C261" r:id="rId240" xr:uid="{365DD176-840C-E945-914C-F9B77A0D1347}"/>
-    <hyperlink ref="C262" r:id="rId241" xr:uid="{9B82DFC8-F306-A044-BD31-BE9160807BC7}"/>
-    <hyperlink ref="C263" r:id="rId242" xr:uid="{81420A98-964F-BF42-A9EF-603EC7429071}"/>
-    <hyperlink ref="C264" r:id="rId243" xr:uid="{E06CEA20-6085-FD44-9851-753769CDF38F}"/>
-    <hyperlink ref="C265" r:id="rId244" xr:uid="{DDAC39B3-DE5E-A841-B009-2BCC75525F2E}"/>
-    <hyperlink ref="C266" r:id="rId245" xr:uid="{04ECA159-4C96-314A-86A5-FB0D7B73C302}"/>
-    <hyperlink ref="C267" r:id="rId246" xr:uid="{49719BBD-373E-A548-83A5-56985F8FD253}"/>
-    <hyperlink ref="C268" r:id="rId247" xr:uid="{26F7E88E-4BC2-3748-9626-C331B9DB8D05}"/>
-    <hyperlink ref="C269" r:id="rId248" xr:uid="{F271C73C-9ED0-A546-8002-6B0C5DD54B87}"/>
-    <hyperlink ref="C270" r:id="rId249" xr:uid="{0CA2C88E-FCC2-0D49-9D84-5B8E8ED85270}"/>
-    <hyperlink ref="C271" r:id="rId250" xr:uid="{7C07920B-1B2D-4E40-960C-0B1EBD4D502B}"/>
-    <hyperlink ref="C272" r:id="rId251" xr:uid="{936516B6-9296-C24C-9775-694AA566962B}"/>
-    <hyperlink ref="C273" r:id="rId252" xr:uid="{281744B5-8593-8E4A-A75C-3E8BBC44F241}"/>
-    <hyperlink ref="C274" r:id="rId253" xr:uid="{15DF98EE-EA99-5947-AB25-44983508FCDD}"/>
-    <hyperlink ref="C275" r:id="rId254" xr:uid="{4EE4F1D5-B187-764B-A2FD-19D01A87444F}"/>
-    <hyperlink ref="C276" r:id="rId255" xr:uid="{3C217A31-DCF1-984F-95FF-A9380D3A59BC}"/>
-    <hyperlink ref="C277" r:id="rId256" xr:uid="{6FF2B6CB-58CD-2E4D-A81E-F825AC5F2392}"/>
-    <hyperlink ref="C278" r:id="rId257" xr:uid="{CBB4B37F-DA4D-D345-8ADB-22C2C0BF34A6}"/>
-    <hyperlink ref="C279" r:id="rId258" xr:uid="{454D2437-558A-3C40-B3A6-D6839F4FC652}"/>
-    <hyperlink ref="C280" r:id="rId259" xr:uid="{A0E6B667-40D6-7442-AE41-21770F96FAF8}"/>
-    <hyperlink ref="C281" r:id="rId260" xr:uid="{4075C471-0497-8A40-8C71-105624E5D181}"/>
-    <hyperlink ref="C282" r:id="rId261" xr:uid="{9E3A0559-70C0-4942-8BB4-9CCCEB2917A8}"/>
-    <hyperlink ref="C283" r:id="rId262" xr:uid="{E1FFE7DB-09BA-9B4F-80F5-24815BC3E814}"/>
-    <hyperlink ref="C284" r:id="rId263" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-11-30&amp;EsAviso=0&amp;PaginaId=32&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR1qBMcD75VN5awSlqWX3hPoj-bRrGEyI3Dq7DoHXHoJH74aikshJRagbV0_aem_AdmmKTyK5TCTChdG3KbE441XVSBWnKD6zGVtQJoeSCuz4FBZ2KzSp2HsEhMUlO-zWCT0v8A6XjuqYMehWyLbRn_z" xr:uid="{2EB2D7B9-CC67-1045-8E41-985DCF644601}"/>
-    <hyperlink ref="C285" r:id="rId264" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-08&amp;EsAviso=0&amp;PaginaId=13&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR13_Z-GI1IIn5jks66nOQG12hFM_BmOI6efFGs_U8bp-_IP3G6kkP-6nV8_aem_AdlAoOUpb3oHlkW-WZ93WgXAPArxrBLCoVsUfPxlG2TvtnxA-ICWRVNE4DLL3Jr-nheZEQusI9Wr1H5PYraAIwWU" xr:uid="{3C607E48-E664-C640-AF02-5044F7B5A11A}"/>
-    <hyperlink ref="C286" r:id="rId265" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-14&amp;EsAviso=0&amp;PaginaId=41&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR1yasxB3qL7xpKA-6sRG2DlLpL745-9og3SrbTaN_QyREPAqVV_klAwQAM_aem_AdnN8LPYit2opMhcIKfy0FoMipyfdF9ghSILHfC-53TlPL134wIBykD3IrvlDTiPhQpN1BHPfvJROwLRq_Gkrr1b" xr:uid="{31D4F33C-8FDE-B24A-8961-52C779A0A6E5}"/>
-    <hyperlink ref="C287" r:id="rId266" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-16&amp;EsAviso=0&amp;PaginaId=18&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR1L6ctyn9z18ASpPNVjC_yX4UZ1MF7Hrb2SoLKl8ktxPQbye5BePUYg-sQ_aem_Adn2_NhCh2DLk7aKoXb4BsIrX9zNStLW7nFfUvcEPLyr2zUGF4XoSnUz-K6WLNDebeTadwE1cjW_aQTNm1Mzemva" xr:uid="{A5101965-3839-AB4F-8A8A-DDBF2A72E15F}"/>
-    <hyperlink ref="C288" r:id="rId267" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-18&amp;EsAviso=0&amp;PaginaId=17&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2HbQYVCtso61XJR7UgRPCwDvujEwBbErvkh4D7JHQriOZwI4pzFq3ynvo_aem_Adngp18Dm6peeiigsrE3qRfQcfZq1JnjrctlLKDc-RaPq-LGYNEA7Im5YKz4e9Pk_uMJfPMFETSYi7aBKkiotdS_" xr:uid="{74B928A3-FB36-C14C-A084-6D924B591D49}"/>
-    <hyperlink ref="C289" r:id="rId268" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-19&amp;EsAviso=0&amp;PaginaId=14&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0aUDCI4VGIbT0iks1V4y6pi2cAUEimzIlbuKiotVlR4VJR0mHe-f5dajU_aem_AdldUwm5E1H-6pdd9tOkUV_zknQVqH9Wi2aEeLIAMfUT3VTNDC9fZ-MJ9_3oeONaqrzqEmSEFhkOlYzh0l0tGJi_" xr:uid="{3768CC25-864C-FE4D-8DF0-65EDF2AA6E72}"/>
-    <hyperlink ref="C290" r:id="rId269" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-20&amp;EsAviso=0&amp;PaginaId=14&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2q5fG8m0Kjgfw50Wy4Siqo036TD8D92zxEDV8-VW8Bt8NLApoM-cpO7Yw_aem_AdmkMDTneiphO4Gw7VCEU9TrNkze9D9Wq_snzlEOgrDkvdoaDywFOZgD-7fzU3rFB-f76xlOKaWiTc-re7tjFXqj" xr:uid="{605D3C7D-CEB3-D14E-AE41-94036131ABE2}"/>
-    <hyperlink ref="C291" r:id="rId270" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-01-26&amp;EsAviso=0&amp;PaginaId=14&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR3HZYLjOUPQlI4HjOJkDzQ5PMFBS5hIVDn-W31itWRKoojvKI87_TLGY_A_aem_AXQCb78LFhZncbf-DW_SXZZFRRZpopx0bKvv7JbA70MT8DbVwNr5XAytCaVeBXSc1bonaZPrnnZHfFFUkRtolTxD" xr:uid="{0A4C2E64-FCA0-9945-B5B6-CDCB4403F49D}"/>
-    <hyperlink ref="C292" r:id="rId271" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-01-31&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR21TqcSlFQqXvHzkDtGvqm_uV4TRaoSFj6061sjdDc53BRly2nv2t98njQ_aem_AXTvpgHmXobr_tCEh1gmN6Iacj7mMkjrnOZB47qJGazcmlrWHAyiv6Dr4lmGNqN2ooNn6gxnG30f3KWN-wZ3fwnd" xr:uid="{055EDDBF-0E6D-364D-AA7F-7354EDB176A1}"/>
-    <hyperlink ref="C293" r:id="rId272" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-02-02&amp;EsAviso=0&amp;PaginaId=10&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0IQEVxWcdexdWt62IdO1iny7eYNVsVg1Xlm_ZCHEpRpNPTC28HSiofFjU_aem_AXS83gdBw8b6tOaKlbDpP7t3zVWUiGGZQgTvuhb0pLfnxtGI8TNv1bZUYxxLyp1kZU7q6F287O3_fG4DFMCF0eMN" xr:uid="{B21CB5A4-E04D-BE4A-866E-E0FC540BAB35}"/>
-    <hyperlink ref="C294" r:id="rId273" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-02-07&amp;EsAviso=0&amp;PaginaId=4&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR087AdccLsxJyHWZxum8EG5dOnXpakctt51yjscYKfpSM32oRK7LaCdDuQ_aem_AXRA1KucsYeRzD8Fmf3jAXoHrXXHFbxmmGI-eLx21ZhUvl8ZHiPfXah9GYq8c2MgL4u7473qJRC7jxYcdDvKZ-yr" xr:uid="{B0D98A1B-E516-A740-AD58-83F093A602A7}"/>
-    <hyperlink ref="C295" r:id="rId274" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-05&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR3BlOlsW_zem7msWlf4D_Pjv5g07h2z8pm4Xf7MN-sVOAcw82kA6GK3CyQ_aem_AXQUov38BCcDcFHkJf0uxiTTw86ohywZjAx1Ma2HSrMo57OhqofHQbu68XaBgVTFkwBmZq_a7eA6CTEcS8Kn76r_" xr:uid="{88234510-D820-7D46-8021-956833A9B300}"/>
-    <hyperlink ref="C296" r:id="rId275" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-08&amp;NewsID=526891&amp;BodyID=0&amp;PaginaId=22&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0YjLz_FuJGcXQRii5wbzcjKt_rVlMtKjWTTegR04YUNJma7YabDopk8zo_aem_AXRzBb3nkFtzKQ-sEaJvYcMkK0xri0n0-X3rGshEBakPk2j71gZGDx50T3ka38AzE5VXiTgzwAM0sU3Sgj2TxMIU" xr:uid="{D6C459F4-35E3-4346-856C-48496F5854DA}"/>
-    <hyperlink ref="C297" r:id="rId276" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-16&amp;SupplementId=0&amp;BodyID=0&amp;PaginaId=9&amp;r=w&amp;fbclid=IwZXh0bgNhZW0CMTEAAR12he35XeacmHleZs-gII5m08HF4Of_mhR-IT8oqwhovgQxmVEbG_UzU7Q_aem_AXR9fWcE_qsTL2ake64FBxjpnM0mCvipvgrYVHZmr-X4-U6cs8Vie7tmSG6hB5rL9lc0kQktRssPKX2woF-v1i-X" xr:uid="{B66DBC14-B289-A748-BD19-5717F9DF9724}"/>
-    <hyperlink ref="C298" r:id="rId277" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-27&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2xuDqkyJsQfXNbMOANCI3cuY6JyMB0y3hq0MdN0-YOOUhCy59PNcIHRTg_aem_AXQQ2WJHMSKiMXlmbusvoaPIsI6txlFOfw-aQJwBNIUuvf-hntCUlEPrkCj-hBrgdUWYvxrigIQPcH1U0Rhupqwq" xr:uid="{3C2E4E4B-D071-6645-A30D-F84CCC23F16A}"/>
-    <hyperlink ref="C299" r:id="rId278" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-28&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR3xQLF7nQjgjfSyA8ENV78HH---YwmxhypgvP6_PAO2084Sja5yRw8No4U_aem_AXSQxq2_iWyOkCxxufw71Azqf-eQKgy-SCW4h0cYAeJrgwDng5sreiYNvpqG7N7R0enkxyUATtngssm8LRV_zdQE" xr:uid="{D2E6A0EF-2F8E-BB4D-979F-EE8F0929790C}"/>
-    <hyperlink ref="C300" r:id="rId279" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-29&amp;EsAviso=0&amp;PaginaId=10&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0j4rZgodQcIsYK1S-0l_i9_mtYJek_J9KqJ0nhgs397ISgUuQMjiKhXV8_aem_AXR5T6bWkqEm1ohX8c_G43Swnko-9aRBdErzO8-MBM--6zfz9UzioqgDctfF3Q7hF-aVQ_2JwzawUy0PFBo16CMb" xr:uid="{88E0C24E-C38D-224A-B3A6-4F96C45C75D3}"/>
-    <hyperlink ref="C301" r:id="rId280" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-04-06&amp;SupplementId=0&amp;BodyID=0&amp;PaginaId=9&amp;r=w&amp;fbclid=IwZXh0bgNhZW0CMTEAAR37YdpBexVvCERiNWkIT8jYZh1PKgpjTmV7eCIl5TqZQbDUrcNZnmE55Qo_aem_AXQsqorpg6nHFRr808hNsWfqv6ABkRqVfXApkkVOURDcnXtI0UEOwKsulcm-YsykJbVjsYhLUtxbX4a8BiDnNXZp" xr:uid="{D688A93B-93B7-E649-884D-2A5569062EE4}"/>
-    <hyperlink ref="C302" r:id="rId281" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-04-18&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2L-eDbThHc28UIykiyMY1bOzVvpTdNNSCHBIOJYYOjax_CAbzN7OX8hhE_aem_AXQUOOOw1bSn6vVEaAVUBimmluwB3tEMqhpPZtcaXWf2RONUx5a71simayBEjFk-Hr899viwDiefeTiYbnjTO0ed" xr:uid="{3B972AF0-84B5-EB41-9FF2-7CFBEC3A2E6A}"/>
-    <hyperlink ref="C303" r:id="rId282" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-04-19&amp;EsAviso=0&amp;PaginaId=13&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0aa_B0h2GoAAD2vHkr4rTw9OOETjANy-X273B5UohfFiibuX4CnLOf5sw_aem_AXSCUMN0l4GhKCceQWp0OmD8ngHdPz9AxkqVvslifq7A1n00pQo_sr3UjSw19MDRacAu_hwOyCd1zKwGy8-jDFZ8" xr:uid="{0EE36CE6-824E-CD49-8AD9-716820CA59BA}"/>
-    <hyperlink ref="C304" r:id="rId283" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-04-23&amp;EsAviso=0&amp;PaginaId=8&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2SEga103rMRPmk5ogKoFlh1OzOrRInM5RvSz924RnsJiZm1MWtM5n1VLU_aem_AXRGSCEvsAKhrKpE9O5i_PQH49dU-YmjgGfsOivV-K7llkQe52tcl0ZDuHxoiHgvBSUWwy9ryh8lpb80Z9AFMqNj" xr:uid="{08021CF7-161C-EA40-B26C-068D51037AC1}"/>
-    <hyperlink ref="C305" r:id="rId284" xr:uid="{397522C0-7FC5-F24D-9B03-C142CF7DC236}"/>
-    <hyperlink ref="C306" r:id="rId285" xr:uid="{B2DC5B76-1F60-E64E-99AD-B089E56B0A99}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{9645702D-64B7-D64B-9B7C-8BB479BD9AF7}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{7C9D70FD-F3D2-624A-94CC-E24881025740}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{1C5B0090-8A6D-7144-B149-20E47F5BD667}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{6B408C4A-7D15-BC4D-B9DF-E8FDF34F1846}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{E774D862-93EC-5D46-B710-5D5EF78DAE49}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{5907BAF2-E53E-0542-834E-E14E4FAA6C03}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{5392A705-DFBE-3943-85C1-6963A82396B3}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{84215144-BF6B-BD4C-9BBD-320877CCAD23}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{6E10281C-A67E-2E4A-9A84-7EC0550E5C85}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{8AC6DA08-1363-3D49-8901-1004DDAA1DA9}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{B3A0F405-91FC-3D48-8879-63AC4ED1B38A}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{AC69D6B9-08E8-2F40-9F8B-303B93A0A272}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{7541680D-0EDE-4548-9BA7-D8A96F8502D0}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{68B49707-16F1-0240-BD9D-3204D75797C0}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{B079C4CF-4745-414D-9C0A-B29E0CCCE5B8}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{3131730B-085B-0C44-AE46-094DA4F23DD3}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{891A8A3D-9459-3741-A13B-577FFABAC327}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{2ED06072-E7F2-C045-993C-2B16BCF50B83}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{E43C12A6-C7AE-7249-A1AE-90D1D4D13A4D}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{0BB90654-8A74-6949-8F83-EF84631ABF08}"/>
+    <hyperlink ref="C23" r:id="rId21" xr:uid="{43F2C716-5BA8-E74A-BA4D-39CB1C6B1077}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{BE0053CB-0584-A846-BE8E-72E79828CC2B}"/>
+    <hyperlink ref="C25" r:id="rId23" xr:uid="{B7D7EB5D-429E-A14A-8DAD-CF842A795E39}"/>
+    <hyperlink ref="C26" r:id="rId24" xr:uid="{140333F6-A15A-4C46-9FB7-85370B8FD614}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{D5ECBC10-53D4-F54A-9EFA-6F46D99DEEEE}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{A234753C-027B-1A44-A4CF-0206A9581242}"/>
+    <hyperlink ref="C30" r:id="rId27" xr:uid="{9D5303DE-1A0A-F149-AB4B-98DA3E6935B2}"/>
+    <hyperlink ref="C31" r:id="rId28" xr:uid="{2822EC64-EF52-6D4E-A881-746CF329ABB5}"/>
+    <hyperlink ref="C32" r:id="rId29" xr:uid="{66C03B00-A6C5-F646-A63C-3275D4DF169F}"/>
+    <hyperlink ref="C33" r:id="rId30" xr:uid="{128D831F-3648-1B47-BB03-BE1ACDC8AFED}"/>
+    <hyperlink ref="C34" r:id="rId31" xr:uid="{FD908674-A725-184C-8C6D-9EF22E76442C}"/>
+    <hyperlink ref="C35" r:id="rId32" xr:uid="{35688E69-127E-F745-B0A5-09FB91FA96AD}"/>
+    <hyperlink ref="C36" r:id="rId33" xr:uid="{90E4DA48-C1D8-1B48-A2FA-7F0A0267E810}"/>
+    <hyperlink ref="C37" r:id="rId34" xr:uid="{8E152FD4-D4BA-3048-9969-D92AAF0E4E58}"/>
+    <hyperlink ref="C38" r:id="rId35" xr:uid="{8705FB3F-52A0-A24B-BF8F-E3CB62001131}"/>
+    <hyperlink ref="C39" r:id="rId36" xr:uid="{465F1CF3-E0C7-3C41-8D52-D25992476CB1}"/>
+    <hyperlink ref="C40" r:id="rId37" xr:uid="{43DF7721-271C-4E49-BA0A-09498FA69DAF}"/>
+    <hyperlink ref="C41" r:id="rId38" xr:uid="{DC109696-E261-624D-85C7-A7E8671E118D}"/>
+    <hyperlink ref="C42" r:id="rId39" xr:uid="{5F605BC5-1E49-C94D-BAB0-8C36EF1FACDC}"/>
+    <hyperlink ref="C43" r:id="rId40" xr:uid="{F28B56CC-09C8-4342-B779-5C7F2695A2E2}"/>
+    <hyperlink ref="C44" r:id="rId41" xr:uid="{24B41D8A-E74A-0745-8A82-881243CC4E2D}"/>
+    <hyperlink ref="C45" r:id="rId42" xr:uid="{A5823C83-6799-9946-BBC0-9256C9B11B70}"/>
+    <hyperlink ref="C48" r:id="rId43" xr:uid="{242F94BA-6520-A94D-8241-8FF97CC5F460}"/>
+    <hyperlink ref="C49" r:id="rId44" xr:uid="{958AF662-BA83-574C-BC0F-A7FDD42A1844}"/>
+    <hyperlink ref="C54" r:id="rId45" xr:uid="{EE1A5B04-2BE5-9D4E-B3C4-39D6290ED1BA}"/>
+    <hyperlink ref="C56" r:id="rId46" xr:uid="{04F22AD0-DA13-0645-94EB-EB7DD5883E18}"/>
+    <hyperlink ref="C59" r:id="rId47" xr:uid="{2AE6B88F-15E1-194B-B660-D90DCCF1C159}"/>
+    <hyperlink ref="C60" r:id="rId48" xr:uid="{979E0BF6-4CB9-9F46-81F9-9CF5612FF2D2}"/>
+    <hyperlink ref="C61" r:id="rId49" xr:uid="{0370CB2D-532A-EC46-9D7C-F1F2ACD54D85}"/>
+    <hyperlink ref="C62" r:id="rId50" xr:uid="{B11C2EF8-96B3-E54F-B585-6E9CC2BEE7DA}"/>
+    <hyperlink ref="C63" r:id="rId51" xr:uid="{C984832C-F325-6F46-84C5-1D275816E28B}"/>
+    <hyperlink ref="C64" r:id="rId52" xr:uid="{2914B20E-2B5D-C64D-B262-C53709BF7C11}"/>
+    <hyperlink ref="C65" r:id="rId53" xr:uid="{5F062058-E459-F349-80BF-90829833D238}"/>
+    <hyperlink ref="C66" r:id="rId54" xr:uid="{C1E96214-4D92-BC48-AC8E-D0745E73C70D}"/>
+    <hyperlink ref="C67" r:id="rId55" xr:uid="{0D69B71A-5610-8B48-9320-89135F119951}"/>
+    <hyperlink ref="C68" r:id="rId56" xr:uid="{512D729C-9F82-BD48-B090-42D6E2C8FF3A}"/>
+    <hyperlink ref="C69" r:id="rId57" xr:uid="{E5D1697E-EA8F-714E-9112-9FBD279FD096}"/>
+    <hyperlink ref="C70" r:id="rId58" xr:uid="{BE59C6DD-A3A2-A14A-8B52-997008236009}"/>
+    <hyperlink ref="C71" r:id="rId59" xr:uid="{C13BB55A-2E78-F848-918E-9FAA8F8EC230}"/>
+    <hyperlink ref="C72" r:id="rId60" xr:uid="{390D17E0-6522-EA42-A95A-4381ECB8EA33}"/>
+    <hyperlink ref="C73" r:id="rId61" xr:uid="{CCA4D885-36C3-3B4C-9887-86F9C01AE2C8}"/>
+    <hyperlink ref="C74" r:id="rId62" xr:uid="{F6F5463C-E7B0-3041-9C5E-DB63AE102A60}"/>
+    <hyperlink ref="C75" r:id="rId63" xr:uid="{700E9265-0496-C44D-9FF0-62368FABE31D}"/>
+    <hyperlink ref="C76" r:id="rId64" xr:uid="{C57BE779-8A03-6543-A8D9-2E2B0713A312}"/>
+    <hyperlink ref="C77" r:id="rId65" xr:uid="{23252DB6-91F4-D04B-9677-511CDC07993A}"/>
+    <hyperlink ref="C78" r:id="rId66" xr:uid="{699F50D5-3E8E-5D43-8FC5-9D061EF8B130}"/>
+    <hyperlink ref="C79" r:id="rId67" xr:uid="{390B9C1A-C20C-8441-A57A-CA52DA826831}"/>
+    <hyperlink ref="C80" r:id="rId68" xr:uid="{42F4675B-77DB-284E-BF5B-E2F6179EC1CE}"/>
+    <hyperlink ref="C81" r:id="rId69" xr:uid="{F11E085B-606A-3749-804F-8D0023F2AAD4}"/>
+    <hyperlink ref="C82" r:id="rId70" xr:uid="{7D67E4C7-A96E-0F48-8549-7C9671941A2E}"/>
+    <hyperlink ref="C83" r:id="rId71" xr:uid="{A778A1DF-5C8F-EB41-9494-9CB5DDDEFA7C}"/>
+    <hyperlink ref="C84" r:id="rId72" xr:uid="{4D748351-EA96-5B49-A8A0-A570DA7EB7EF}"/>
+    <hyperlink ref="C85" r:id="rId73" xr:uid="{F25170D3-A5A4-5A42-86C2-A42A31222677}"/>
+    <hyperlink ref="C86" r:id="rId74" xr:uid="{4D63D619-51A7-244C-B3B5-08532DEDB424}"/>
+    <hyperlink ref="C87" r:id="rId75" xr:uid="{84C4FBEB-DF61-2541-9507-DDEA90DAEF13}"/>
+    <hyperlink ref="C88" r:id="rId76" xr:uid="{FC183B50-9842-B042-B820-0A96395603B1}"/>
+    <hyperlink ref="C89" r:id="rId77" xr:uid="{61299AFC-59CF-AA4F-8F04-31804298FDA9}"/>
+    <hyperlink ref="C90" r:id="rId78" xr:uid="{B5312716-9899-E748-B584-FB8A12E1A963}"/>
+    <hyperlink ref="C91" r:id="rId79" xr:uid="{469FD9D3-650A-4843-B00C-DBBA5A24DBB3}"/>
+    <hyperlink ref="C92" r:id="rId80" xr:uid="{01485287-431F-FF46-9232-673E2C7B7BA8}"/>
+    <hyperlink ref="C93" r:id="rId81" xr:uid="{2BBB7A24-AA4B-4641-80AD-C61A010E79D0}"/>
+    <hyperlink ref="C94" r:id="rId82" xr:uid="{5209E23B-CB9A-0B46-AE89-D1F7C4A20F65}"/>
+    <hyperlink ref="C95" r:id="rId83" xr:uid="{F08846DB-A917-7A47-B695-FDCE16AF5A35}"/>
+    <hyperlink ref="C96" r:id="rId84" xr:uid="{22336E9F-5B6D-D248-947C-2A0E41D7C9B6}"/>
+    <hyperlink ref="C97" r:id="rId85" xr:uid="{3A169BCD-7D3F-C64D-9BDB-88451BFF3C8E}"/>
+    <hyperlink ref="C98" r:id="rId86" xr:uid="{B6B48C0B-B636-CB49-A2C0-93D7BABDFBB2}"/>
+    <hyperlink ref="C99" r:id="rId87" xr:uid="{741BB2D5-8D4A-644C-AFF2-ACF9B85B1389}"/>
+    <hyperlink ref="C100" r:id="rId88" xr:uid="{F99F64CD-8D52-2945-8F75-0F11261B84CB}"/>
+    <hyperlink ref="C101" r:id="rId89" xr:uid="{91641D66-BC2E-4841-B433-DBE8F9BCA3AC}"/>
+    <hyperlink ref="C102" r:id="rId90" xr:uid="{8E7F0E1B-D9FA-B942-9A89-7CA9136F61D7}"/>
+    <hyperlink ref="C103" r:id="rId91" xr:uid="{E7EC26E2-35FA-D146-8BF7-0A72D206A355}"/>
+    <hyperlink ref="C104" r:id="rId92" xr:uid="{2AB10887-DC88-3E41-AE54-002AD9ACFE34}"/>
+    <hyperlink ref="C105" r:id="rId93" xr:uid="{F7483585-AB9B-CB45-B617-84BD2AB50E6B}"/>
+    <hyperlink ref="C106" r:id="rId94" xr:uid="{48C09077-9589-3647-AE45-F23E7196AA2A}"/>
+    <hyperlink ref="C107" r:id="rId95" xr:uid="{5C11080C-C3D0-A84B-9DF8-F6868829E752}"/>
+    <hyperlink ref="C108" r:id="rId96" xr:uid="{3C1E542E-F2CA-6A41-81FD-6A97181A321F}"/>
+    <hyperlink ref="C109" r:id="rId97" xr:uid="{388A8356-3752-EB46-BD28-0ADA0AAFB37B}"/>
+    <hyperlink ref="C110" r:id="rId98" xr:uid="{AE5E541C-A359-2D4C-97F2-F93599426DCA}"/>
+    <hyperlink ref="C111" r:id="rId99" xr:uid="{6D01F7B0-AEB1-7F4A-BB8A-6A95AB77CC3A}"/>
+    <hyperlink ref="C112" r:id="rId100" xr:uid="{78D2706A-5BF9-B04E-8862-A6D0BCC26383}"/>
+    <hyperlink ref="C113" r:id="rId101" xr:uid="{1CE7329D-D551-7841-AC42-BD4DE539AE3A}"/>
+    <hyperlink ref="C114" r:id="rId102" xr:uid="{BEEFD515-143A-9542-90C2-13DC744543B4}"/>
+    <hyperlink ref="C115" r:id="rId103" xr:uid="{1E23912C-F2A0-6242-AA39-46313E72A754}"/>
+    <hyperlink ref="C116" r:id="rId104" xr:uid="{EAF65C0D-D54B-FE41-8446-ED88C02667A3}"/>
+    <hyperlink ref="C117" r:id="rId105" xr:uid="{AD524DBF-53BB-A24B-A9A2-6DEFC31024D7}"/>
+    <hyperlink ref="C118" r:id="rId106" xr:uid="{2A7CD390-AFCB-1449-8EB4-1BAE4DB32C62}"/>
+    <hyperlink ref="C120" r:id="rId107" xr:uid="{83E946C5-CE7F-F444-AC39-006DFA883E6F}"/>
+    <hyperlink ref="C121" r:id="rId108" xr:uid="{D422138F-C8D9-F44C-8885-ED18F346CCD2}"/>
+    <hyperlink ref="C123" r:id="rId109" xr:uid="{22205E89-E75C-EA44-AC37-4D4849736707}"/>
+    <hyperlink ref="C124" r:id="rId110" xr:uid="{B54BC850-9799-A24F-A2D0-ABC1AF73BC58}"/>
+    <hyperlink ref="C125" r:id="rId111" xr:uid="{33BC83E0-863B-F94E-A6CF-D93C7983765D}"/>
+    <hyperlink ref="C126" r:id="rId112" xr:uid="{25367730-369A-2A49-BE1D-57E7C9D5871E}"/>
+    <hyperlink ref="C127" r:id="rId113" xr:uid="{D999E187-E0C4-4248-813B-3241D1B6BEEB}"/>
+    <hyperlink ref="C128" r:id="rId114" xr:uid="{8067888A-9DF9-C245-A62E-3F18E0639D5D}"/>
+    <hyperlink ref="C129" r:id="rId115" xr:uid="{74F5D484-9828-334B-BE16-7C554A01CC6D}"/>
+    <hyperlink ref="C130" r:id="rId116" xr:uid="{99076FCB-BB02-FE4F-B450-635C188CA6B9}"/>
+    <hyperlink ref="C131" r:id="rId117" xr:uid="{0B296D1D-794E-2C4C-AD9E-6232A59AA816}"/>
+    <hyperlink ref="C132" r:id="rId118" xr:uid="{5EF6A8FD-CB22-1145-80C0-9C5BA2D43642}"/>
+    <hyperlink ref="C133" r:id="rId119" xr:uid="{E4F0BBD4-4079-7844-A333-CF0416D66E27}"/>
+    <hyperlink ref="C134" r:id="rId120" xr:uid="{908AE476-F113-2D42-8D4D-67896F4F7C31}"/>
+    <hyperlink ref="C135" r:id="rId121" xr:uid="{B4DF4F59-19F9-D34C-BB58-E7DC057503E3}"/>
+    <hyperlink ref="C136" r:id="rId122" xr:uid="{B8ECB574-CF36-0843-BF60-015108EB8B43}"/>
+    <hyperlink ref="C138" r:id="rId123" xr:uid="{263FF14B-67E1-BE4D-8F63-A60D9C01FD12}"/>
+    <hyperlink ref="C139" r:id="rId124" xr:uid="{BA7B8BFE-C443-1249-AFF8-BDFC23B3CF15}"/>
+    <hyperlink ref="C140" r:id="rId125" xr:uid="{DACE5ACC-D892-454A-8AA3-29CB7E1C9E74}"/>
+    <hyperlink ref="C141" r:id="rId126" xr:uid="{A0795F22-0679-E740-A7C3-778DDE7F2BB4}"/>
+    <hyperlink ref="C142" r:id="rId127" xr:uid="{93AB3609-FC11-C645-8157-F6F6B14004A9}"/>
+    <hyperlink ref="C143" r:id="rId128" xr:uid="{3D47E2C8-4A4B-9D4C-A433-A30A36348FC5}"/>
+    <hyperlink ref="C144" r:id="rId129" xr:uid="{97749AF5-E6B3-BE41-8738-2095E2712A48}"/>
+    <hyperlink ref="C145" r:id="rId130" xr:uid="{F5514F0E-194C-674B-8546-516DF9D31393}"/>
+    <hyperlink ref="C146" r:id="rId131" xr:uid="{89100AF6-A57B-B84D-9DC0-118D7710B585}"/>
+    <hyperlink ref="C147" r:id="rId132" xr:uid="{D7740399-8D4E-4046-ACF1-1A5DD22BC23F}"/>
+    <hyperlink ref="C148" r:id="rId133" xr:uid="{B17E0B31-0D5B-0C4A-BFC5-E3C05B5922A3}"/>
+    <hyperlink ref="C149" r:id="rId134" xr:uid="{EFA737FE-FCC6-7548-8B5E-06726000C9A8}"/>
+    <hyperlink ref="C150" r:id="rId135" xr:uid="{B9A32CBB-9D5B-0A4B-8D62-BA577F3B38CF}"/>
+    <hyperlink ref="C151" r:id="rId136" xr:uid="{B5562629-71F2-9B41-B708-721848F0BD17}"/>
+    <hyperlink ref="C152" r:id="rId137" xr:uid="{450BFF19-C8CE-FB46-82B7-0BD072908A27}"/>
+    <hyperlink ref="C153" r:id="rId138" xr:uid="{CC90E39B-625C-B345-85E5-5F51579D734C}"/>
+    <hyperlink ref="C154" r:id="rId139" xr:uid="{58260D54-B0EA-AE40-AE2B-F5A5AEE337C4}"/>
+    <hyperlink ref="C155" r:id="rId140" xr:uid="{5BD122AC-B50F-1443-9A1C-D8E2BE0A0494}"/>
+    <hyperlink ref="C156" r:id="rId141" xr:uid="{08B5BB10-E18E-FB41-90C5-68943CC853E0}"/>
+    <hyperlink ref="C157" r:id="rId142" xr:uid="{6E10CCDF-0459-5743-A8C8-25035BD2519B}"/>
+    <hyperlink ref="C158" r:id="rId143" xr:uid="{2087CAFC-36FE-A24D-953E-26C8707859D9}"/>
+    <hyperlink ref="C159" r:id="rId144" xr:uid="{53A92392-0E63-1243-8C73-C5567B92BD94}"/>
+    <hyperlink ref="C161" r:id="rId145" xr:uid="{1D27E3BE-4D6C-1D4B-8622-8F70422CAE0F}"/>
+    <hyperlink ref="C162" r:id="rId146" xr:uid="{5296C88D-8F84-DB46-ABF7-D4A71D327957}"/>
+    <hyperlink ref="C163" r:id="rId147" xr:uid="{0BC198E5-7FB6-DA45-A84B-20946C28D733}"/>
+    <hyperlink ref="C164" r:id="rId148" xr:uid="{DF6D19FC-F2BE-AB42-B6E4-D863549C7D52}"/>
+    <hyperlink ref="C165" r:id="rId149" xr:uid="{E57054FD-4791-2344-BC46-9A9C717CC3D5}"/>
+    <hyperlink ref="C166" r:id="rId150" xr:uid="{77FDC473-C280-9449-958E-65D7EA16678A}"/>
+    <hyperlink ref="C167" r:id="rId151" xr:uid="{FABB8981-EE44-1148-9C31-BDD564FFCF20}"/>
+    <hyperlink ref="C168" r:id="rId152" xr:uid="{B4542054-7203-874E-A04A-29EA464BA50F}"/>
+    <hyperlink ref="C169" r:id="rId153" xr:uid="{4EE1CF0E-1449-314C-8418-084B40175896}"/>
+    <hyperlink ref="C170" r:id="rId154" xr:uid="{F3AE48BA-8D10-7B4D-9EE0-652559E1B5EA}"/>
+    <hyperlink ref="C171" r:id="rId155" xr:uid="{E9E7F712-A10C-BE40-8511-BDF9332D4ED9}"/>
+    <hyperlink ref="C172" r:id="rId156" xr:uid="{F45AFABC-A083-254C-AFF8-E509D02B4E81}"/>
+    <hyperlink ref="C173" r:id="rId157" xr:uid="{451DD134-07D2-F64A-9C79-36D2F689C0CC}"/>
+    <hyperlink ref="C174" r:id="rId158" xr:uid="{A3772665-5116-1F49-8495-14C1316D9AC8}"/>
+    <hyperlink ref="C175" r:id="rId159" xr:uid="{542ECDD6-5D79-6B4C-AD34-C92B914B4E6A}"/>
+    <hyperlink ref="C176" r:id="rId160" xr:uid="{133EF603-C675-E24C-9EAD-5ED1431DF3C4}"/>
+    <hyperlink ref="C177" r:id="rId161" xr:uid="{FDDBB821-9A01-FE46-A33E-269FF9A666DE}"/>
+    <hyperlink ref="C178" r:id="rId162" xr:uid="{D349E0F6-FF96-F844-9C7D-EA2F3CF21285}"/>
+    <hyperlink ref="C179" r:id="rId163" xr:uid="{F54F403F-9477-1A4B-8A5F-CF2D776DC319}"/>
+    <hyperlink ref="C180" r:id="rId164" xr:uid="{3F6B3141-7689-0A42-9B3E-8241CFF505BF}"/>
+    <hyperlink ref="C181" r:id="rId165" xr:uid="{46F835A9-9815-5E48-9C3E-4C00F30E618D}"/>
+    <hyperlink ref="C183" r:id="rId166" xr:uid="{06C5E1F2-60D0-7048-96FF-90FEAC887D07}"/>
+    <hyperlink ref="C185" r:id="rId167" xr:uid="{F51C0AD0-9043-A34F-9C48-40378D36B879}"/>
+    <hyperlink ref="C186" r:id="rId168" xr:uid="{8AD0A6E8-ECCB-4C4B-848E-C6D45CD9EB6C}"/>
+    <hyperlink ref="C187" r:id="rId169" xr:uid="{DB3928BA-6FB8-7E4D-A1A4-D84BBDF148C6}"/>
+    <hyperlink ref="C188" r:id="rId170" xr:uid="{C99E56E5-3196-BC45-BDF1-C007B4E7378B}"/>
+    <hyperlink ref="C190" r:id="rId171" xr:uid="{FF8860E2-F987-BF46-8E90-1EA050413DCB}"/>
+    <hyperlink ref="C191" r:id="rId172" xr:uid="{E606EDAA-9A88-E849-B7DC-F5FEFC528FAB}"/>
+    <hyperlink ref="C192" r:id="rId173" xr:uid="{479312CA-AC6F-F541-871B-24B1A7CEF4C8}"/>
+    <hyperlink ref="C193" r:id="rId174" xr:uid="{B633BFE6-91BA-6C48-85AB-11DDADE8E9C2}"/>
+    <hyperlink ref="C194" r:id="rId175" xr:uid="{C0F4417A-974F-8C46-9154-352104B10977}"/>
+    <hyperlink ref="C195" r:id="rId176" xr:uid="{3893C3EA-81F7-B141-AD0B-D339AC0424EE}"/>
+    <hyperlink ref="C196" r:id="rId177" xr:uid="{38EC0244-F4A3-5E41-BA44-DE43BBC8E551}"/>
+    <hyperlink ref="C197" r:id="rId178" xr:uid="{2A9DC9C7-FACD-3346-BD19-4635E2403FAA}"/>
+    <hyperlink ref="C199" r:id="rId179" xr:uid="{AA234439-ED26-E445-BD05-585BB49B337C}"/>
+    <hyperlink ref="C200" r:id="rId180" xr:uid="{5D9E60BE-AB88-0941-B032-34C9BC9DF48E}"/>
+    <hyperlink ref="C201" r:id="rId181" xr:uid="{402273BE-B1B8-2046-BBC6-1A5209546D22}"/>
+    <hyperlink ref="C202" r:id="rId182" xr:uid="{E736D6EB-C025-AD45-B9CC-4EBDA0976CC3}"/>
+    <hyperlink ref="C203" r:id="rId183" xr:uid="{3209DD1E-F669-2249-B873-5970C341C0B5}"/>
+    <hyperlink ref="C204" r:id="rId184" xr:uid="{6E4DAC6A-B041-D941-A676-DA6C044A71A1}"/>
+    <hyperlink ref="C205" r:id="rId185" xr:uid="{840BDC41-2B67-B74E-AD82-375D3EBCCAAA}"/>
+    <hyperlink ref="C206" r:id="rId186" xr:uid="{D0E27DDF-3DC3-AC4B-A753-6AC4398A5BA1}"/>
+    <hyperlink ref="C207" r:id="rId187" xr:uid="{C42F00FC-B03E-3A43-B7A6-418DB6E1B278}"/>
+    <hyperlink ref="C208" r:id="rId188" xr:uid="{244123CE-BBDA-9F46-B8E4-5A79681B98B4}"/>
+    <hyperlink ref="C209" r:id="rId189" xr:uid="{E5744D5D-7102-E347-8249-4C54D5B76103}"/>
+    <hyperlink ref="C210" r:id="rId190" xr:uid="{5F2FF5A0-3C88-0344-A53F-08B5185C8205}"/>
+    <hyperlink ref="C211" r:id="rId191" xr:uid="{29F8DE31-61E2-254E-BFF4-DF1674C6A8D8}"/>
+    <hyperlink ref="C212" r:id="rId192" xr:uid="{6BF03D3F-EE85-5247-B83D-1B86EC0B6F66}"/>
+    <hyperlink ref="C213" r:id="rId193" xr:uid="{3B61942E-B29C-0B44-9CCB-464A6816D7F4}"/>
+    <hyperlink ref="C214" r:id="rId194" xr:uid="{F85ED4D1-3AE7-D548-BAA9-3666B8F3B37D}"/>
+    <hyperlink ref="C215" r:id="rId195" xr:uid="{79A316E4-509B-6E46-ABF5-10169386B3DD}"/>
+    <hyperlink ref="C216" r:id="rId196" xr:uid="{7D971504-CD23-554B-B4F2-FF81AFAFEED0}"/>
+    <hyperlink ref="C217" r:id="rId197" xr:uid="{3FEA1902-AF1B-E44B-AC47-43C3E21F8EAF}"/>
+    <hyperlink ref="C218" r:id="rId198" xr:uid="{8820F702-4F65-674A-9E73-A5E9A45C180C}"/>
+    <hyperlink ref="C219" r:id="rId199" xr:uid="{62EDBC68-DC06-F043-A8CA-F12247783B6C}"/>
+    <hyperlink ref="C220" r:id="rId200" xr:uid="{A5D0C4B8-4F41-1B4F-8125-8290BE140279}"/>
+    <hyperlink ref="C221" r:id="rId201" xr:uid="{986EBAAC-5CE3-C344-B121-C2E01232FCA2}"/>
+    <hyperlink ref="C222" r:id="rId202" xr:uid="{EA4D7F9E-45A3-DB48-8779-3BD71F376FF7}"/>
+    <hyperlink ref="C223" r:id="rId203" xr:uid="{56ACDCC3-EC9C-9743-A88C-42C2F2904E08}"/>
+    <hyperlink ref="C224" r:id="rId204" xr:uid="{5BF80D0A-DF49-2946-A3FE-4F5978358EBC}"/>
+    <hyperlink ref="C226" r:id="rId205" xr:uid="{B2E01A74-562A-C843-80DB-CA0BC38639E0}"/>
+    <hyperlink ref="C227" r:id="rId206" xr:uid="{EF32F76F-9D73-D143-9422-20AD28529D49}"/>
+    <hyperlink ref="C228" r:id="rId207" xr:uid="{50F1109E-B9BA-6D4E-B332-753896DB6129}"/>
+    <hyperlink ref="C229" r:id="rId208" xr:uid="{F8DA3869-9A67-3E4C-A10D-FE0BBC9F8C2F}"/>
+    <hyperlink ref="C230" r:id="rId209" xr:uid="{64B9063A-C16A-274B-96CF-A36C5A89585A}"/>
+    <hyperlink ref="C231" r:id="rId210" xr:uid="{0FEF4149-8369-5140-A071-3875C3AE530B}"/>
+    <hyperlink ref="C232" r:id="rId211" xr:uid="{4E28E0BA-C723-B342-B882-C447B21E84B5}"/>
+    <hyperlink ref="C233" r:id="rId212" xr:uid="{3F4DC9AD-C806-A642-9010-56BA9D8D09C6}"/>
+    <hyperlink ref="C234" r:id="rId213" xr:uid="{EEFB6EC0-6F75-E946-8BE5-09AC01BBD9C0}"/>
+    <hyperlink ref="C235" r:id="rId214" xr:uid="{3C67010A-429B-844D-B9D0-2D092B40FF05}"/>
+    <hyperlink ref="C236" r:id="rId215" xr:uid="{D81AF7C2-6B6B-A347-82BA-1A576F6B0C87}"/>
+    <hyperlink ref="C237" r:id="rId216" xr:uid="{0CE98EFE-5ABE-4D47-8AD5-03AF3B1BC5D4}"/>
+    <hyperlink ref="C238" r:id="rId217" xr:uid="{C6E924A3-1595-7146-8AE4-89993CCDEB88}"/>
+    <hyperlink ref="C239" r:id="rId218" xr:uid="{27AD8076-A5F7-5140-B72C-43943A79421E}"/>
+    <hyperlink ref="C240" r:id="rId219" xr:uid="{D951A256-2348-F84E-96E6-89BBF79913FB}"/>
+    <hyperlink ref="C241" r:id="rId220" xr:uid="{D38E6562-3979-C841-B04F-086B048599B2}"/>
+    <hyperlink ref="C242" r:id="rId221" xr:uid="{DCCC1682-D1E7-B147-9D4E-6A375E9AB750}"/>
+    <hyperlink ref="C243" r:id="rId222" xr:uid="{BD67AB75-6F69-AE49-BB4A-69F0072E77FE}"/>
+    <hyperlink ref="C244" r:id="rId223" xr:uid="{DCDBBE69-AADB-6846-9FE0-C1CA3BF2F365}"/>
+    <hyperlink ref="C245" r:id="rId224" xr:uid="{2A55E51D-2D3D-604E-A41C-5B42B043033E}"/>
+    <hyperlink ref="C246" r:id="rId225" xr:uid="{CF98FF72-7ECC-C548-B98F-B6E58C8FFCDC}"/>
+    <hyperlink ref="C247" r:id="rId226" xr:uid="{0F2F1D38-0F60-BC4E-BE8F-3886E5098CFF}"/>
+    <hyperlink ref="C248" r:id="rId227" xr:uid="{FE96BAD9-E29A-6A42-BC62-13F3DA7685B1}"/>
+    <hyperlink ref="C249" r:id="rId228" xr:uid="{1327E98C-8493-5049-A04F-71457A0BD0E6}"/>
+    <hyperlink ref="C250" r:id="rId229" xr:uid="{6DD06CBA-C072-E045-8162-1188C5B22BD0}"/>
+    <hyperlink ref="C251" r:id="rId230" xr:uid="{8CEA4034-C517-4045-8FB3-4BCB6F33B37A}"/>
+    <hyperlink ref="C252" r:id="rId231" xr:uid="{E4DC71B6-4634-6240-AB2A-99D73B2F01D6}"/>
+    <hyperlink ref="C253" r:id="rId232" xr:uid="{9AFD1213-A868-3C44-8FFC-6CA66F690355}"/>
+    <hyperlink ref="C254" r:id="rId233" xr:uid="{EB0F133B-05E8-6447-AFF6-97C428A8E37E}"/>
+    <hyperlink ref="C255" r:id="rId234" xr:uid="{6253DD39-E6BA-E747-B608-63A8B21592DD}"/>
+    <hyperlink ref="C256" r:id="rId235" xr:uid="{286DBA77-8624-2446-A05D-6DDFD2A325C7}"/>
+    <hyperlink ref="C257" r:id="rId236" xr:uid="{75BD47A3-389F-DE45-A07E-1DC5DAC3413A}"/>
+    <hyperlink ref="C258" r:id="rId237" xr:uid="{F714A78D-1CDA-A34A-9300-782F115A2F11}"/>
+    <hyperlink ref="C259" r:id="rId238" xr:uid="{55E0EB61-12DC-684D-AB72-5249D9F09CB5}"/>
+    <hyperlink ref="C260" r:id="rId239" xr:uid="{DC193645-E27E-DE4A-AA6C-3C3F4F87E1C9}"/>
+    <hyperlink ref="C261" r:id="rId240" xr:uid="{716E709B-2422-3A40-A569-CDD8B9597B2C}"/>
+    <hyperlink ref="C262" r:id="rId241" xr:uid="{BCD9D62E-9187-B349-980C-D96F60F6E796}"/>
+    <hyperlink ref="C263" r:id="rId242" xr:uid="{F4570D05-24BE-7C41-BE15-850E898CCAD9}"/>
+    <hyperlink ref="C264" r:id="rId243" xr:uid="{4A1A53EA-7DA1-1C4C-B583-90C468A0644D}"/>
+    <hyperlink ref="C265" r:id="rId244" xr:uid="{6951181D-6C91-8540-8000-C8E6B8B13BAF}"/>
+    <hyperlink ref="C266" r:id="rId245" xr:uid="{D49C5116-6DCE-8345-A0C8-6CDEDAA90B1F}"/>
+    <hyperlink ref="C267" r:id="rId246" xr:uid="{F19C8F20-0DF0-8E44-AE55-CA510C064DD7}"/>
+    <hyperlink ref="C268" r:id="rId247" xr:uid="{19FA9901-C0B9-444D-B69B-08811AFABF36}"/>
+    <hyperlink ref="C269" r:id="rId248" xr:uid="{00FBED1A-E320-9E41-85C8-4A055881A068}"/>
+    <hyperlink ref="C270" r:id="rId249" xr:uid="{8E79B9F2-2770-D940-8837-0D0114E30E99}"/>
+    <hyperlink ref="C271" r:id="rId250" xr:uid="{237A3631-452E-E741-B489-68B111732C7F}"/>
+    <hyperlink ref="C272" r:id="rId251" xr:uid="{CB100368-6BFD-8749-9F0B-5566291B0A19}"/>
+    <hyperlink ref="C273" r:id="rId252" xr:uid="{4D40E3D1-C655-8644-82DD-FE50DAC96E2A}"/>
+    <hyperlink ref="C274" r:id="rId253" xr:uid="{E9AE19A7-858D-F549-95F2-0BBB54A150C3}"/>
+    <hyperlink ref="C275" r:id="rId254" xr:uid="{6F7C6CC8-3640-9141-B2DB-EB870B114D7B}"/>
+    <hyperlink ref="C276" r:id="rId255" xr:uid="{1954FE95-2B9A-5543-BFB2-C992802B9733}"/>
+    <hyperlink ref="C277" r:id="rId256" xr:uid="{E05AFF54-414D-1349-93D4-B339848C3A0F}"/>
+    <hyperlink ref="C278" r:id="rId257" xr:uid="{61702B82-210D-A844-987E-D3FFF30D0BFF}"/>
+    <hyperlink ref="C279" r:id="rId258" xr:uid="{04D6B5EA-09FE-A647-B490-97C80339E8B1}"/>
+    <hyperlink ref="C280" r:id="rId259" xr:uid="{C0091BF1-F9F4-B648-8A12-6B12E921D8F3}"/>
+    <hyperlink ref="C281" r:id="rId260" xr:uid="{CC439025-36F7-5E4B-9943-875641205A0E}"/>
+    <hyperlink ref="C282" r:id="rId261" xr:uid="{D44CCDAA-08CB-D348-AEAB-3ABC337F11EA}"/>
+    <hyperlink ref="C283" r:id="rId262" xr:uid="{3C363928-361F-D548-AE20-196D0FCABF1B}"/>
+    <hyperlink ref="C284" r:id="rId263" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-11-30&amp;EsAviso=0&amp;PaginaId=32&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR1qBMcD75VN5awSlqWX3hPoj-bRrGEyI3Dq7DoHXHoJH74aikshJRagbV0_aem_AdmmKTyK5TCTChdG3KbE441XVSBWnKD6zGVtQJoeSCuz4FBZ2KzSp2HsEhMUlO-zWCT0v8A6XjuqYMehWyLbRn_z" xr:uid="{95A8A681-3E66-8348-8507-6417D465BD53}"/>
+    <hyperlink ref="C285" r:id="rId264" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-08&amp;EsAviso=0&amp;PaginaId=13&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR13_Z-GI1IIn5jks66nOQG12hFM_BmOI6efFGs_U8bp-_IP3G6kkP-6nV8_aem_AdlAoOUpb3oHlkW-WZ93WgXAPArxrBLCoVsUfPxlG2TvtnxA-ICWRVNE4DLL3Jr-nheZEQusI9Wr1H5PYraAIwWU" xr:uid="{01D70336-FCF3-8944-8A78-859939A2F22B}"/>
+    <hyperlink ref="C286" r:id="rId265" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-14&amp;EsAviso=0&amp;PaginaId=41&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR1yasxB3qL7xpKA-6sRG2DlLpL745-9og3SrbTaN_QyREPAqVV_klAwQAM_aem_AdnN8LPYit2opMhcIKfy0FoMipyfdF9ghSILHfC-53TlPL134wIBykD3IrvlDTiPhQpN1BHPfvJROwLRq_Gkrr1b" xr:uid="{92FEC287-9BA5-834C-AD1F-770AE6CC180A}"/>
+    <hyperlink ref="C287" r:id="rId266" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-16&amp;EsAviso=0&amp;PaginaId=18&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR1L6ctyn9z18ASpPNVjC_yX4UZ1MF7Hrb2SoLKl8ktxPQbye5BePUYg-sQ_aem_Adn2_NhCh2DLk7aKoXb4BsIrX9zNStLW7nFfUvcEPLyr2zUGF4XoSnUz-K6WLNDebeTadwE1cjW_aQTNm1Mzemva" xr:uid="{978578B4-9CC7-CC40-960D-10A700C4CFA8}"/>
+    <hyperlink ref="C288" r:id="rId267" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-18&amp;EsAviso=0&amp;PaginaId=17&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2HbQYVCtso61XJR7UgRPCwDvujEwBbErvkh4D7JHQriOZwI4pzFq3ynvo_aem_Adngp18Dm6peeiigsrE3qRfQcfZq1JnjrctlLKDc-RaPq-LGYNEA7Im5YKz4e9Pk_uMJfPMFETSYi7aBKkiotdS_" xr:uid="{DC072874-6197-E24B-AB85-D5E98BD56A83}"/>
+    <hyperlink ref="C289" r:id="rId268" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-19&amp;EsAviso=0&amp;PaginaId=14&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0aUDCI4VGIbT0iks1V4y6pi2cAUEimzIlbuKiotVlR4VJR0mHe-f5dajU_aem_AdldUwm5E1H-6pdd9tOkUV_zknQVqH9Wi2aEeLIAMfUT3VTNDC9fZ-MJ9_3oeONaqrzqEmSEFhkOlYzh0l0tGJi_" xr:uid="{B06AD1AE-2AF2-0A45-9B06-05A5E89DFC0B}"/>
+    <hyperlink ref="C290" r:id="rId269" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2023-12-20&amp;EsAviso=0&amp;PaginaId=14&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2q5fG8m0Kjgfw50Wy4Siqo036TD8D92zxEDV8-VW8Bt8NLApoM-cpO7Yw_aem_AdmkMDTneiphO4Gw7VCEU9TrNkze9D9Wq_snzlEOgrDkvdoaDywFOZgD-7fzU3rFB-f76xlOKaWiTc-re7tjFXqj" xr:uid="{4E5C32F2-CE3C-D44F-A91C-49B29D96B4F2}"/>
+    <hyperlink ref="C291" r:id="rId270" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-01-26&amp;EsAviso=0&amp;PaginaId=14&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR3HZYLjOUPQlI4HjOJkDzQ5PMFBS5hIVDn-W31itWRKoojvKI87_TLGY_A_aem_AXQCb78LFhZncbf-DW_SXZZFRRZpopx0bKvv7JbA70MT8DbVwNr5XAytCaVeBXSc1bonaZPrnnZHfFFUkRtolTxD" xr:uid="{C6E2E481-0565-5847-A8E7-6413C2CFD1A3}"/>
+    <hyperlink ref="C292" r:id="rId271" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-01-31&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR21TqcSlFQqXvHzkDtGvqm_uV4TRaoSFj6061sjdDc53BRly2nv2t98njQ_aem_AXTvpgHmXobr_tCEh1gmN6Iacj7mMkjrnOZB47qJGazcmlrWHAyiv6Dr4lmGNqN2ooNn6gxnG30f3KWN-wZ3fwnd" xr:uid="{1096A78D-C0B9-4347-A067-437FC27B8878}"/>
+    <hyperlink ref="C293" r:id="rId272" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-02-02&amp;EsAviso=0&amp;PaginaId=10&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0IQEVxWcdexdWt62IdO1iny7eYNVsVg1Xlm_ZCHEpRpNPTC28HSiofFjU_aem_AXS83gdBw8b6tOaKlbDpP7t3zVWUiGGZQgTvuhb0pLfnxtGI8TNv1bZUYxxLyp1kZU7q6F287O3_fG4DFMCF0eMN" xr:uid="{2EDA4990-720B-4245-A536-EA9FBD1483C3}"/>
+    <hyperlink ref="C294" r:id="rId273" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-02-07&amp;EsAviso=0&amp;PaginaId=4&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR087AdccLsxJyHWZxum8EG5dOnXpakctt51yjscYKfpSM32oRK7LaCdDuQ_aem_AXRA1KucsYeRzD8Fmf3jAXoHrXXHFbxmmGI-eLx21ZhUvl8ZHiPfXah9GYq8c2MgL4u7473qJRC7jxYcdDvKZ-yr" xr:uid="{40C5EC54-558B-D34B-8EF4-6E45BB6E6783}"/>
+    <hyperlink ref="C295" r:id="rId274" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-05&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR3BlOlsW_zem7msWlf4D_Pjv5g07h2z8pm4Xf7MN-sVOAcw82kA6GK3CyQ_aem_AXQUov38BCcDcFHkJf0uxiTTw86ohywZjAx1Ma2HSrMo57OhqofHQbu68XaBgVTFkwBmZq_a7eA6CTEcS8Kn76r_" xr:uid="{157EAF9F-F4FB-0844-B850-046D85FD73FF}"/>
+    <hyperlink ref="C296" r:id="rId275" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-08&amp;NewsID=526891&amp;BodyID=0&amp;PaginaId=22&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0YjLz_FuJGcXQRii5wbzcjKt_rVlMtKjWTTegR04YUNJma7YabDopk8zo_aem_AXRzBb3nkFtzKQ-sEaJvYcMkK0xri0n0-X3rGshEBakPk2j71gZGDx50T3ka38AzE5VXiTgzwAM0sU3Sgj2TxMIU" xr:uid="{6E6A2509-877A-B347-9B80-7ADAE1EDACFD}"/>
+    <hyperlink ref="C297" r:id="rId276" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-16&amp;SupplementId=0&amp;BodyID=0&amp;PaginaId=9&amp;r=w&amp;fbclid=IwZXh0bgNhZW0CMTEAAR12he35XeacmHleZs-gII5m08HF4Of_mhR-IT8oqwhovgQxmVEbG_UzU7Q_aem_AXR9fWcE_qsTL2ake64FBxjpnM0mCvipvgrYVHZmr-X4-U6cs8Vie7tmSG6hB5rL9lc0kQktRssPKX2woF-v1i-X" xr:uid="{BEA4B447-15C8-4A42-B581-D4E16539C6C4}"/>
+    <hyperlink ref="C298" r:id="rId277" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-27&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2xuDqkyJsQfXNbMOANCI3cuY6JyMB0y3hq0MdN0-YOOUhCy59PNcIHRTg_aem_AXQQ2WJHMSKiMXlmbusvoaPIsI6txlFOfw-aQJwBNIUuvf-hntCUlEPrkCj-hBrgdUWYvxrigIQPcH1U0Rhupqwq" xr:uid="{19CD7D19-64C7-D240-BE9B-C2DED7DD6E65}"/>
+    <hyperlink ref="C299" r:id="rId278" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-28&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR3xQLF7nQjgjfSyA8ENV78HH---YwmxhypgvP6_PAO2084Sja5yRw8No4U_aem_AXSQxq2_iWyOkCxxufw71Azqf-eQKgy-SCW4h0cYAeJrgwDng5sreiYNvpqG7N7R0enkxyUATtngssm8LRV_zdQE" xr:uid="{868C06D3-754F-AE4F-ACF7-D7370A51F2F4}"/>
+    <hyperlink ref="C300" r:id="rId279" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-03-29&amp;EsAviso=0&amp;PaginaId=10&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0j4rZgodQcIsYK1S-0l_i9_mtYJek_J9KqJ0nhgs397ISgUuQMjiKhXV8_aem_AXR5T6bWkqEm1ohX8c_G43Swnko-9aRBdErzO8-MBM--6zfz9UzioqgDctfF3Q7hF-aVQ_2JwzawUy0PFBo16CMb" xr:uid="{BAE42A61-C170-5646-B455-876CFD73D9B2}"/>
+    <hyperlink ref="C301" r:id="rId280" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-04-06&amp;SupplementId=0&amp;BodyID=0&amp;PaginaId=9&amp;r=w&amp;fbclid=IwZXh0bgNhZW0CMTEAAR37YdpBexVvCERiNWkIT8jYZh1PKgpjTmV7eCIl5TqZQbDUrcNZnmE55Qo_aem_AXQsqorpg6nHFRr808hNsWfqv6ABkRqVfXApkkVOURDcnXtI0UEOwKsulcm-YsykJbVjsYhLUtxbX4a8BiDnNXZp" xr:uid="{76A42CCE-3C31-0647-A2D2-C7172E2C9F0E}"/>
+    <hyperlink ref="C302" r:id="rId281" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-04-18&amp;EsAviso=0&amp;PaginaId=12&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2L-eDbThHc28UIykiyMY1bOzVvpTdNNSCHBIOJYYOjax_CAbzN7OX8hhE_aem_AXQUOOOw1bSn6vVEaAVUBimmluwB3tEMqhpPZtcaXWf2RONUx5a71simayBEjFk-Hr899viwDiefeTiYbnjTO0ed" xr:uid="{78265FB7-1B28-D34B-ABB2-4805BD8D2A30}"/>
+    <hyperlink ref="C303" r:id="rId282" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-04-19&amp;EsAviso=0&amp;PaginaId=13&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR0aa_B0h2GoAAD2vHkr4rTw9OOETjANy-X273B5UohfFiibuX4CnLOf5sw_aem_AXSCUMN0l4GhKCceQWp0OmD8ngHdPz9AxkqVvslifq7A1n00pQo_sr3UjSw19MDRacAu_hwOyCd1zKwGy8-jDFZ8" xr:uid="{B1F9E896-5B2F-DC45-8655-6737C3969602}"/>
+    <hyperlink ref="C304" r:id="rId283" display="https://www.lun.com/Pages/NewsDetail.aspx?dt=2024-04-23&amp;EsAviso=0&amp;PaginaId=8&amp;bodyid=0&amp;fbclid=IwZXh0bgNhZW0CMTEAAR2SEga103rMRPmk5ogKoFlh1OzOrRInM5RvSz924RnsJiZm1MWtM5n1VLU_aem_AXRGSCEvsAKhrKpE9O5i_PQH49dU-YmjgGfsOivV-K7llkQe52tcl0ZDuHxoiHgvBSUWwy9ryh8lpb80Z9AFMqNj" xr:uid="{C4F37498-84A6-BA4E-8919-E0B7953C3B37}"/>
+    <hyperlink ref="C305" r:id="rId284" xr:uid="{16624334-1155-9946-8EB0-0D8EAD2670EB}"/>
+    <hyperlink ref="C306" r:id="rId285" xr:uid="{8ABCBA45-1F49-004B-8F72-C3E0E71B6674}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/img/lun/links.xlsx
+++ b/img/lun/links.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Library/CloudStorage/Dropbox/GitHub/kennethbunker.github.io/img/lun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBA8BD9-C714-9449-A791-7004CEE45EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE088D1-35CF-C94F-8BAD-05E53F6E1196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13760" windowHeight="15500" xr2:uid="{139F8825-776B-D141-A958-7D8ABBE3845F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{139F8825-776B-D141-A958-7D8ABBE3845F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="877">
   <si>
     <t>link</t>
   </si>
@@ -1819,6 +1819,855 @@
   </si>
   <si>
     <t>&lt;img src="/img/lun/20180115.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180217.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180225.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180404.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180427.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180527.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180618.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180709.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180712.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20181010.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20191216.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200614.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200703.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200826.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210720.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211115.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211123.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211211.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220106.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220206.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220207.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221114.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180107.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180507.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180509.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200124.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210123.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210126.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211020.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220210.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220316.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220416.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220705.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220818.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221108.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230309.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180121.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180124.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180227.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180307.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180312.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180322.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180328.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180406.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180413.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180414.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180418.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180419.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180420.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180422.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180503.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180504.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180511.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180514.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180518.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180608.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180612.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180615.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180619.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180719.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180724.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180730.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180810.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180814.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180824.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20180830.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20181009.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20190320.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20190619.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20191206.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200229.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200303.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200307.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200320.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200401.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200417.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200505.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200507.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200512.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200514.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200527.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200530.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200605.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200609.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200612.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200619.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200701.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200706.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200709.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200721.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200724.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200729.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200820.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200917.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20200930.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201001.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201014.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201026.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201031.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201104.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201105.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201111.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201120.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201202.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201204.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201216.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201219.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20201230.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211001.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210215.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210216.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210318.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210326.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210331.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210402.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210408.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210414.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210416.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210417.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210428.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210430.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210508.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210511.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210517.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210602.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210614.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210705.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210707.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210713.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210719.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210721.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210724.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210727.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210729.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210910.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210915.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210921.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210925.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210928.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20210929.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211013.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211014.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211019.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211103.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211106.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211110.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211111.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211113.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211116.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211117.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211125.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211127.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211214.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211220.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20211223.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220122.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220130.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220202.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220216.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220219.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220223.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220225.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220312.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220318.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220323.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220325.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220330.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220413.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220414.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220423.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220511.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220512.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220517.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220526.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220531.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220601.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220602.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220610.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220611.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220615.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220620.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220623.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220701.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220706.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220714.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220716.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220721.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220727.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220730.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220802.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220804.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220809.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220812.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220825.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220826.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220828.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220901.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220905.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220907.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220909.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220914.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220916.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220918.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220924.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20220925.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221027.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221105.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221110.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221116.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221121.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221207.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221214.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221220.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221224.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221228.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20221231.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230105.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230110.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230114.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230125.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230127.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230203.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230222.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230223.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230307.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230308.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230311.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230323.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230330.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230407.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230414.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230420.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230422.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230429.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230506.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230508.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230509.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230525.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230602.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230608.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230614.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230624.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230705.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230707.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230713.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230721.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230728.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230802.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230817.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230908.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230912.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230916.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230922.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230927.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20230929.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231026.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231031.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231103.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231108.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231110.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231116.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240521.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231130.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231208.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231214.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231216.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231218.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231219.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20231220.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240126.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240131.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240202.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240207.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240305.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240308.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240316.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240327.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240328.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240329.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240406.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240418.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240419.jpeg"&gt;</t>
+  </si>
+  <si>
+    <t>&lt;img src="/img/lun/20240423.jpeg"&gt;</t>
   </si>
 </sst>
 </file>
@@ -2236,19 +3085,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB7D67-50DA-F64C-B7EE-12631B37D868}">
-  <dimension ref="A1:D307"/>
+  <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+      <selection activeCell="F301" sqref="F301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="4"/>
     <col min="2" max="2" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -2258,9 +3108,11 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>20180102</v>
       </c>
@@ -2269,8 +3121,9 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>20180107</v>
       </c>
@@ -2281,10 +3134,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>20180115</v>
       </c>
@@ -2298,7 +3151,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>20180121</v>
       </c>
@@ -2308,9 +3161,11 @@
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>20180124</v>
       </c>
@@ -2320,9 +3175,11 @@
       <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20180217</v>
       </c>
@@ -2332,9 +3189,11 @@
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>20180225</v>
       </c>
@@ -2344,9 +3203,11 @@
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>20180227</v>
       </c>
@@ -2356,9 +3217,11 @@
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>20180307</v>
       </c>
@@ -2368,9 +3231,11 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20180312</v>
       </c>
@@ -2380,9 +3245,11 @@
       <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>20180322</v>
       </c>
@@ -2392,9 +3259,11 @@
       <c r="C12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>20180328</v>
       </c>
@@ -2404,9 +3273,11 @@
       <c r="C13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>20180404</v>
       </c>
@@ -2416,9 +3287,11 @@
       <c r="C14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>20180406</v>
       </c>
@@ -2428,9 +3301,11 @@
       <c r="C15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>20180413</v>
       </c>
@@ -2440,7 +3315,9 @@
       <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>638</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -2452,7 +3329,9 @@
       <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2464,7 +3343,9 @@
       <c r="C18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>640</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2476,7 +3357,9 @@
       <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>641</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -2488,7 +3371,9 @@
       <c r="C20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>642</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -2500,7 +3385,9 @@
       <c r="C21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -2512,7 +3399,9 @@
       <c r="C22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -2524,7 +3413,9 @@
       <c r="C23" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>644</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -2536,7 +3427,9 @@
       <c r="C24" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>645</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -2548,7 +3441,9 @@
       <c r="C25" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -2560,7 +3455,9 @@
       <c r="C26" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>618</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -2572,7 +3469,9 @@
       <c r="C27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -2584,7 +3483,9 @@
       <c r="C28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>647</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -2606,7 +3507,9 @@
       <c r="C30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
@@ -2618,7 +3521,9 @@
       <c r="C31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
@@ -2630,7 +3535,9 @@
       <c r="C32" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
@@ -2642,7 +3549,9 @@
       <c r="C33" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -2654,7 +3563,9 @@
       <c r="C34" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>651</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -2666,7 +3577,9 @@
       <c r="C35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -2678,7 +3591,9 @@
       <c r="C36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
@@ -2690,7 +3605,9 @@
       <c r="C37" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -2702,7 +3619,9 @@
       <c r="C38" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
@@ -2714,7 +3633,9 @@
       <c r="C39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
@@ -2726,7 +3647,9 @@
       <c r="C40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
@@ -2738,7 +3661,9 @@
       <c r="C41" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -2750,7 +3675,9 @@
       <c r="C42" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -2762,7 +3689,9 @@
       <c r="C43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -2774,7 +3703,9 @@
       <c r="C44" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -2786,7 +3717,9 @@
       <c r="C45" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
@@ -2818,7 +3751,9 @@
       <c r="C48" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
@@ -2830,7 +3765,9 @@
       <c r="C49" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -2882,7 +3819,9 @@
       <c r="C54" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
@@ -2904,7 +3843,9 @@
       <c r="C56" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
@@ -2936,7 +3877,9 @@
       <c r="C59" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
@@ -2948,7 +3891,9 @@
       <c r="C60" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
@@ -2960,7 +3905,9 @@
       <c r="C61" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
@@ -2972,7 +3919,9 @@
       <c r="C62" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
@@ -2984,7 +3933,9 @@
       <c r="C63" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
@@ -2996,7 +3947,9 @@
       <c r="C64" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
@@ -3008,7 +3961,9 @@
       <c r="C65" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -3020,7 +3975,9 @@
       <c r="C66" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
@@ -3032,7 +3989,9 @@
       <c r="C67" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -3044,7 +4003,9 @@
       <c r="C68" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>669</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
@@ -3056,7 +4017,9 @@
       <c r="C69" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
@@ -3068,7 +4031,9 @@
       <c r="C70" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
@@ -3080,7 +4045,9 @@
       <c r="C71" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
@@ -3092,7 +4059,9 @@
       <c r="C72" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
@@ -3104,7 +4073,9 @@
       <c r="C73" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -3116,7 +4087,9 @@
       <c r="C74" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
@@ -3128,7 +4101,9 @@
       <c r="C75" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
@@ -3140,7 +4115,9 @@
       <c r="C76" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
@@ -3152,7 +4129,9 @@
       <c r="C77" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
@@ -3164,7 +4143,9 @@
       <c r="C78" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
@@ -3176,7 +4157,9 @@
       <c r="C79" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
@@ -3188,7 +4171,9 @@
       <c r="C80" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
@@ -3200,7 +4185,9 @@
       <c r="C81" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
@@ -3212,7 +4199,9 @@
       <c r="C82" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>681</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
@@ -3224,7 +4213,9 @@
       <c r="C83" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
@@ -3236,7 +4227,9 @@
       <c r="C84" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
@@ -3248,7 +4241,9 @@
       <c r="C85" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>684</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
@@ -3260,7 +4255,9 @@
       <c r="C86" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
@@ -3272,7 +4269,9 @@
       <c r="C87" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="D87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
@@ -3284,7 +4283,9 @@
       <c r="C88" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D88" s="4"/>
+      <c r="D88" s="4" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
@@ -3296,7 +4297,9 @@
       <c r="C89" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D89" s="4"/>
+      <c r="D89" s="4" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
@@ -3308,7 +4311,9 @@
       <c r="C90" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D90" s="4"/>
+      <c r="D90" s="4" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
@@ -3320,7 +4325,9 @@
       <c r="C91" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
@@ -3332,7 +4339,9 @@
       <c r="C92" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
@@ -3344,7 +4353,9 @@
       <c r="C93" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="D93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
@@ -3356,7 +4367,9 @@
       <c r="C94" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
@@ -3368,7 +4381,9 @@
       <c r="C95" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>693</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
@@ -3380,7 +4395,9 @@
       <c r="C96" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
@@ -3392,7 +4409,9 @@
       <c r="C97" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
@@ -3404,7 +4423,9 @@
       <c r="C98" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>696</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
@@ -3416,7 +4437,9 @@
       <c r="C99" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>697</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
@@ -3428,7 +4451,9 @@
       <c r="C100" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D100" s="4"/>
+      <c r="D100" s="4" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
@@ -3440,7 +4465,9 @@
       <c r="C101" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>699</v>
+      </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
@@ -3452,7 +4479,9 @@
       <c r="C102" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
@@ -3464,7 +4493,9 @@
       <c r="C103" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>701</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
@@ -3476,7 +4507,9 @@
       <c r="C104" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="4" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
@@ -3488,7 +4521,9 @@
       <c r="C105" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="D105" s="4"/>
+      <c r="D105" s="4" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
@@ -3500,7 +4535,9 @@
       <c r="C106" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D106" s="4"/>
+      <c r="D106" s="4" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
@@ -3512,7 +4549,9 @@
       <c r="C107" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D107" s="4"/>
+      <c r="D107" s="4" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
@@ -3524,7 +4563,9 @@
       <c r="C108" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="D108" s="4"/>
+      <c r="D108" s="4" t="s">
+        <v>704</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
@@ -3536,7 +4577,9 @@
       <c r="C109" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>705</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
@@ -3548,7 +4591,9 @@
       <c r="C110" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>706</v>
+      </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
@@ -3560,7 +4605,9 @@
       <c r="C111" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D111" s="4"/>
+      <c r="D111" s="4" t="s">
+        <v>707</v>
+      </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
@@ -3572,7 +4619,9 @@
       <c r="C112" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
@@ -3584,7 +4633,9 @@
       <c r="C113" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D113" s="4"/>
+      <c r="D113" s="4" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
@@ -3596,7 +4647,9 @@
       <c r="C114" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="D114" s="4"/>
+      <c r="D114" s="4" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
@@ -3608,7 +4661,9 @@
       <c r="C115" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4" t="s">
+        <v>711</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
@@ -3620,7 +4675,9 @@
       <c r="C116" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="D116" s="4"/>
+      <c r="D116" s="4" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
@@ -3632,7 +4689,9 @@
       <c r="C117" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
@@ -3644,7 +4703,9 @@
       <c r="C118" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="D118" s="4"/>
+      <c r="D118" s="4" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
@@ -3666,7 +4727,9 @@
       <c r="C120" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="D120" s="4"/>
+      <c r="D120" s="4" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
@@ -3678,7 +4741,9 @@
       <c r="C121" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="D121" s="4"/>
+      <c r="D121" s="4" t="s">
+        <v>716</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
@@ -3700,7 +4765,9 @@
       <c r="C123" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="D123" s="4"/>
+      <c r="D123" s="4" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
@@ -3712,7 +4779,9 @@
       <c r="C124" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="D124" s="4"/>
+      <c r="D124" s="4" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
@@ -3724,7 +4793,9 @@
       <c r="C125" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D125" s="4"/>
+      <c r="D125" s="4" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
@@ -3736,7 +4807,9 @@
       <c r="C126" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="D126" s="4"/>
+      <c r="D126" s="4" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
@@ -3748,7 +4821,9 @@
       <c r="C127" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="D127" s="4"/>
+      <c r="D127" s="4" t="s">
+        <v>721</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
@@ -3760,7 +4835,9 @@
       <c r="C128" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D128" s="4"/>
+      <c r="D128" s="4" t="s">
+        <v>722</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
@@ -3772,7 +4849,9 @@
       <c r="C129" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="D129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
@@ -3784,7 +4863,9 @@
       <c r="C130" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="D130" s="4"/>
+      <c r="D130" s="4" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
@@ -3796,7 +4877,9 @@
       <c r="C131" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D131" s="4"/>
+      <c r="D131" s="4" t="s">
+        <v>724</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
@@ -3808,7 +4891,9 @@
       <c r="C132" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="D132" s="4"/>
+      <c r="D132" s="4" t="s">
+        <v>725</v>
+      </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
@@ -3820,7 +4905,9 @@
       <c r="C133" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="D133" s="4"/>
+      <c r="D133" s="4" t="s">
+        <v>726</v>
+      </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
@@ -3832,7 +4919,9 @@
       <c r="C134" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D134" s="4"/>
+      <c r="D134" s="4" t="s">
+        <v>727</v>
+      </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
@@ -3844,7 +4933,9 @@
       <c r="C135" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D135" s="4"/>
+      <c r="D135" s="4" t="s">
+        <v>728</v>
+      </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
@@ -3856,7 +4947,9 @@
       <c r="C136" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D136" s="4"/>
+      <c r="D136" s="4" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
@@ -3878,7 +4971,9 @@
       <c r="C138" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D138" s="4"/>
+      <c r="D138" s="4" t="s">
+        <v>730</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
@@ -3890,7 +4985,9 @@
       <c r="C139" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="D139" s="4"/>
+      <c r="D139" s="4" t="s">
+        <v>731</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
@@ -3902,7 +4999,9 @@
       <c r="C140" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D140" s="4"/>
+      <c r="D140" s="4" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
@@ -3914,7 +5013,9 @@
       <c r="C141" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="D141" s="4"/>
+      <c r="D141" s="4" t="s">
+        <v>733</v>
+      </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
@@ -3926,7 +5027,9 @@
       <c r="C142" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="D142" s="4"/>
+      <c r="D142" s="4" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
@@ -3938,7 +5041,9 @@
       <c r="C143" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="D143" s="4"/>
+      <c r="D143" s="4" t="s">
+        <v>735</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
@@ -3950,7 +5055,9 @@
       <c r="C144" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="D144" s="4"/>
+      <c r="D144" s="4" t="s">
+        <v>736</v>
+      </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
@@ -3962,7 +5069,9 @@
       <c r="C145" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D145" s="4"/>
+      <c r="D145" s="4" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
@@ -3974,7 +5083,9 @@
       <c r="C146" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="D146" s="4"/>
+      <c r="D146" s="4" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
@@ -3986,7 +5097,9 @@
       <c r="C147" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="D147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
@@ -3998,7 +5111,9 @@
       <c r="C148" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D148" s="4"/>
+      <c r="D148" s="4" t="s">
+        <v>739</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
@@ -4010,7 +5125,9 @@
       <c r="C149" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="D149" s="4"/>
+      <c r="D149" s="4" t="s">
+        <v>740</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
@@ -4022,7 +5139,9 @@
       <c r="C150" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D150" s="4"/>
+      <c r="D150" s="4" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
@@ -4034,7 +5153,9 @@
       <c r="C151" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D151" s="4"/>
+      <c r="D151" s="4" t="s">
+        <v>609</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
@@ -4046,7 +5167,9 @@
       <c r="C152" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="D152" s="4"/>
+      <c r="D152" s="4" t="s">
+        <v>742</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
@@ -4058,7 +5181,9 @@
       <c r="C153" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="D153" s="4"/>
+      <c r="D153" s="4" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
@@ -4070,7 +5195,9 @@
       <c r="C154" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="D154" s="4"/>
+      <c r="D154" s="4" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
@@ -4082,7 +5209,9 @@
       <c r="C155" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="D155" s="4"/>
+      <c r="D155" s="4" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
@@ -4094,7 +5223,9 @@
       <c r="C156" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="D156" s="4"/>
+      <c r="D156" s="4" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
@@ -4106,7 +5237,9 @@
       <c r="C157" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="D157" s="4"/>
+      <c r="D157" s="4" t="s">
+        <v>611</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
@@ -4118,7 +5251,9 @@
       <c r="C158" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="D158" s="4"/>
+      <c r="D158" s="4" t="s">
+        <v>746</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
@@ -4130,7 +5265,9 @@
       <c r="C159" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D159" s="4"/>
+      <c r="D159" s="4" t="s">
+        <v>747</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
@@ -4152,7 +5289,9 @@
       <c r="C161" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D161" s="4"/>
+      <c r="D161" s="4" t="s">
+        <v>748</v>
+      </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
@@ -4164,7 +5303,9 @@
       <c r="C162" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="D162" s="4"/>
+      <c r="D162" s="4" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
@@ -4176,7 +5317,9 @@
       <c r="C163" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D163" s="4"/>
+      <c r="D163" s="4" t="s">
+        <v>749</v>
+      </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
@@ -4188,7 +5331,9 @@
       <c r="C164" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D164" s="4"/>
+      <c r="D164" s="4" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
@@ -4200,7 +5345,9 @@
       <c r="C165" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D165" s="4"/>
+      <c r="D165" s="4" t="s">
+        <v>751</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
@@ -4212,7 +5359,9 @@
       <c r="C166" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="D166" s="4"/>
+      <c r="D166" s="4" t="s">
+        <v>613</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
@@ -4224,7 +5373,9 @@
       <c r="C167" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D167" s="4"/>
+      <c r="D167" s="4" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
@@ -4236,7 +5387,9 @@
       <c r="C168" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D168" s="4"/>
+      <c r="D168" s="4" t="s">
+        <v>623</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
@@ -4248,7 +5401,9 @@
       <c r="C169" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="D169" s="4"/>
+      <c r="D169" s="4" t="s">
+        <v>752</v>
+      </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
@@ -4260,7 +5415,9 @@
       <c r="C170" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D170" s="4"/>
+      <c r="D170" s="4" t="s">
+        <v>753</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
@@ -4272,7 +5429,9 @@
       <c r="C171" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D171" s="4"/>
+      <c r="D171" s="4" t="s">
+        <v>754</v>
+      </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
@@ -4284,7 +5443,9 @@
       <c r="C172" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D172" s="4"/>
+      <c r="D172" s="4" t="s">
+        <v>755</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
@@ -4296,7 +5457,9 @@
       <c r="C173" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D173" s="4"/>
+      <c r="D173" s="4" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
@@ -4308,7 +5471,9 @@
       <c r="C174" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="D174" s="4"/>
+      <c r="D174" s="4" t="s">
+        <v>624</v>
+      </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
@@ -4320,7 +5485,9 @@
       <c r="C175" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D175" s="4"/>
+      <c r="D175" s="4" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
@@ -4332,7 +5499,9 @@
       <c r="C176" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D176" s="4"/>
+      <c r="D176" s="4" t="s">
+        <v>758</v>
+      </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
@@ -4344,7 +5513,9 @@
       <c r="C177" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="D177" s="4"/>
+      <c r="D177" s="4" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
@@ -4356,7 +5527,9 @@
       <c r="C178" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D178" s="4"/>
+      <c r="D178" s="4" t="s">
+        <v>760</v>
+      </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
@@ -4368,7 +5541,9 @@
       <c r="C179" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D179" s="4"/>
+      <c r="D179" s="4" t="s">
+        <v>761</v>
+      </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
@@ -4380,7 +5555,9 @@
       <c r="C180" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="D180" s="4"/>
+      <c r="D180" s="4" t="s">
+        <v>762</v>
+      </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
@@ -4392,7 +5569,9 @@
       <c r="C181" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D181" s="4"/>
+      <c r="D181" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
@@ -4414,7 +5593,9 @@
       <c r="C183" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D183" s="4"/>
+      <c r="D183" s="4" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
@@ -4436,7 +5617,9 @@
       <c r="C185" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D185" s="4"/>
+      <c r="D185" s="4" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
@@ -4448,7 +5631,9 @@
       <c r="C186" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="D186" s="4"/>
+      <c r="D186" s="4" t="s">
+        <v>765</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
@@ -4460,7 +5645,9 @@
       <c r="C187" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="D187" s="4"/>
+      <c r="D187" s="4" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
@@ -4472,7 +5659,9 @@
       <c r="C188" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="D188" s="4"/>
+      <c r="D188" s="4" t="s">
+        <v>767</v>
+      </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
@@ -4494,7 +5683,9 @@
       <c r="C190" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="D190" s="4"/>
+      <c r="D190" s="4" t="s">
+        <v>768</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
@@ -4506,7 +5697,9 @@
       <c r="C191" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="D191" s="4"/>
+      <c r="D191" s="4" t="s">
+        <v>769</v>
+      </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
@@ -4518,7 +5711,9 @@
       <c r="C192" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D192" s="4"/>
+      <c r="D192" s="4" t="s">
+        <v>770</v>
+      </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
@@ -4530,7 +5725,9 @@
       <c r="C193" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D193" s="4"/>
+      <c r="D193" s="4" t="s">
+        <v>771</v>
+      </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
@@ -4542,7 +5739,9 @@
       <c r="C194" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D194" s="4"/>
+      <c r="D194" s="4" t="s">
+        <v>772</v>
+      </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
@@ -4554,7 +5753,9 @@
       <c r="C195" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D195" s="4"/>
+      <c r="D195" s="4" t="s">
+        <v>773</v>
+      </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
@@ -4566,7 +5767,9 @@
       <c r="C196" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D196" s="4"/>
+      <c r="D196" s="4" t="s">
+        <v>774</v>
+      </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
@@ -4578,7 +5781,9 @@
       <c r="C197" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="D197" s="4"/>
+      <c r="D197" s="4" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
@@ -4600,7 +5805,9 @@
       <c r="C199" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="D199" s="4"/>
+      <c r="D199" s="4" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
@@ -4612,7 +5819,9 @@
       <c r="C200" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D200" s="4"/>
+      <c r="D200" s="4" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
@@ -4624,7 +5833,9 @@
       <c r="C201" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D201" s="4"/>
+      <c r="D201" s="4" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
@@ -4636,7 +5847,9 @@
       <c r="C202" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D202" s="4"/>
+      <c r="D202" s="4" t="s">
+        <v>778</v>
+      </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
@@ -4648,7 +5861,9 @@
       <c r="C203" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D203" s="4"/>
+      <c r="D203" s="4" t="s">
+        <v>779</v>
+      </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
@@ -4660,7 +5875,9 @@
       <c r="C204" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="D204" s="4"/>
+      <c r="D204" s="4" t="s">
+        <v>780</v>
+      </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
@@ -4672,7 +5889,9 @@
       <c r="C205" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="D205" s="4"/>
+      <c r="D205" s="4" t="s">
+        <v>781</v>
+      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
@@ -4684,7 +5903,9 @@
       <c r="C206" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D206" s="4"/>
+      <c r="D206" s="4" t="s">
+        <v>782</v>
+      </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
@@ -4696,7 +5917,9 @@
       <c r="C207" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="D207" s="4"/>
+      <c r="D207" s="4" t="s">
+        <v>783</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
@@ -4708,7 +5931,9 @@
       <c r="C208" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="D208" s="4"/>
+      <c r="D208" s="4" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
@@ -4720,7 +5945,9 @@
       <c r="C209" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D209" s="4"/>
+      <c r="D209" s="4" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
@@ -4732,7 +5959,9 @@
       <c r="C210" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D210" s="4"/>
+      <c r="D210" s="4" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
@@ -4744,7 +5973,9 @@
       <c r="C211" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D211" s="4"/>
+      <c r="D211" s="4" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
@@ -4756,7 +5987,9 @@
       <c r="C212" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D212" s="4"/>
+      <c r="D212" s="4" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
@@ -4768,7 +6001,9 @@
       <c r="C213" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="D213" s="4"/>
+      <c r="D213" s="4" t="s">
+        <v>788</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
@@ -4780,7 +6015,9 @@
       <c r="C214" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="D214" s="4"/>
+      <c r="D214" s="4" t="s">
+        <v>789</v>
+      </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
@@ -4792,7 +6029,9 @@
       <c r="C215" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D215" s="4"/>
+      <c r="D215" s="4" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
@@ -4804,7 +6043,9 @@
       <c r="C216" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="D216" s="4"/>
+      <c r="D216" s="4" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
@@ -4816,7 +6057,9 @@
       <c r="C217" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="D217" s="4"/>
+      <c r="D217" s="4" t="s">
+        <v>792</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
@@ -4828,7 +6071,9 @@
       <c r="C218" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D218" s="4"/>
+      <c r="D218" s="4" t="s">
+        <v>793</v>
+      </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
@@ -4840,7 +6085,9 @@
       <c r="C219" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="D219" s="4"/>
+      <c r="D219" s="4" t="s">
+        <v>794</v>
+      </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
@@ -4852,7 +6099,9 @@
       <c r="C220" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="D220" s="4"/>
+      <c r="D220" s="4" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
@@ -4864,7 +6113,9 @@
       <c r="C221" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D221" s="4"/>
+      <c r="D221" s="4" t="s">
+        <v>796</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
@@ -4876,7 +6127,9 @@
       <c r="C222" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="D222" s="4"/>
+      <c r="D222" s="4" t="s">
+        <v>797</v>
+      </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
@@ -4888,7 +6141,9 @@
       <c r="C223" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="D223" s="4"/>
+      <c r="D223" s="4" t="s">
+        <v>798</v>
+      </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
@@ -4900,7 +6155,9 @@
       <c r="C224" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="D224" s="4"/>
+      <c r="D224" s="4" t="s">
+        <v>799</v>
+      </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
@@ -4922,7 +6179,9 @@
       <c r="C226" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="D226" s="4"/>
+      <c r="D226" s="4" t="s">
+        <v>800</v>
+      </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
@@ -4934,7 +6193,9 @@
       <c r="C227" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="D227" s="4"/>
+      <c r="D227" s="4" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
@@ -4946,7 +6207,9 @@
       <c r="C228" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D228" s="4"/>
+      <c r="D228" s="4" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
@@ -4958,7 +6221,9 @@
       <c r="C229" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="D229" s="4"/>
+      <c r="D229" s="4" t="s">
+        <v>615</v>
+      </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
@@ -4970,7 +6235,9 @@
       <c r="C230" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D230" s="4"/>
+      <c r="D230" s="4" t="s">
+        <v>802</v>
+      </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
@@ -4982,7 +6249,9 @@
       <c r="C231" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="D231" s="4"/>
+      <c r="D231" s="4" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
@@ -4994,7 +6263,9 @@
       <c r="C232" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D232" s="4"/>
+      <c r="D232" s="4" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
@@ -5006,7 +6277,9 @@
       <c r="C233" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="D233" s="4"/>
+      <c r="D233" s="4" t="s">
+        <v>805</v>
+      </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
@@ -5018,7 +6291,9 @@
       <c r="C234" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="D234" s="4"/>
+      <c r="D234" s="4" t="s">
+        <v>806</v>
+      </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
@@ -5030,7 +6305,9 @@
       <c r="C235" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D235" s="4"/>
+      <c r="D235" s="4" t="s">
+        <v>807</v>
+      </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
@@ -5042,7 +6319,9 @@
       <c r="C236" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="D236" s="4"/>
+      <c r="D236" s="4" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
@@ -5054,7 +6333,9 @@
       <c r="C237" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D237" s="4"/>
+      <c r="D237" s="4" t="s">
+        <v>809</v>
+      </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
@@ -5066,7 +6347,9 @@
       <c r="C238" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D238" s="4"/>
+      <c r="D238" s="4" t="s">
+        <v>810</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
@@ -5078,7 +6361,9 @@
       <c r="C239" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D239" s="4"/>
+      <c r="D239" s="4" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
@@ -5090,7 +6375,9 @@
       <c r="C240" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D240" s="4"/>
+      <c r="D240" s="4" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
@@ -5102,7 +6389,9 @@
       <c r="C241" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D241" s="4"/>
+      <c r="D241" s="4" t="s">
+        <v>813</v>
+      </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
@@ -5114,7 +6403,9 @@
       <c r="C242" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D242" s="4"/>
+      <c r="D242" s="4" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
@@ -5126,7 +6417,9 @@
       <c r="C243" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D243" s="4"/>
+      <c r="D243" s="4" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
@@ -5138,7 +6431,9 @@
       <c r="C244" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="D244" s="4"/>
+      <c r="D244" s="4" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
@@ -5150,7 +6445,9 @@
       <c r="C245" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D245" s="4"/>
+      <c r="D245" s="4" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
@@ -5162,7 +6459,9 @@
       <c r="C246" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="D246" s="4"/>
+      <c r="D246" s="4" t="s">
+        <v>818</v>
+      </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
@@ -5174,7 +6473,9 @@
       <c r="C247" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="D247" s="4"/>
+      <c r="D247" s="4" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
@@ -5186,7 +6487,9 @@
       <c r="C248" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D248" s="4"/>
+      <c r="D248" s="4" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
@@ -5198,7 +6501,9 @@
       <c r="C249" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D249" s="4"/>
+      <c r="D249" s="4" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
@@ -5210,7 +6515,9 @@
       <c r="C250" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D250" s="4"/>
+      <c r="D250" s="4" t="s">
+        <v>821</v>
+      </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
@@ -5222,7 +6529,9 @@
       <c r="C251" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="D251" s="4"/>
+      <c r="D251" s="4" t="s">
+        <v>822</v>
+      </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
@@ -5234,7 +6543,9 @@
       <c r="C252" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="D252" s="4"/>
+      <c r="D252" s="4" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
@@ -5246,7 +6557,9 @@
       <c r="C253" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="D253" s="4"/>
+      <c r="D253" s="4" t="s">
+        <v>824</v>
+      </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
@@ -5258,7 +6571,9 @@
       <c r="C254" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="D254" s="4"/>
+      <c r="D254" s="4" t="s">
+        <v>825</v>
+      </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
@@ -5270,7 +6585,9 @@
       <c r="C255" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D255" s="4"/>
+      <c r="D255" s="4" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
@@ -5282,7 +6599,9 @@
       <c r="C256" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D256" s="4"/>
+      <c r="D256" s="4" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
@@ -5294,7 +6613,9 @@
       <c r="C257" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="D257" s="4"/>
+      <c r="D257" s="4" t="s">
+        <v>828</v>
+      </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
@@ -5306,7 +6627,9 @@
       <c r="C258" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D258" s="4"/>
+      <c r="D258" s="4" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
@@ -5318,7 +6641,9 @@
       <c r="C259" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="D259" s="4"/>
+      <c r="D259" s="4" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
@@ -5330,7 +6655,9 @@
       <c r="C260" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D260" s="4"/>
+      <c r="D260" s="4" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
@@ -5342,7 +6669,9 @@
       <c r="C261" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D261" s="4"/>
+      <c r="D261" s="4" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
@@ -5354,7 +6683,9 @@
       <c r="C262" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D262" s="4"/>
+      <c r="D262" s="4" t="s">
+        <v>833</v>
+      </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
@@ -5366,7 +6697,9 @@
       <c r="C263" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="D263" s="4"/>
+      <c r="D263" s="4" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
@@ -5378,7 +6711,9 @@
       <c r="C264" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="D264" s="4"/>
+      <c r="D264" s="4" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
@@ -5390,7 +6725,9 @@
       <c r="C265" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D265" s="4"/>
+      <c r="D265" s="4" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
@@ -5402,7 +6739,9 @@
       <c r="C266" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="D266" s="4"/>
+      <c r="D266" s="4" t="s">
+        <v>837</v>
+      </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
@@ -5414,7 +6753,9 @@
       <c r="C267" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D267" s="4"/>
+      <c r="D267" s="4" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
@@ -5426,7 +6767,9 @@
       <c r="C268" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="D268" s="4"/>
+      <c r="D268" s="4" t="s">
+        <v>839</v>
+      </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
@@ -5438,7 +6781,9 @@
       <c r="C269" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="D269" s="4"/>
+      <c r="D269" s="4" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
@@ -5450,7 +6795,9 @@
       <c r="C270" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D270" s="4"/>
+      <c r="D270" s="4" t="s">
+        <v>841</v>
+      </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
@@ -5462,7 +6809,9 @@
       <c r="C271" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="D271" s="4"/>
+      <c r="D271" s="4" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
@@ -5474,7 +6823,9 @@
       <c r="C272" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="D272" s="4"/>
+      <c r="D272" s="4" t="s">
+        <v>843</v>
+      </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
@@ -5486,7 +6837,9 @@
       <c r="C273" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="D273" s="4"/>
+      <c r="D273" s="4" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
@@ -5498,7 +6851,9 @@
       <c r="C274" s="6" t="s">
         <v>527</v>
       </c>
-      <c r="D274" s="4"/>
+      <c r="D274" s="4" t="s">
+        <v>845</v>
+      </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
@@ -5510,7 +6865,9 @@
       <c r="C275" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="D275" s="4"/>
+      <c r="D275" s="4" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
@@ -5522,7 +6879,9 @@
       <c r="C276" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="D276" s="4"/>
+      <c r="D276" s="4" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
@@ -5534,7 +6893,9 @@
       <c r="C277" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="D277" s="4"/>
+      <c r="D277" s="4" t="s">
+        <v>848</v>
+      </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
@@ -5546,7 +6907,9 @@
       <c r="C278" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="D278" s="4"/>
+      <c r="D278" s="4" t="s">
+        <v>849</v>
+      </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
@@ -5558,7 +6921,9 @@
       <c r="C279" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D279" s="4"/>
+      <c r="D279" s="4" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
@@ -5570,7 +6935,9 @@
       <c r="C280" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="D280" s="4"/>
+      <c r="D280" s="4" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
@@ -5582,7 +6949,9 @@
       <c r="C281" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="D281" s="4"/>
+      <c r="D281" s="4" t="s">
+        <v>852</v>
+      </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
@@ -5594,7 +6963,9 @@
       <c r="C282" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="D282" s="4"/>
+      <c r="D282" s="4" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
@@ -5606,7 +6977,9 @@
       <c r="C283" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="D283" s="4"/>
+      <c r="D283" s="4" t="s">
+        <v>854</v>
+      </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
@@ -5618,7 +6991,9 @@
       <c r="C284" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="D284" s="4"/>
+      <c r="D284" s="4" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
@@ -5630,7 +7005,9 @@
       <c r="C285" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="D285" s="4"/>
+      <c r="D285" s="4" t="s">
+        <v>857</v>
+      </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
@@ -5642,7 +7019,9 @@
       <c r="C286" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="D286" s="4"/>
+      <c r="D286" s="4" t="s">
+        <v>858</v>
+      </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
@@ -5654,7 +7033,9 @@
       <c r="C287" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="D287" s="4"/>
+      <c r="D287" s="4" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
@@ -5666,7 +7047,9 @@
       <c r="C288" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="D288" s="4"/>
+      <c r="D288" s="4" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
@@ -5678,7 +7061,9 @@
       <c r="C289" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="D289" s="4"/>
+      <c r="D289" s="4" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
@@ -5690,7 +7075,9 @@
       <c r="C290" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="D290" s="4"/>
+      <c r="D290" s="4" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
@@ -5702,7 +7089,9 @@
       <c r="C291" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="D291" s="4"/>
+      <c r="D291" s="4" t="s">
+        <v>863</v>
+      </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
@@ -5714,7 +7103,9 @@
       <c r="C292" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D292" s="4"/>
+      <c r="D292" s="4" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
@@ -5726,7 +7117,9 @@
       <c r="C293" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="D293" s="4"/>
+      <c r="D293" s="4" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
@@ -5738,7 +7131,9 @@
       <c r="C294" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="D294" s="4"/>
+      <c r="D294" s="4" t="s">
+        <v>866</v>
+      </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
@@ -5750,7 +7145,9 @@
       <c r="C295" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D295" s="4"/>
+      <c r="D295" s="4" t="s">
+        <v>867</v>
+      </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
@@ -5762,7 +7159,9 @@
       <c r="C296" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="D296" s="4"/>
+      <c r="D296" s="4" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
@@ -5774,7 +7173,9 @@
       <c r="C297" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="D297" s="4"/>
+      <c r="D297" s="4" t="s">
+        <v>869</v>
+      </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
@@ -5786,7 +7187,9 @@
       <c r="C298" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D298" s="4"/>
+      <c r="D298" s="4" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
@@ -5798,7 +7201,9 @@
       <c r="C299" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="D299" s="4"/>
+      <c r="D299" s="4" t="s">
+        <v>871</v>
+      </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
@@ -5810,7 +7215,9 @@
       <c r="C300" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="D300" s="4"/>
+      <c r="D300" s="4" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
@@ -5822,7 +7229,9 @@
       <c r="C301" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="D301" s="4"/>
+      <c r="D301" s="4" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
@@ -5834,7 +7243,9 @@
       <c r="C302" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D302" s="4"/>
+      <c r="D302" s="4" t="s">
+        <v>874</v>
+      </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
@@ -5846,7 +7257,9 @@
       <c r="C303" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D303" s="4"/>
+      <c r="D303" s="4" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
@@ -5858,7 +7271,9 @@
       <c r="C304" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="D304" s="4"/>
+      <c r="D304" s="4" t="s">
+        <v>876</v>
+      </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
@@ -5870,7 +7285,9 @@
       <c r="C305" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="D305" s="4"/>
+      <c r="D305" s="4" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
@@ -5882,7 +7299,9 @@
       <c r="C306" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="D306" s="4"/>
+      <c r="D306" s="4" t="s">
+        <v>855</v>
+      </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A307" s="4">
@@ -5893,11 +7312,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{A8BB7D67-50DA-F64C-B7EE-12631B37D868}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C307">
-      <sortCondition ref="A1:A307"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:D1" xr:uid="{A8BB7D67-50DA-F64C-B7EE-12631B37D868}"/>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{9645702D-64B7-D64B-9B7C-8BB479BD9AF7}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{7C9D70FD-F3D2-624A-94CC-E24881025740}"/>

--- a/img/lun/links.xlsx
+++ b/img/lun/links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Library/CloudStorage/Dropbox/GitHub/kennethbunker.github.io/img/lun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE088D1-35CF-C94F-8BAD-05E53F6E1196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB9BCC-A1CA-E94E-93EB-A9E7192C84DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{139F8825-776B-D141-A958-7D8ABBE3845F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12440" windowHeight="16360" xr2:uid="{139F8825-776B-D141-A958-7D8ABBE3845F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3087,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB7D67-50DA-F64C-B7EE-12631B37D868}">
   <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="F301" sqref="F301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>20180328</v>
+        <v>20180329</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>56</v>

--- a/img/lun/links.xlsx
+++ b/img/lun/links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Library/CloudStorage/Dropbox/GitHub/kennethbunker.github.io/img/lun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DB9BCC-A1CA-E94E-93EB-A9E7192C84DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A05FDA-502D-BB42-AC3C-B0FCD8651A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="12440" windowHeight="16360" xr2:uid="{139F8825-776B-D141-A958-7D8ABBE3845F}"/>
   </bookViews>
@@ -37,12 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="876">
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Punto de inflexión</t>
   </si>
   <si>
     <t>https://www.lun.com/Pages/NewsDetail.aspx?dt=2018-01-07&amp;EsAviso=0&amp;PaginaId=11&amp;bodyid=0</t>
@@ -3085,10 +3082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BB7D67-50DA-F64C-B7EE-12631B37D868}">
-  <dimension ref="A1:E307"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3100,16 +3097,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -3117,7 +3114,7 @@
         <v>20180102</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -3128,13 +3125,13 @@
         <v>20180107</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -3142,13 +3139,13 @@
         <v>20180115</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -3156,13 +3153,13 @@
         <v>20180121</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -3170,13 +3167,13 @@
         <v>20180124</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -3184,13 +3181,13 @@
         <v>20180217</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -3198,13 +3195,13 @@
         <v>20180225</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -3212,13 +3209,13 @@
         <v>20180227</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3226,13 +3223,13 @@
         <v>20180307</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -3240,13 +3237,13 @@
         <v>20180312</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -3254,13 +3251,13 @@
         <v>20180322</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3268,13 +3265,13 @@
         <v>20180329</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3282,13 +3279,13 @@
         <v>20180404</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -3296,13 +3293,13 @@
         <v>20180406</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3310,13 +3307,13 @@
         <v>20180413</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -3324,13 +3321,13 @@
         <v>20180414</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -3338,13 +3335,13 @@
         <v>20180418</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -3352,13 +3349,13 @@
         <v>20180419</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -3366,13 +3363,13 @@
         <v>20180420</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -3380,13 +3377,13 @@
         <v>20180422</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -3394,13 +3391,13 @@
         <v>20180427</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -3408,13 +3405,13 @@
         <v>20180503</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -3422,13 +3419,13 @@
         <v>20180504</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -3436,13 +3433,13 @@
         <v>20180507</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -3450,13 +3447,13 @@
         <v>20180509</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -3464,13 +3461,13 @@
         <v>20180511</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -3478,13 +3475,13 @@
         <v>20180514</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -3492,7 +3489,7 @@
         <v>20180516</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -3502,13 +3499,13 @@
         <v>20180518</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -3516,13 +3513,13 @@
         <v>20180527</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -3530,13 +3527,13 @@
         <v>20180608</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3544,13 +3541,13 @@
         <v>20180612</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3558,13 +3555,13 @@
         <v>20180615</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3572,13 +3569,13 @@
         <v>20180618</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3586,13 +3583,13 @@
         <v>20180619</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3600,13 +3597,13 @@
         <v>20180709</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -3614,13 +3611,13 @@
         <v>20180712</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -3628,13 +3625,13 @@
         <v>20180719</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -3642,13 +3639,13 @@
         <v>20180724</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -3656,13 +3653,13 @@
         <v>20180730</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -3670,13 +3667,13 @@
         <v>20180810</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -3684,13 +3681,13 @@
         <v>20180814</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3698,13 +3695,13 @@
         <v>20180824</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -3712,13 +3709,13 @@
         <v>20180830</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>89</v>
-      </c>
       <c r="D45" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3726,7 +3723,7 @@
         <v>20180917</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -3736,7 +3733,7 @@
         <v>20181002</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3746,13 +3743,13 @@
         <v>20181009</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C48" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="D48" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3760,13 +3757,13 @@
         <v>20181010</v>
       </c>
       <c r="B49" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>95</v>
-      </c>
       <c r="D49" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3774,7 +3771,7 @@
         <v>20181016</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3784,7 +3781,7 @@
         <v>20181019</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
@@ -3794,7 +3791,7 @@
         <v>20181125</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
@@ -3804,7 +3801,7 @@
         <v>20190313</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
@@ -3814,13 +3811,13 @@
         <v>20190320</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C54" s="6" t="s">
-        <v>101</v>
-      </c>
       <c r="D54" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3828,7 +3825,7 @@
         <v>20190328</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3838,13 +3835,13 @@
         <v>20190619</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>104</v>
-      </c>
       <c r="D56" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3852,7 +3849,7 @@
         <v>20191011</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3862,7 +3859,7 @@
         <v>20191019</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
@@ -3872,13 +3869,13 @@
         <v>20191206</v>
       </c>
       <c r="B59" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="D59" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3886,13 +3883,13 @@
         <v>20191216</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="D60" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3900,13 +3897,13 @@
         <v>20200124</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="D61" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3914,13 +3911,13 @@
         <v>20210126</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="D62" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3928,13 +3925,13 @@
         <v>20200229</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="D63" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3942,13 +3939,13 @@
         <v>20200303</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="D64" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3956,13 +3953,13 @@
         <v>20200307</v>
       </c>
       <c r="B65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="6" t="s">
-        <v>120</v>
-      </c>
       <c r="D65" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -3970,13 +3967,13 @@
         <v>20200320</v>
       </c>
       <c r="B66" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="D66" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3984,13 +3981,13 @@
         <v>20200401</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="D67" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -3998,13 +3995,13 @@
         <v>20200417</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="D68" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -4012,13 +4009,13 @@
         <v>20200505</v>
       </c>
       <c r="B69" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="D69" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -4026,13 +4023,13 @@
         <v>20200507</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>130</v>
-      </c>
       <c r="D70" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -4040,13 +4037,13 @@
         <v>20200512</v>
       </c>
       <c r="B71" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="D71" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -4054,13 +4051,13 @@
         <v>20200514</v>
       </c>
       <c r="B72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -4068,13 +4065,13 @@
         <v>20200527</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="D73" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -4082,13 +4079,13 @@
         <v>20200530</v>
       </c>
       <c r="B74" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>138</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -4096,13 +4093,13 @@
         <v>20200605</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="D75" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -4110,13 +4107,13 @@
         <v>20200609</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="D76" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -4124,13 +4121,13 @@
         <v>20200612</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="D77" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -4138,13 +4135,13 @@
         <v>20200614</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C78" s="6" t="s">
-        <v>146</v>
-      </c>
       <c r="D78" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -4152,13 +4149,13 @@
         <v>20200619</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C79" s="6" t="s">
-        <v>148</v>
-      </c>
       <c r="D79" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -4166,13 +4163,13 @@
         <v>20200701</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="D80" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -4180,13 +4177,13 @@
         <v>20200703</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>152</v>
-      </c>
       <c r="D81" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4194,13 +4191,13 @@
         <v>20200706</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="D82" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4208,13 +4205,13 @@
         <v>20200709</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>156</v>
-      </c>
       <c r="D83" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4222,13 +4219,13 @@
         <v>20200721</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C84" s="6" t="s">
-        <v>158</v>
-      </c>
       <c r="D84" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4236,13 +4233,13 @@
         <v>20200724</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>160</v>
-      </c>
       <c r="D85" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4250,13 +4247,13 @@
         <v>20200729</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="D86" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4264,13 +4261,13 @@
         <v>20200820</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>164</v>
-      </c>
       <c r="D87" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4278,13 +4275,13 @@
         <v>20200826</v>
       </c>
       <c r="B88" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>166</v>
-      </c>
       <c r="D88" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4292,13 +4289,13 @@
         <v>20200917</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C89" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4306,13 +4303,13 @@
         <v>20200930</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C90" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="D90" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4320,13 +4317,13 @@
         <v>20201001</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>172</v>
-      </c>
       <c r="D91" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4334,13 +4331,13 @@
         <v>20201014</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="D92" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4348,13 +4345,13 @@
         <v>20201026</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="C93" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="D93" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4362,13 +4359,13 @@
         <v>20201031</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C94" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="D94" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4376,13 +4373,13 @@
         <v>20201104</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="6" t="s">
-        <v>180</v>
-      </c>
       <c r="D95" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4390,13 +4387,13 @@
         <v>20201105</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="C96" s="6" t="s">
-        <v>182</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -4404,13 +4401,13 @@
         <v>20201111</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>184</v>
-      </c>
       <c r="D97" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4418,13 +4415,13 @@
         <v>20201120</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4432,13 +4429,13 @@
         <v>20201202</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C99" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>187</v>
-      </c>
       <c r="D99" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4446,13 +4443,13 @@
         <v>20201204</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C100" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="D100" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4460,13 +4457,13 @@
         <v>20201216</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="D101" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4474,13 +4471,13 @@
         <v>20201219</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C102" s="6" t="s">
-        <v>193</v>
-      </c>
       <c r="D102" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4488,13 +4485,13 @@
         <v>20201230</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C103" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="D103" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4502,13 +4499,13 @@
         <v>20211001</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C104" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4516,13 +4513,13 @@
         <v>20210123</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>199</v>
-      </c>
       <c r="D105" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,13 +4527,13 @@
         <v>20210126</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4544,13 +4541,13 @@
         <v>20210215</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>202</v>
-      </c>
       <c r="D107" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4558,13 +4555,13 @@
         <v>20210216</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C108" s="6" t="s">
-        <v>204</v>
-      </c>
       <c r="D108" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,13 +4569,13 @@
         <v>20210318</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C109" s="6" t="s">
-        <v>206</v>
-      </c>
       <c r="D109" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4586,13 +4583,13 @@
         <v>20210326</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C110" s="6" t="s">
-        <v>208</v>
-      </c>
       <c r="D110" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4600,13 +4597,13 @@
         <v>20210331</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C111" s="6" t="s">
-        <v>210</v>
-      </c>
       <c r="D111" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4614,13 +4611,13 @@
         <v>20210402</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C112" s="6" t="s">
-        <v>212</v>
-      </c>
       <c r="D112" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4628,13 +4625,13 @@
         <v>20210408</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="D113" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4642,13 +4639,13 @@
         <v>20210414</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="C114" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="D114" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4656,13 +4653,13 @@
         <v>20210416</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C115" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="D115" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4670,13 +4667,13 @@
         <v>20210417</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="D116" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,13 +4681,13 @@
         <v>20210428</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C117" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="D117" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4698,13 +4695,13 @@
         <v>20210430</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="C118" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="D118" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4712,7 +4709,7 @@
         <v>20210506</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -4722,13 +4719,13 @@
         <v>20210508</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="C120" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="D120" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4736,13 +4733,13 @@
         <v>20210511</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>229</v>
-      </c>
       <c r="D121" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4750,7 +4747,7 @@
         <v>20210516</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
@@ -4760,13 +4757,13 @@
         <v>20210517</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C123" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="C123" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="D123" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4774,13 +4771,13 @@
         <v>20210602</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C124" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C124" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="D124" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4788,13 +4785,13 @@
         <v>20210614</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C125" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="D125" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4802,13 +4799,13 @@
         <v>20210705</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="D126" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4816,13 +4813,13 @@
         <v>20210707</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C127" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="C127" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="D127" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -4830,13 +4827,13 @@
         <v>20210713</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C128" s="6" t="s">
-        <v>242</v>
-      </c>
       <c r="D128" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4844,13 +4841,13 @@
         <v>20210719</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C129" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="C129" s="6" t="s">
-        <v>244</v>
-      </c>
       <c r="D129" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -4858,13 +4855,13 @@
         <v>20210720</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C130" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="C130" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="D130" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -4872,13 +4869,13 @@
         <v>20210721</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C131" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C131" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="D131" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -4886,13 +4883,13 @@
         <v>20210724</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C132" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>250</v>
-      </c>
       <c r="D132" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4900,13 +4897,13 @@
         <v>20210727</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C133" s="6" t="s">
-        <v>252</v>
-      </c>
       <c r="D133" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -4914,13 +4911,13 @@
         <v>20210729</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C134" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C134" s="6" t="s">
-        <v>254</v>
-      </c>
       <c r="D134" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -4928,13 +4925,13 @@
         <v>20210910</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C135" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C135" s="6" t="s">
-        <v>256</v>
-      </c>
       <c r="D135" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -4942,13 +4939,13 @@
         <v>20210915</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C136" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="D136" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -4956,7 +4953,7 @@
         <v>20210916</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
@@ -4966,13 +4963,13 @@
         <v>20210921</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C138" s="6" t="s">
-        <v>261</v>
-      </c>
       <c r="D138" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -4980,13 +4977,13 @@
         <v>20210925</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="C139" s="6" t="s">
-        <v>263</v>
-      </c>
       <c r="D139" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -4994,13 +4991,13 @@
         <v>20210928</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C140" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="D140" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -5008,13 +5005,13 @@
         <v>20210929</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="C141" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="D141" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -5022,13 +5019,13 @@
         <v>20211013</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C142" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C142" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="D142" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -5036,13 +5033,13 @@
         <v>20211014</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C143" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C143" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="D143" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -5050,13 +5047,13 @@
         <v>20211019</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C144" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="C144" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="D144" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -5064,13 +5061,13 @@
         <v>20211020</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C145" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="C145" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="D145" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -5078,13 +5075,13 @@
         <v>20211103</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="C146" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="D146" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -5092,13 +5089,13 @@
         <v>20211106</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C147" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C147" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="D147" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -5106,13 +5103,13 @@
         <v>20211110</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C148" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="D148" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -5120,13 +5117,13 @@
         <v>20211111</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C149" s="6" t="s">
-        <v>283</v>
-      </c>
       <c r="D149" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -5134,13 +5131,13 @@
         <v>20211113</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C150" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="C150" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="D150" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -5148,13 +5145,13 @@
         <v>20211115</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="C151" s="6" t="s">
-        <v>287</v>
-      </c>
       <c r="D151" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5162,13 +5159,13 @@
         <v>20211116</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C152" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="C152" s="6" t="s">
-        <v>289</v>
-      </c>
       <c r="D152" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -5176,13 +5173,13 @@
         <v>20211117</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C153" s="6" t="s">
-        <v>291</v>
-      </c>
       <c r="D153" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5190,13 +5187,13 @@
         <v>20211123</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C154" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>293</v>
-      </c>
       <c r="D154" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5204,13 +5201,13 @@
         <v>20211125</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C155" s="6" t="s">
-        <v>295</v>
-      </c>
       <c r="D155" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5218,13 +5215,13 @@
         <v>20211127</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C156" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C156" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="D156" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -5232,13 +5229,13 @@
         <v>20211211</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C157" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="C157" s="6" t="s">
-        <v>299</v>
-      </c>
       <c r="D157" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5246,13 +5243,13 @@
         <v>20211214</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C158" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="C158" s="6" t="s">
-        <v>301</v>
-      </c>
       <c r="D158" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5260,13 +5257,13 @@
         <v>20211220</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C159" s="6" t="s">
-        <v>303</v>
-      </c>
       <c r="D159" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -5274,7 +5271,7 @@
         <v>20211221</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
@@ -5284,13 +5281,13 @@
         <v>20211223</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="D161" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5298,13 +5295,13 @@
         <v>20220106</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>308</v>
-      </c>
       <c r="D162" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5312,13 +5309,13 @@
         <v>20220122</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C163" s="6" t="s">
-        <v>310</v>
-      </c>
       <c r="D163" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5326,13 +5323,13 @@
         <v>20220130</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="C164" s="6" t="s">
-        <v>312</v>
-      </c>
       <c r="D164" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5340,13 +5337,13 @@
         <v>20220202</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C165" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="D165" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5354,13 +5351,13 @@
         <v>20220206</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="C166" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="D166" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5368,13 +5365,13 @@
         <v>20220207</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C167" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="D167" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5382,13 +5379,13 @@
         <v>20220210</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="C168" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="D168" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5396,13 +5393,13 @@
         <v>20220216</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C169" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="D169" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5410,13 +5407,13 @@
         <v>20220219</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C170" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="D170" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5424,13 +5421,13 @@
         <v>20220223</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="D171" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5438,13 +5435,13 @@
         <v>20220225</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C172" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="D172" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -5452,13 +5449,13 @@
         <v>20220312</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C173" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="D173" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5466,13 +5463,13 @@
         <v>20220316</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="D174" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5480,13 +5477,13 @@
         <v>20220318</v>
       </c>
       <c r="B175" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="D175" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5494,13 +5491,13 @@
         <v>20220323</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C176" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="D176" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5508,13 +5505,13 @@
         <v>20220325</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C177" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="D177" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5522,13 +5519,13 @@
         <v>20220330</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C178" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="D178" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5536,13 +5533,13 @@
         <v>20220413</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C179" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="D179" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -5550,13 +5547,13 @@
         <v>20220414</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="D180" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -5564,13 +5561,13 @@
         <v>20220416</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="D181" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -5578,7 +5575,7 @@
         <v>20220420</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
@@ -5588,13 +5585,13 @@
         <v>20220423</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="D183" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -5602,7 +5599,7 @@
         <v>20220430</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
@@ -5612,13 +5609,13 @@
         <v>20220511</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C185" s="6" t="s">
-        <v>352</v>
-      </c>
       <c r="D185" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -5626,13 +5623,13 @@
         <v>20220512</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>354</v>
-      </c>
       <c r="D186" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -5640,13 +5637,13 @@
         <v>20220517</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>356</v>
-      </c>
       <c r="D187" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -5654,13 +5651,13 @@
         <v>20220526</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="C188" s="6" t="s">
-        <v>358</v>
-      </c>
       <c r="D188" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -5668,7 +5665,7 @@
         <v>20220530</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
@@ -5678,13 +5675,13 @@
         <v>20220531</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="C190" s="6" t="s">
-        <v>361</v>
-      </c>
       <c r="D190" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -5692,13 +5689,13 @@
         <v>20220601</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>363</v>
-      </c>
       <c r="D191" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -5706,13 +5703,13 @@
         <v>20220602</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="D192" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -5720,13 +5717,13 @@
         <v>20220610</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="C193" s="6" t="s">
-        <v>367</v>
-      </c>
       <c r="D193" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
@@ -5734,13 +5731,13 @@
         <v>20220611</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>369</v>
-      </c>
       <c r="D194" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -5748,13 +5745,13 @@
         <v>20220615</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>371</v>
-      </c>
       <c r="D195" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
@@ -5762,13 +5759,13 @@
         <v>20220620</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C196" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C196" s="6" t="s">
-        <v>373</v>
-      </c>
       <c r="D196" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -5776,13 +5773,13 @@
         <v>20220623</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C197" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C197" s="6" t="s">
-        <v>375</v>
-      </c>
       <c r="D197" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -5790,7 +5787,7 @@
         <v>20220625</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
@@ -5800,13 +5797,13 @@
         <v>20220701</v>
       </c>
       <c r="B199" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="C199" s="6" t="s">
-        <v>378</v>
-      </c>
       <c r="D199" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -5814,13 +5811,13 @@
         <v>20220705</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C200" s="6" t="s">
-        <v>380</v>
-      </c>
       <c r="D200" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -5828,13 +5825,13 @@
         <v>20220706</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C201" s="6" t="s">
-        <v>382</v>
-      </c>
       <c r="D201" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -5842,13 +5839,13 @@
         <v>20220714</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C202" s="6" t="s">
-        <v>384</v>
-      </c>
       <c r="D202" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -5856,13 +5853,13 @@
         <v>20220716</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C203" s="6" t="s">
-        <v>386</v>
-      </c>
       <c r="D203" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -5870,13 +5867,13 @@
         <v>20220721</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C204" s="6" t="s">
-        <v>388</v>
-      </c>
       <c r="D204" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
@@ -5884,13 +5881,13 @@
         <v>20220727</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C205" s="6" t="s">
-        <v>390</v>
-      </c>
       <c r="D205" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -5898,13 +5895,13 @@
         <v>20220730</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>392</v>
-      </c>
       <c r="D206" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -5912,13 +5909,13 @@
         <v>20220802</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C207" s="6" t="s">
-        <v>394</v>
-      </c>
       <c r="D207" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -5926,13 +5923,13 @@
         <v>20220804</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="D208" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.2">
@@ -5940,13 +5937,13 @@
         <v>20220809</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C209" s="6" t="s">
-        <v>398</v>
-      </c>
       <c r="D209" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -5954,13 +5951,13 @@
         <v>20220812</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="C210" s="6" t="s">
-        <v>400</v>
-      </c>
       <c r="D210" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -5968,13 +5965,13 @@
         <v>20220818</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="C211" s="6" t="s">
-        <v>402</v>
-      </c>
       <c r="D211" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -5982,13 +5979,13 @@
         <v>20220825</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C212" s="6" t="s">
-        <v>404</v>
-      </c>
       <c r="D212" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -5996,13 +5993,13 @@
         <v>20220826</v>
       </c>
       <c r="B213" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="C213" s="6" t="s">
-        <v>406</v>
-      </c>
       <c r="D213" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -6010,13 +6007,13 @@
         <v>20220828</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="D214" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -6024,13 +6021,13 @@
         <v>20220901</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C215" s="6" t="s">
-        <v>410</v>
-      </c>
       <c r="D215" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -6038,13 +6035,13 @@
         <v>20220905</v>
       </c>
       <c r="B216" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>412</v>
-      </c>
       <c r="D216" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -6052,13 +6049,13 @@
         <v>20220907</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="C217" s="6" t="s">
-        <v>414</v>
-      </c>
       <c r="D217" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -6066,13 +6063,13 @@
         <v>20220909</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C218" s="6" t="s">
-        <v>416</v>
-      </c>
       <c r="D218" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -6080,13 +6077,13 @@
         <v>20220914</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C219" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="C219" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="D219" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -6094,13 +6091,13 @@
         <v>20220916</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C220" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C220" s="6" t="s">
-        <v>420</v>
-      </c>
       <c r="D220" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -6108,13 +6105,13 @@
         <v>20220918</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C221" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C221" s="6" t="s">
-        <v>422</v>
-      </c>
       <c r="D221" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -6122,13 +6119,13 @@
         <v>20220924</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C222" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="C222" s="6" t="s">
-        <v>424</v>
-      </c>
       <c r="D222" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.2">
@@ -6136,13 +6133,13 @@
         <v>20220925</v>
       </c>
       <c r="B223" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C223" s="6" t="s">
-        <v>426</v>
-      </c>
       <c r="D223" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -6150,13 +6147,13 @@
         <v>20221027</v>
       </c>
       <c r="B224" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="C224" s="6" t="s">
-        <v>428</v>
-      </c>
       <c r="D224" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6164,7 +6161,7 @@
         <v>20221029</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
@@ -6174,13 +6171,13 @@
         <v>20221105</v>
       </c>
       <c r="B226" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="D226" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6188,13 +6185,13 @@
         <v>20221108</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C227" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="C227" s="6" t="s">
-        <v>433</v>
-      </c>
       <c r="D227" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6202,13 +6199,13 @@
         <v>20221110</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C228" s="6" t="s">
-        <v>435</v>
-      </c>
       <c r="D228" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -6216,13 +6213,13 @@
         <v>20221114</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="C229" s="6" t="s">
-        <v>437</v>
-      </c>
       <c r="D229" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -6230,13 +6227,13 @@
         <v>20221116</v>
       </c>
       <c r="B230" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>439</v>
-      </c>
       <c r="D230" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -6244,13 +6241,13 @@
         <v>20221121</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C231" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>441</v>
-      </c>
       <c r="D231" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -6258,13 +6255,13 @@
         <v>20221207</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C232" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="D232" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -6272,13 +6269,13 @@
         <v>20221214</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="C233" s="6" t="s">
-        <v>445</v>
-      </c>
       <c r="D233" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -6286,13 +6283,13 @@
         <v>20221220</v>
       </c>
       <c r="B234" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>447</v>
-      </c>
       <c r="D234" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
@@ -6300,13 +6297,13 @@
         <v>20221224</v>
       </c>
       <c r="B235" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="C235" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C235" s="6" t="s">
-        <v>449</v>
-      </c>
       <c r="D235" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -6314,13 +6311,13 @@
         <v>20221228</v>
       </c>
       <c r="B236" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C236" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="C236" s="6" t="s">
-        <v>451</v>
-      </c>
       <c r="D236" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -6328,13 +6325,13 @@
         <v>20221231</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C237" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="C237" s="6" t="s">
-        <v>453</v>
-      </c>
       <c r="D237" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -6342,13 +6339,13 @@
         <v>20230105</v>
       </c>
       <c r="B238" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C238" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C238" s="6" t="s">
-        <v>455</v>
-      </c>
       <c r="D238" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -6356,13 +6353,13 @@
         <v>20230110</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C239" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="C239" s="6" t="s">
-        <v>457</v>
-      </c>
       <c r="D239" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
@@ -6370,13 +6367,13 @@
         <v>20230114</v>
       </c>
       <c r="B240" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="C240" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="C240" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="D240" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -6384,13 +6381,13 @@
         <v>20230125</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C241" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C241" s="6" t="s">
-        <v>461</v>
-      </c>
       <c r="D241" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -6398,13 +6395,13 @@
         <v>20230127</v>
       </c>
       <c r="B242" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C242" s="6" t="s">
-        <v>463</v>
-      </c>
       <c r="D242" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -6412,13 +6409,13 @@
         <v>20230203</v>
       </c>
       <c r="B243" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C243" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C243" s="6" t="s">
-        <v>465</v>
-      </c>
       <c r="D243" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -6426,13 +6423,13 @@
         <v>20230222</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C244" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="C244" s="6" t="s">
-        <v>467</v>
-      </c>
       <c r="D244" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -6440,13 +6437,13 @@
         <v>20230223</v>
       </c>
       <c r="B245" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C245" s="6" t="s">
-        <v>469</v>
-      </c>
       <c r="D245" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -6454,13 +6451,13 @@
         <v>20230307</v>
       </c>
       <c r="B246" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C246" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C246" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="D246" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -6468,13 +6465,13 @@
         <v>20230308</v>
       </c>
       <c r="B247" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C247" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C247" s="6" t="s">
-        <v>473</v>
-      </c>
       <c r="D247" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -6482,13 +6479,13 @@
         <v>20230309</v>
       </c>
       <c r="B248" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C248" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C248" s="6" t="s">
-        <v>475</v>
-      </c>
       <c r="D248" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -6496,13 +6493,13 @@
         <v>20230311</v>
       </c>
       <c r="B249" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="C249" s="6" t="s">
-        <v>477</v>
-      </c>
       <c r="D249" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -6510,13 +6507,13 @@
         <v>20230323</v>
       </c>
       <c r="B250" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C250" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="D250" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -6524,13 +6521,13 @@
         <v>20230330</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C251" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="C251" s="6" t="s">
-        <v>481</v>
-      </c>
       <c r="D251" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -6538,13 +6535,13 @@
         <v>20230407</v>
       </c>
       <c r="B252" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C252" s="6" t="s">
-        <v>483</v>
-      </c>
       <c r="D252" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -6552,13 +6549,13 @@
         <v>20230414</v>
       </c>
       <c r="B253" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C253" s="6" t="s">
-        <v>485</v>
-      </c>
       <c r="D253" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -6566,13 +6563,13 @@
         <v>20230420</v>
       </c>
       <c r="B254" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C254" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="C254" s="6" t="s">
-        <v>487</v>
-      </c>
       <c r="D254" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -6580,13 +6577,13 @@
         <v>20230422</v>
       </c>
       <c r="B255" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C255" s="6" t="s">
-        <v>489</v>
-      </c>
       <c r="D255" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
@@ -6594,13 +6591,13 @@
         <v>20230429</v>
       </c>
       <c r="B256" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C256" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="C256" s="6" t="s">
-        <v>491</v>
-      </c>
       <c r="D256" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -6608,13 +6605,13 @@
         <v>20230506</v>
       </c>
       <c r="B257" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="C257" s="6" t="s">
-        <v>493</v>
-      </c>
       <c r="D257" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.2">
@@ -6622,13 +6619,13 @@
         <v>20230508</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C258" s="6" t="s">
-        <v>495</v>
-      </c>
       <c r="D258" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -6636,13 +6633,13 @@
         <v>20230509</v>
       </c>
       <c r="B259" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C259" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="C259" s="6" t="s">
-        <v>497</v>
-      </c>
       <c r="D259" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.2">
@@ -6650,13 +6647,13 @@
         <v>20230525</v>
       </c>
       <c r="B260" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="C260" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C260" s="6" t="s">
-        <v>499</v>
-      </c>
       <c r="D260" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.2">
@@ -6664,13 +6661,13 @@
         <v>20230602</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="C261" s="6" t="s">
-        <v>501</v>
-      </c>
       <c r="D261" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -6678,13 +6675,13 @@
         <v>20230608</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C262" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C262" s="6" t="s">
-        <v>503</v>
-      </c>
       <c r="D262" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -6692,13 +6689,13 @@
         <v>20230614</v>
       </c>
       <c r="B263" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C263" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C263" s="6" t="s">
-        <v>505</v>
-      </c>
       <c r="D263" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -6706,13 +6703,13 @@
         <v>20230624</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C264" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>507</v>
-      </c>
       <c r="D264" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -6720,13 +6717,13 @@
         <v>20230705</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C265" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="C265" s="6" t="s">
-        <v>509</v>
-      </c>
       <c r="D265" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.2">
@@ -6734,13 +6731,13 @@
         <v>20230707</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C266" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="C266" s="6" t="s">
-        <v>511</v>
-      </c>
       <c r="D266" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -6748,13 +6745,13 @@
         <v>20230713</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C267" s="6" t="s">
-        <v>513</v>
-      </c>
       <c r="D267" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
@@ -6762,13 +6759,13 @@
         <v>20230721</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="C268" s="6" t="s">
-        <v>515</v>
-      </c>
       <c r="D268" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -6776,13 +6773,13 @@
         <v>20230728</v>
       </c>
       <c r="B269" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="C269" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="C269" s="6" t="s">
-        <v>517</v>
-      </c>
       <c r="D269" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -6790,13 +6787,13 @@
         <v>20230802</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C270" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C270" s="6" t="s">
-        <v>519</v>
-      </c>
       <c r="D270" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
@@ -6804,13 +6801,13 @@
         <v>20230817</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C271" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="C271" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="D271" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -6818,13 +6815,13 @@
         <v>20230908</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C272" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C272" s="6" t="s">
-        <v>523</v>
-      </c>
       <c r="D272" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -6832,13 +6829,13 @@
         <v>20230912</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C273" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="C273" s="6" t="s">
-        <v>525</v>
-      </c>
       <c r="D273" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -6846,13 +6843,13 @@
         <v>20230916</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C274" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="C274" s="6" t="s">
-        <v>527</v>
-      </c>
       <c r="D274" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -6860,13 +6857,13 @@
         <v>20230922</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C275" s="6" t="s">
-        <v>529</v>
-      </c>
       <c r="D275" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
@@ -6874,13 +6871,13 @@
         <v>20230927</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="C276" s="6" t="s">
-        <v>531</v>
-      </c>
       <c r="D276" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -6888,13 +6885,13 @@
         <v>20230929</v>
       </c>
       <c r="B277" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C277" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C277" s="6" t="s">
-        <v>533</v>
-      </c>
       <c r="D277" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
@@ -6902,13 +6899,13 @@
         <v>20231026</v>
       </c>
       <c r="B278" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C278" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C278" s="6" t="s">
-        <v>535</v>
-      </c>
       <c r="D278" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
@@ -6916,13 +6913,13 @@
         <v>20231031</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C279" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="C279" s="6" t="s">
-        <v>537</v>
-      </c>
       <c r="D279" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -6930,13 +6927,13 @@
         <v>20231103</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C280" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C280" s="6" t="s">
-        <v>539</v>
-      </c>
       <c r="D280" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
@@ -6944,13 +6941,13 @@
         <v>20231108</v>
       </c>
       <c r="B281" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C281" s="6" t="s">
         <v>540</v>
       </c>
-      <c r="C281" s="6" t="s">
-        <v>541</v>
-      </c>
       <c r="D281" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
@@ -6958,13 +6955,13 @@
         <v>20231110</v>
       </c>
       <c r="B282" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C282" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C282" s="6" t="s">
-        <v>543</v>
-      </c>
       <c r="D282" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.2">
@@ -6972,13 +6969,13 @@
         <v>20231116</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C283" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>545</v>
-      </c>
       <c r="D283" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -6986,13 +6983,13 @@
         <v>20231130</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C284" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="C284" s="6" t="s">
-        <v>547</v>
-      </c>
       <c r="D284" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -7000,13 +6997,13 @@
         <v>20231208</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C285" s="6" t="s">
-        <v>549</v>
-      </c>
       <c r="D285" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -7014,13 +7011,13 @@
         <v>20231214</v>
       </c>
       <c r="B286" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C286" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C286" s="6" t="s">
-        <v>551</v>
-      </c>
       <c r="D286" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -7028,13 +7025,13 @@
         <v>20231216</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="C287" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="C287" s="6" t="s">
-        <v>553</v>
-      </c>
       <c r="D287" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -7042,13 +7039,13 @@
         <v>20231218</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C288" s="6" t="s">
         <v>554</v>
       </c>
-      <c r="C288" s="6" t="s">
-        <v>555</v>
-      </c>
       <c r="D288" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -7056,13 +7053,13 @@
         <v>20231219</v>
       </c>
       <c r="B289" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C289" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="C289" s="6" t="s">
-        <v>557</v>
-      </c>
       <c r="D289" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.2">
@@ -7070,13 +7067,13 @@
         <v>20231220</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C290" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="C290" s="6" t="s">
-        <v>559</v>
-      </c>
       <c r="D290" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -7084,13 +7081,13 @@
         <v>20240126</v>
       </c>
       <c r="B291" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="C291" s="6" t="s">
-        <v>561</v>
-      </c>
       <c r="D291" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.2">
@@ -7098,13 +7095,13 @@
         <v>20240131</v>
       </c>
       <c r="B292" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C292" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C292" s="6" t="s">
-        <v>563</v>
-      </c>
       <c r="D292" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -7112,13 +7109,13 @@
         <v>20240202</v>
       </c>
       <c r="B293" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C293" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="C293" s="6" t="s">
-        <v>565</v>
-      </c>
       <c r="D293" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.2">
@@ -7126,13 +7123,13 @@
         <v>20240207</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C294" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C294" s="6" t="s">
-        <v>567</v>
-      </c>
       <c r="D294" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.2">
@@ -7140,13 +7137,13 @@
         <v>20240305</v>
       </c>
       <c r="B295" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C295" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C295" s="6" t="s">
-        <v>569</v>
-      </c>
       <c r="D295" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
@@ -7154,13 +7151,13 @@
         <v>20240308</v>
       </c>
       <c r="B296" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C296" s="6" t="s">
         <v>570</v>
       </c>
-      <c r="C296" s="6" t="s">
-        <v>571</v>
-      </c>
       <c r="D296" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
@@ -7168,13 +7165,13 @@
         <v>20240316</v>
       </c>
       <c r="B297" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C297" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="C297" s="6" t="s">
-        <v>573</v>
-      </c>
       <c r="D297" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
@@ -7182,13 +7179,13 @@
         <v>20240327</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C298" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C298" s="6" t="s">
-        <v>575</v>
-      </c>
       <c r="D298" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.2">
@@ -7196,13 +7193,13 @@
         <v>20240328</v>
       </c>
       <c r="B299" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C299" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="C299" s="6" t="s">
-        <v>577</v>
-      </c>
       <c r="D299" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -7210,13 +7207,13 @@
         <v>20240329</v>
       </c>
       <c r="B300" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C300" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="C300" s="6" t="s">
-        <v>579</v>
-      </c>
       <c r="D300" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -7224,13 +7221,13 @@
         <v>20240406</v>
       </c>
       <c r="B301" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C301" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="C301" s="6" t="s">
-        <v>581</v>
-      </c>
       <c r="D301" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.2">
@@ -7238,13 +7235,13 @@
         <v>20240418</v>
       </c>
       <c r="B302" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C302" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C302" s="6" t="s">
-        <v>583</v>
-      </c>
       <c r="D302" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.2">
@@ -7252,13 +7249,13 @@
         <v>20240419</v>
       </c>
       <c r="B303" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C303" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="C303" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="D303" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.2">
@@ -7266,13 +7263,13 @@
         <v>20240423</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="C304" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="C304" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="D304" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.2">
@@ -7280,13 +7277,13 @@
         <v>20240508</v>
       </c>
       <c r="B305" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C305" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="C305" s="6" t="s">
-        <v>589</v>
-      </c>
       <c r="D305" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.2">
@@ -7294,21 +7291,13 @@
         <v>20240521</v>
       </c>
       <c r="B306" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="C306" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="C306" s="6" t="s">
-        <v>591</v>
-      </c>
       <c r="D306" s="4" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A307" s="4">
-        <v>20240508</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1</v>
+        <v>854</v>
       </c>
     </row>
   </sheetData>
